--- a/Monitoring and Controlling/Reviews.xlsx
+++ b/Monitoring and Controlling/Reviews.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="52" documentId="11_C9299DBACB98994FBFDF44D3CCB98151DB6ED029" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{30658B40-2C0F-4D27-A5B1-8423DE6C0354}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EC4BB75-369A-4FD8-BFEA-5B00CD50378A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PMP" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,8 @@
     <sheet name="Progress_Chart" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_Toc100879205" localSheetId="2">SRS!$D$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PMP!$A$1:$H$4</definedName>
+    <definedName name="_Toc100879205" localSheetId="2">SRS!$E$2</definedName>
     <definedName name="Options">Options!$B$1:$B$2</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="45">
   <si>
     <t>Review No.</t>
   </si>
@@ -161,6 +162,15 @@
   </si>
   <si>
     <t>Schedule and dependencies is missing</t>
+  </si>
+  <si>
+    <t>Assigned to</t>
+  </si>
+  <si>
+    <t>Work in progress</t>
+  </si>
+  <si>
+    <t>Sara</t>
   </si>
 </sst>
 </file>
@@ -223,7 +233,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -247,123 +257,23 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -371,7 +281,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -386,34 +296,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -544,6 +446,26 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-4239-422D-99F7-C48322B67C50}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
                 <a:srgbClr val="92D050"/>
               </a:solidFill>
               <a:ln w="19050">
@@ -555,7 +477,7 @@
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000D-4239-422D-99F7-C48322B67C50}"/>
+                <c16:uniqueId val="{00000005-11FD-4C0D-B9D1-2ECDE56DAFDB}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
@@ -683,13 +605,16 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Progress_Chart!$M$3:$M$4</c:f>
+              <c:f>Progress_Chart!$M$3:$M$5</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>Open</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Work in progress</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Closed</c:v>
                 </c:pt>
               </c:strCache>
@@ -697,15 +622,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress_Chart!$N$3:$N$4</c:f>
+              <c:f>Progress_Chart!$N$3:$N$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -726,7 +654,7 @@
           <c:showBubbleSize val="0"/>
           <c:showLeaderLines val="1"/>
         </c:dLbls>
-        <c:firstSliceAng val="0"/>
+        <c:firstSliceAng val="20"/>
       </c:pieChart>
       <c:spPr>
         <a:noFill/>
@@ -886,7 +814,7 @@
             <c:bubble3D val="0"/>
             <c:spPr>
               <a:solidFill>
-                <a:srgbClr val="92D050"/>
+                <a:srgbClr val="FFC000"/>
               </a:solidFill>
               <a:ln w="19050">
                 <a:solidFill>
@@ -901,15 +829,38 @@
               </c:ext>
             </c:extLst>
           </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="92D050"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-1218-4CF0-BD4D-8F6EC4EC2532}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>Progress_Chart!$B$3:$B$4</c:f>
+              <c:f>Progress_Chart!$B$3:$B$5</c:f>
               <c:strCache>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>Open</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Work in progress</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Closed</c:v>
                 </c:pt>
               </c:strCache>
@@ -917,15 +868,18 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Progress_Chart!$C$3:$C$4</c:f>
+              <c:f>Progress_Chart!$C$3:$C$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2481,163 +2435,213 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
+      <selection pane="bottomLeft" activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.21875" customWidth="1"/>
-    <col min="2" max="2" width="13.88671875" customWidth="1"/>
-    <col min="3" max="3" width="14.77734375" customWidth="1"/>
-    <col min="4" max="4" width="64.44140625" customWidth="1"/>
-    <col min="5" max="6" width="13.88671875" customWidth="1"/>
-    <col min="7" max="7" width="13.88671875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" customWidth="1"/>
+    <col min="2" max="3" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="64.42578125" customWidth="1"/>
+    <col min="6" max="6" width="24" customWidth="1"/>
+    <col min="7" max="7" width="13.85546875" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:8" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="E2" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>8</v>
-      </c>
       <c r="F2" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="10"/>
+      <c r="H2" s="8"/>
     </row>
-    <row r="3" spans="1:7" ht="70.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:8" ht="70.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>32</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="E3" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>7</v>
-      </c>
       <c r="F3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="H3" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:8" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>31</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="E4" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>8</v>
-      </c>
       <c r="F4" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="10"/>
+      <c r="H4" s="8"/>
     </row>
-    <row r="5" spans="1:7" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="9"/>
-      <c r="G5" s="10"/>
+    <row r="5" spans="1:8" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="1:7" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="9"/>
+    <row r="6" spans="1:8" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="6"/>
       <c r="F6" s="5"/>
-      <c r="G6" s="10"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:7" ht="37.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="11"/>
+    <row r="7" spans="1:8" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="12"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="6"/>
       <c r="F7" s="5"/>
-      <c r="G7" s="10"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E6:E1048576 E2:E4" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F8:F1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>Options</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{9E0A43DA-2308-4152-9AF7-E385870799B0}">
+          <x14:formula1>
+            <xm:f>Options!$B$1:$B$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>F2</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{84852DD7-0D57-4945-BA75-1B9E609287BE}">
+          <x14:formula1>
+            <xm:f>Options!B1:B3</xm:f>
+          </x14:formula1>
+          <xm:sqref>F3</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{5E9A6284-51CF-4A60-A5C0-8136098C57EF}">
+          <x14:formula1>
+            <xm:f>Options!B1:B3</xm:f>
+          </x14:formula1>
+          <xm:sqref>F4:F7</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B1:B2"/>
+  <dimension ref="B1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -2647,211 +2651,239 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.21875" customWidth="1"/>
-    <col min="2" max="2" width="13.88671875" customWidth="1"/>
-    <col min="3" max="3" width="14.77734375" customWidth="1"/>
-    <col min="4" max="4" width="64.44140625" customWidth="1"/>
-    <col min="5" max="6" width="13.88671875" customWidth="1"/>
-    <col min="7" max="7" width="13.88671875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="12.28515625" customWidth="1"/>
+    <col min="2" max="3" width="13.85546875" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" customWidth="1"/>
+    <col min="5" max="5" width="64.42578125" customWidth="1"/>
+    <col min="6" max="7" width="13.85546875" customWidth="1"/>
+    <col min="8" max="8" width="13.85546875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="E1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:8" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>33</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>30</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="E2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="H2" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:8" ht="68.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>34</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="E3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="H3" s="8" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:8" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
         <v>35</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>32</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="E4" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="G4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="H4" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
+    <row r="5" spans="1:8" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>36</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C5" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="E5" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="F5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="G5" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="H5" s="8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
+    <row r="6" spans="1:8" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>37</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>22</v>
       </c>
       <c r="C6" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="E6" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="F6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="G6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="H6" s="8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="9"/>
+    <row r="7" spans="1:8" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
-      <c r="E7" s="5" t="s">
-        <v>15</v>
-      </c>
+      <c r="E7" s="5"/>
       <c r="F7" s="5"/>
-      <c r="G7" s="10"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:7" ht="37.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="11"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="12"/>
-      <c r="G8" s="13"/>
+    <row r="8" spans="1:8" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F1048576" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>Options</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{C40406C5-BEF4-44DD-8087-B3C87A9768D8}">
+          <x14:formula1>
+            <xm:f>Options!$B$1:$B$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>F2</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A3:N5"/>
+  <dimension ref="A3:N6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.109375" customWidth="1"/>
-    <col min="13" max="13" width="10.5546875" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="13" max="13" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="15" t="s">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -2860,54 +2892,70 @@
       <c r="C3" s="3">
         <v>0</v>
       </c>
-      <c r="L3" s="16" t="s">
+      <c r="L3" s="14" t="s">
         <v>11</v>
       </c>
       <c r="M3" s="4" t="s">
         <v>8</v>
       </c>
       <c r="N3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="13"/>
+      <c r="B4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="3">
         <v>2</v>
       </c>
+      <c r="L4" s="14"/>
+      <c r="M4" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="N4" s="4">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="15"/>
-      <c r="B4" s="3" t="s">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="13"/>
+      <c r="B5" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C5" s="10">
+        <v>1</v>
+      </c>
+      <c r="L5" s="14"/>
+      <c r="M5" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="N5" s="11">
         <v>5</v>
       </c>
-      <c r="L4" s="16"/>
-      <c r="M4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="N4" s="4">
-        <v>1</v>
-      </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="15"/>
-      <c r="B5" s="3" t="s">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="13"/>
+      <c r="B6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="3">
-        <f>SUM(C3:C4)</f>
+      <c r="C6" s="10">
+        <f>SUM(C4:C5)</f>
+        <v>3</v>
+      </c>
+      <c r="L6" s="14"/>
+      <c r="M6" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="N6" s="11">
+        <f>SUM(N4:N5)</f>
         <v>5</v>
-      </c>
-      <c r="L5" s="16"/>
-      <c r="M5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="N5" s="4">
-        <f>SUM(N3:N4)</f>
-        <v>3</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="L3:L5"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="L3:L6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/Monitoring and Controlling/Reviews.xlsx
+++ b/Monitoring and Controlling/Reviews.xlsx
@@ -7,26 +7,22 @@
     <sheet state="visible" name="ERD" sheetId="2" r:id="rId5"/>
     <sheet state="hidden" name="Options" sheetId="3" r:id="rId6"/>
     <sheet state="visible" name="SRS" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="Front End" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="Wireframe" sheetId="6" r:id="rId9"/>
-    <sheet state="visible" name="Database" sheetId="7" r:id="rId10"/>
-    <sheet state="visible" name="Progress_Chart" sheetId="8" r:id="rId11"/>
+    <sheet state="visible" name="SDD" sheetId="5" r:id="rId8"/>
+    <sheet state="visible" name="Front End" sheetId="6" r:id="rId9"/>
+    <sheet state="visible" name="Wireframe" sheetId="7" r:id="rId10"/>
+    <sheet state="visible" name="Database" sheetId="8" r:id="rId11"/>
+    <sheet state="visible" name="Progress_Chart" sheetId="9" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="Options">Options!$B$1:$B$2</definedName>
     <definedName localSheetId="3" name="_Toc100879205">SRS!$E$2</definedName>
   </definedNames>
   <calcPr/>
-  <extLst>
-    <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId12" roundtripDataSignature="AMtx7mj0pyTrukmHechdw/EvmU9cf5/U3Q=="/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="81">
   <si>
     <t>Review No.</t>
   </si>
@@ -163,19 +159,31 @@
     <t>14/4/2026</t>
   </si>
   <si>
-    <t>FE_01</t>
+    <t>SDD_01</t>
   </si>
   <si>
     <t>Saad</t>
+  </si>
+  <si>
+    <t>"Transaction methods" in the "Summary of the project" section should be changed to Transfer to be consistent with the rest of the documents.</t>
+  </si>
+  <si>
+    <t>Closed</t>
+  </si>
+  <si>
+    <t>SDD_02</t>
+  </si>
+  <si>
+    <t>In section 3.8 transfer money , convertToEGP function should be added to called functions for sourceAccountHasSufficentBalance function.</t>
+  </si>
+  <si>
+    <t>FE_01</t>
   </si>
   <si>
     <t>Mariam &amp; Yara</t>
   </si>
   <si>
     <t>All HTML5 tags should be converted to asp tags</t>
-  </si>
-  <si>
-    <t>Closed</t>
   </si>
   <si>
     <t>FE_02</t>
@@ -399,7 +407,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -425,6 +433,18 @@
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -441,13 +461,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="2" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
@@ -776,6 +793,10 @@
 </file>
 
 <file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
   <xdr:oneCellAnchor>
     <xdr:from>
@@ -787,7 +808,7 @@
     <xdr:ext cx="4371975" cy="2990850"/>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1041632390" name="Chart 1"/>
+        <xdr:cNvPr id="1" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -812,7 +833,7 @@
     <xdr:ext cx="4371975" cy="3000375"/>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1635430133" name="Chart 2"/>
+        <xdr:cNvPr id="2" name="Chart 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -4391,14 +4412,14 @@
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F3">
       <formula1>Options!B1:B3</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F4:F7">
+      <formula1>Options!B1:B3</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F2">
       <formula1>Options!$B$1:$B$3</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F8:F1000">
       <formula1>Options</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F4:F7">
-      <formula1>Options!B1:B3</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions/>
@@ -7760,14 +7781,14 @@
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F3">
       <formula1>Options!B1:B3</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F4:F7">
+      <formula1>Options!B1:B3</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F2">
       <formula1>Options!$B$1:$B$3</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F8:F1000">
       <formula1>Options</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F4:F7">
-      <formula1>Options!B1:B3</formula1>
     </dataValidation>
   </dataValidations>
   <drawing r:id="rId1"/>
@@ -12219,12 +12240,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="12.0"/>
-    <col customWidth="1" min="2" max="2" width="14.43"/>
-    <col customWidth="1" min="3" max="3" width="28.71"/>
-    <col customWidth="1" min="4" max="4" width="14.43"/>
-    <col customWidth="1" min="5" max="5" width="76.29"/>
-    <col customWidth="1" min="6" max="6" width="14.43"/>
+    <col customWidth="1" min="5" max="5" width="43.43"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -12258,1441 +12274,53 @@
         <v>45</v>
       </c>
       <c r="B2" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="D2" s="12">
+        <v>44698.0</v>
+      </c>
+      <c r="E2" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="12">
-        <v>44691.0</v>
-      </c>
-      <c r="E2" s="11" t="s">
+      <c r="F2" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="11" t="s">
-        <v>49</v>
-      </c>
       <c r="G2" s="11" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="H2" s="12">
-        <v>44691.0</v>
+        <v>44698.0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="12">
+        <v>44698.0</v>
+      </c>
+      <c r="E3" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="D3" s="12">
-        <v>44691.0</v>
-      </c>
-      <c r="E3" s="14" t="s">
-        <v>53</v>
-      </c>
       <c r="F3" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="H3" s="15">
-        <v>44692.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4" s="12">
-        <v>44691.0</v>
-      </c>
-      <c r="E4" s="14" t="s">
-        <v>55</v>
-      </c>
-      <c r="F4" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="H4" s="16">
-        <v>44900.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B5" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="D5" s="12">
-        <v>44691.0</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="G5" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="H5" s="16">
-        <v>44900.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="D6" s="12">
-        <v>44691.0</v>
-      </c>
-      <c r="E6" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="H6" s="16">
-        <v>44900.0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="B7" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="D7" s="12">
-        <v>44692.0</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="F7" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="G7" s="13"/>
-      <c r="H7" s="12"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="D8" s="12">
-        <v>44692.0</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" s="16">
-        <v>44900.0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9" s="12">
-        <v>44692.0</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="G9" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="15">
-        <v>44692.0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="D10" s="12">
-        <v>44692.0</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="F10" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H10" s="16">
-        <v>44900.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="11" t="s">
-        <v>68</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11" s="12">
-        <v>44692.0</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="F11" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" s="16">
-        <v>44900.0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12" s="12">
-        <v>44691.0</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="F12" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="16">
-        <v>44900.0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="11"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-    </row>
-    <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="11"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-    </row>
-    <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="11"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="11"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-    </row>
-    <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="11"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-    </row>
-    <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="11"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-    </row>
-    <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="11"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-    </row>
-    <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="11"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="11"/>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-    </row>
-    <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="11"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-    </row>
-    <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="11"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-    </row>
-    <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="11"/>
-      <c r="B29" s="11"/>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-    </row>
-    <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="11"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="11"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-    </row>
-    <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="11"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="11"/>
-      <c r="D31" s="11"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-    </row>
-    <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="19"/>
-      <c r="B32" s="19"/>
-      <c r="C32" s="19"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
-      <c r="F32" s="19"/>
-      <c r="G32" s="19"/>
-      <c r="H32" s="19"/>
-    </row>
-    <row r="33" ht="15.75" customHeight="1"/>
-    <row r="34" ht="15.75" customHeight="1"/>
-    <row r="35" ht="15.75" customHeight="1"/>
-    <row r="36" ht="15.75" customHeight="1"/>
-    <row r="37" ht="15.75" customHeight="1"/>
-    <row r="38" ht="15.75" customHeight="1"/>
-    <row r="39" ht="15.75" customHeight="1"/>
-    <row r="40" ht="15.75" customHeight="1"/>
-    <row r="41" ht="15.75" customHeight="1"/>
-    <row r="42" ht="15.75" customHeight="1"/>
-    <row r="43" ht="15.75" customHeight="1"/>
-    <row r="44" ht="15.75" customHeight="1"/>
-    <row r="45" ht="15.75" customHeight="1"/>
-    <row r="46" ht="15.75" customHeight="1"/>
-    <row r="47" ht="15.75" customHeight="1"/>
-    <row r="48" ht="15.75" customHeight="1"/>
-    <row r="49" ht="15.75" customHeight="1"/>
-    <row r="50" ht="15.75" customHeight="1"/>
-    <row r="51" ht="15.75" customHeight="1"/>
-    <row r="52" ht="15.75" customHeight="1"/>
-    <row r="53" ht="15.75" customHeight="1"/>
-    <row r="54" ht="15.75" customHeight="1"/>
-    <row r="55" ht="15.75" customHeight="1"/>
-    <row r="56" ht="15.75" customHeight="1"/>
-    <row r="57" ht="15.75" customHeight="1"/>
-    <row r="58" ht="15.75" customHeight="1"/>
-    <row r="59" ht="15.75" customHeight="1"/>
-    <row r="60" ht="15.75" customHeight="1"/>
-    <row r="61" ht="15.75" customHeight="1"/>
-    <row r="62" ht="15.75" customHeight="1"/>
-    <row r="63" ht="15.75" customHeight="1"/>
-    <row r="64" ht="15.75" customHeight="1"/>
-    <row r="65" ht="15.75" customHeight="1"/>
-    <row r="66" ht="15.75" customHeight="1"/>
-    <row r="67" ht="15.75" customHeight="1"/>
-    <row r="68" ht="15.75" customHeight="1"/>
-    <row r="69" ht="15.75" customHeight="1"/>
-    <row r="70" ht="15.75" customHeight="1"/>
-    <row r="71" ht="15.75" customHeight="1"/>
-    <row r="72" ht="15.75" customHeight="1"/>
-    <row r="73" ht="15.75" customHeight="1"/>
-    <row r="74" ht="15.75" customHeight="1"/>
-    <row r="75" ht="15.75" customHeight="1"/>
-    <row r="76" ht="15.75" customHeight="1"/>
-    <row r="77" ht="15.75" customHeight="1"/>
-    <row r="78" ht="15.75" customHeight="1"/>
-    <row r="79" ht="15.75" customHeight="1"/>
-    <row r="80" ht="15.75" customHeight="1"/>
-    <row r="81" ht="15.75" customHeight="1"/>
-    <row r="82" ht="15.75" customHeight="1"/>
-    <row r="83" ht="15.75" customHeight="1"/>
-    <row r="84" ht="15.75" customHeight="1"/>
-    <row r="85" ht="15.75" customHeight="1"/>
-    <row r="86" ht="15.75" customHeight="1"/>
-    <row r="87" ht="15.75" customHeight="1"/>
-    <row r="88" ht="15.75" customHeight="1"/>
-    <row r="89" ht="15.75" customHeight="1"/>
-    <row r="90" ht="15.75" customHeight="1"/>
-    <row r="91" ht="15.75" customHeight="1"/>
-    <row r="92" ht="15.75" customHeight="1"/>
-    <row r="93" ht="15.75" customHeight="1"/>
-    <row r="94" ht="15.75" customHeight="1"/>
-    <row r="95" ht="15.75" customHeight="1"/>
-    <row r="96" ht="15.75" customHeight="1"/>
-    <row r="97" ht="15.75" customHeight="1"/>
-    <row r="98" ht="15.75" customHeight="1"/>
-    <row r="99" ht="15.75" customHeight="1"/>
-    <row r="100" ht="15.75" customHeight="1"/>
-    <row r="101" ht="15.75" customHeight="1"/>
-    <row r="102" ht="15.75" customHeight="1"/>
-    <row r="103" ht="15.75" customHeight="1"/>
-    <row r="104" ht="15.75" customHeight="1"/>
-    <row r="105" ht="15.75" customHeight="1"/>
-    <row r="106" ht="15.75" customHeight="1"/>
-    <row r="107" ht="15.75" customHeight="1"/>
-    <row r="108" ht="15.75" customHeight="1"/>
-    <row r="109" ht="15.75" customHeight="1"/>
-    <row r="110" ht="15.75" customHeight="1"/>
-    <row r="111" ht="15.75" customHeight="1"/>
-    <row r="112" ht="15.75" customHeight="1"/>
-    <row r="113" ht="15.75" customHeight="1"/>
-    <row r="114" ht="15.75" customHeight="1"/>
-    <row r="115" ht="15.75" customHeight="1"/>
-    <row r="116" ht="15.75" customHeight="1"/>
-    <row r="117" ht="15.75" customHeight="1"/>
-    <row r="118" ht="15.75" customHeight="1"/>
-    <row r="119" ht="15.75" customHeight="1"/>
-    <row r="120" ht="15.75" customHeight="1"/>
-    <row r="121" ht="15.75" customHeight="1"/>
-    <row r="122" ht="15.75" customHeight="1"/>
-    <row r="123" ht="15.75" customHeight="1"/>
-    <row r="124" ht="15.75" customHeight="1"/>
-    <row r="125" ht="15.75" customHeight="1"/>
-    <row r="126" ht="15.75" customHeight="1"/>
-    <row r="127" ht="15.75" customHeight="1"/>
-    <row r="128" ht="15.75" customHeight="1"/>
-    <row r="129" ht="15.75" customHeight="1"/>
-    <row r="130" ht="15.75" customHeight="1"/>
-    <row r="131" ht="15.75" customHeight="1"/>
-    <row r="132" ht="15.75" customHeight="1"/>
-    <row r="133" ht="15.75" customHeight="1"/>
-    <row r="134" ht="15.75" customHeight="1"/>
-    <row r="135" ht="15.75" customHeight="1"/>
-    <row r="136" ht="15.75" customHeight="1"/>
-    <row r="137" ht="15.75" customHeight="1"/>
-    <row r="138" ht="15.75" customHeight="1"/>
-    <row r="139" ht="15.75" customHeight="1"/>
-    <row r="140" ht="15.75" customHeight="1"/>
-    <row r="141" ht="15.75" customHeight="1"/>
-    <row r="142" ht="15.75" customHeight="1"/>
-    <row r="143" ht="15.75" customHeight="1"/>
-    <row r="144" ht="15.75" customHeight="1"/>
-    <row r="145" ht="15.75" customHeight="1"/>
-    <row r="146" ht="15.75" customHeight="1"/>
-    <row r="147" ht="15.75" customHeight="1"/>
-    <row r="148" ht="15.75" customHeight="1"/>
-    <row r="149" ht="15.75" customHeight="1"/>
-    <row r="150" ht="15.75" customHeight="1"/>
-    <row r="151" ht="15.75" customHeight="1"/>
-    <row r="152" ht="15.75" customHeight="1"/>
-    <row r="153" ht="15.75" customHeight="1"/>
-    <row r="154" ht="15.75" customHeight="1"/>
-    <row r="155" ht="15.75" customHeight="1"/>
-    <row r="156" ht="15.75" customHeight="1"/>
-    <row r="157" ht="15.75" customHeight="1"/>
-    <row r="158" ht="15.75" customHeight="1"/>
-    <row r="159" ht="15.75" customHeight="1"/>
-    <row r="160" ht="15.75" customHeight="1"/>
-    <row r="161" ht="15.75" customHeight="1"/>
-    <row r="162" ht="15.75" customHeight="1"/>
-    <row r="163" ht="15.75" customHeight="1"/>
-    <row r="164" ht="15.75" customHeight="1"/>
-    <row r="165" ht="15.75" customHeight="1"/>
-    <row r="166" ht="15.75" customHeight="1"/>
-    <row r="167" ht="15.75" customHeight="1"/>
-    <row r="168" ht="15.75" customHeight="1"/>
-    <row r="169" ht="15.75" customHeight="1"/>
-    <row r="170" ht="15.75" customHeight="1"/>
-    <row r="171" ht="15.75" customHeight="1"/>
-    <row r="172" ht="15.75" customHeight="1"/>
-    <row r="173" ht="15.75" customHeight="1"/>
-    <row r="174" ht="15.75" customHeight="1"/>
-    <row r="175" ht="15.75" customHeight="1"/>
-    <row r="176" ht="15.75" customHeight="1"/>
-    <row r="177" ht="15.75" customHeight="1"/>
-    <row r="178" ht="15.75" customHeight="1"/>
-    <row r="179" ht="15.75" customHeight="1"/>
-    <row r="180" ht="15.75" customHeight="1"/>
-    <row r="181" ht="15.75" customHeight="1"/>
-    <row r="182" ht="15.75" customHeight="1"/>
-    <row r="183" ht="15.75" customHeight="1"/>
-    <row r="184" ht="15.75" customHeight="1"/>
-    <row r="185" ht="15.75" customHeight="1"/>
-    <row r="186" ht="15.75" customHeight="1"/>
-    <row r="187" ht="15.75" customHeight="1"/>
-    <row r="188" ht="15.75" customHeight="1"/>
-    <row r="189" ht="15.75" customHeight="1"/>
-    <row r="190" ht="15.75" customHeight="1"/>
-    <row r="191" ht="15.75" customHeight="1"/>
-    <row r="192" ht="15.75" customHeight="1"/>
-    <row r="193" ht="15.75" customHeight="1"/>
-    <row r="194" ht="15.75" customHeight="1"/>
-    <row r="195" ht="15.75" customHeight="1"/>
-    <row r="196" ht="15.75" customHeight="1"/>
-    <row r="197" ht="15.75" customHeight="1"/>
-    <row r="198" ht="15.75" customHeight="1"/>
-    <row r="199" ht="15.75" customHeight="1"/>
-    <row r="200" ht="15.75" customHeight="1"/>
-    <row r="201" ht="15.75" customHeight="1"/>
-    <row r="202" ht="15.75" customHeight="1"/>
-    <row r="203" ht="15.75" customHeight="1"/>
-    <row r="204" ht="15.75" customHeight="1"/>
-    <row r="205" ht="15.75" customHeight="1"/>
-    <row r="206" ht="15.75" customHeight="1"/>
-    <row r="207" ht="15.75" customHeight="1"/>
-    <row r="208" ht="15.75" customHeight="1"/>
-    <row r="209" ht="15.75" customHeight="1"/>
-    <row r="210" ht="15.75" customHeight="1"/>
-    <row r="211" ht="15.75" customHeight="1"/>
-    <row r="212" ht="15.75" customHeight="1"/>
-    <row r="213" ht="15.75" customHeight="1"/>
-    <row r="214" ht="15.75" customHeight="1"/>
-    <row r="215" ht="15.75" customHeight="1"/>
-    <row r="216" ht="15.75" customHeight="1"/>
-    <row r="217" ht="15.75" customHeight="1"/>
-    <row r="218" ht="15.75" customHeight="1"/>
-    <row r="219" ht="15.75" customHeight="1"/>
-    <row r="220" ht="15.75" customHeight="1"/>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
-    <row r="225" ht="15.75" customHeight="1"/>
-    <row r="226" ht="15.75" customHeight="1"/>
-    <row r="227" ht="15.75" customHeight="1"/>
-    <row r="228" ht="15.75" customHeight="1"/>
-    <row r="229" ht="15.75" customHeight="1"/>
-    <row r="230" ht="15.75" customHeight="1"/>
-    <row r="231" ht="15.75" customHeight="1"/>
-    <row r="232" ht="15.75" customHeight="1"/>
-    <row r="233" ht="15.75" customHeight="1"/>
-    <row r="234" ht="15.75" customHeight="1"/>
-    <row r="235" ht="15.75" customHeight="1"/>
-    <row r="236" ht="15.75" customHeight="1"/>
-    <row r="237" ht="15.75" customHeight="1"/>
-    <row r="238" ht="15.75" customHeight="1"/>
-    <row r="239" ht="15.75" customHeight="1"/>
-    <row r="240" ht="15.75" customHeight="1"/>
-    <row r="241" ht="15.75" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
-    <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
-    <row r="262" ht="15.75" customHeight="1"/>
-    <row r="263" ht="15.75" customHeight="1"/>
-    <row r="264" ht="15.75" customHeight="1"/>
-    <row r="265" ht="15.75" customHeight="1"/>
-    <row r="266" ht="15.75" customHeight="1"/>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
-    <row r="992" ht="15.75" customHeight="1"/>
-    <row r="993" ht="15.75" customHeight="1"/>
-    <row r="994" ht="15.75" customHeight="1"/>
-    <row r="995" ht="15.75" customHeight="1"/>
-    <row r="996" ht="15.75" customHeight="1"/>
-    <row r="997" ht="15.75" customHeight="1"/>
-    <row r="998" ht="15.75" customHeight="1"/>
-    <row r="999" ht="15.75" customHeight="1"/>
-    <row r="1000" ht="15.75" customHeight="1"/>
+      <c r="H3" s="12">
+        <v>44698.0</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -13708,8 +12336,11 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="4" width="14.43"/>
-    <col customWidth="1" min="5" max="5" width="53.43"/>
+    <col customWidth="1" min="1" max="1" width="12.0"/>
+    <col customWidth="1" min="2" max="2" width="14.43"/>
+    <col customWidth="1" min="3" max="3" width="28.71"/>
+    <col customWidth="1" min="4" max="4" width="14.43"/>
+    <col customWidth="1" min="5" max="5" width="76.29"/>
     <col customWidth="1" min="6" max="6" width="14.43"/>
   </cols>
   <sheetData>
@@ -13740,43 +12371,477 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="16">
+        <v>44691.0</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" s="16">
+        <v>44691.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="16">
+        <v>44691.0</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="H3" s="19">
+        <v>44692.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D4" s="16">
+        <v>44691.0</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4" s="20">
+        <v>44900.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="16">
+        <v>44691.0</v>
+      </c>
+      <c r="E5" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="H5" s="20">
+        <v>44900.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="16">
+        <v>44691.0</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="H6" s="20">
+        <v>44900.0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="16">
+        <v>44692.0</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" s="17"/>
+      <c r="H7" s="16"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="16">
+        <v>44692.0</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="20">
+        <v>44900.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" s="16">
+        <v>44692.0</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="19">
+        <v>44692.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="16">
+        <v>44692.0</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="20">
+        <v>44900.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2" s="11" t="s">
+      <c r="B11" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="12">
+      <c r="C11" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="16">
+        <v>44692.0</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="20">
+        <v>44900.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="16">
         <v>44691.0</v>
       </c>
-      <c r="E2" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="H2" s="12">
-        <v>44692.0</v>
-      </c>
-    </row>
-    <row r="21" ht="15.75" customHeight="1"/>
-    <row r="22" ht="15.75" customHeight="1"/>
-    <row r="23" ht="15.75" customHeight="1"/>
-    <row r="24" ht="15.75" customHeight="1"/>
-    <row r="25" ht="15.75" customHeight="1"/>
-    <row r="26" ht="15.75" customHeight="1"/>
-    <row r="27" ht="15.75" customHeight="1"/>
-    <row r="28" ht="15.75" customHeight="1"/>
-    <row r="29" ht="15.75" customHeight="1"/>
-    <row r="30" ht="15.75" customHeight="1"/>
-    <row r="31" ht="15.75" customHeight="1"/>
-    <row r="32" ht="15.75" customHeight="1"/>
+      <c r="E12" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="20">
+        <v>44900.0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="15"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="15"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="15"/>
+    </row>
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="A21" s="15"/>
+      <c r="B21" s="15"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="15"/>
+    </row>
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="A22" s="15"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+    </row>
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="A23" s="15"/>
+      <c r="B23" s="15"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+    </row>
+    <row r="24" ht="15.75" customHeight="1">
+      <c r="A24" s="15"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+    </row>
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="A25" s="15"/>
+      <c r="B25" s="15"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="15"/>
+    </row>
+    <row r="26" ht="15.75" customHeight="1">
+      <c r="A26" s="15"/>
+      <c r="B26" s="15"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="15"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="15"/>
+      <c r="H26" s="15"/>
+    </row>
+    <row r="27" ht="15.75" customHeight="1">
+      <c r="A27" s="15"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="15"/>
+      <c r="H27" s="15"/>
+    </row>
+    <row r="28" ht="15.75" customHeight="1">
+      <c r="A28" s="15"/>
+      <c r="B28" s="15"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+    </row>
+    <row r="29" ht="15.75" customHeight="1">
+      <c r="A29" s="15"/>
+      <c r="B29" s="15"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="15"/>
+      <c r="H29" s="15"/>
+    </row>
+    <row r="30" ht="15.75" customHeight="1">
+      <c r="A30" s="15"/>
+      <c r="B30" s="15"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="15"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="15"/>
+      <c r="H30" s="15"/>
+    </row>
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="A31" s="15"/>
+      <c r="B31" s="15"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="15"/>
+    </row>
+    <row r="32" ht="15.75" customHeight="1">
+      <c r="A32" s="22"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
+    </row>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1"/>
     <row r="35" ht="15.75" customHeight="1"/>
@@ -14760,7 +13825,9 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
   <cols>
-    <col customWidth="1" min="1" max="6" width="14.43"/>
+    <col customWidth="1" min="1" max="4" width="14.43"/>
+    <col customWidth="1" min="5" max="5" width="53.43"/>
+    <col customWidth="1" min="6" max="6" width="14.43"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -14787,6 +13854,32 @@
       </c>
       <c r="H1" s="1" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="16">
+        <v>44691.0</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2" s="16">
+        <v>44692.0</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -15777,6 +14870,1030 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.0"/>
+  <cols>
+    <col customWidth="1" min="1" max="6" width="14.43"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" ht="15.75" customHeight="1"/>
+    <row r="22" ht="15.75" customHeight="1"/>
+    <row r="23" ht="15.75" customHeight="1"/>
+    <row r="24" ht="15.75" customHeight="1"/>
+    <row r="25" ht="15.75" customHeight="1"/>
+    <row r="26" ht="15.75" customHeight="1"/>
+    <row r="27" ht="15.75" customHeight="1"/>
+    <row r="28" ht="15.75" customHeight="1"/>
+    <row r="29" ht="15.75" customHeight="1"/>
+    <row r="30" ht="15.75" customHeight="1"/>
+    <row r="31" ht="15.75" customHeight="1"/>
+    <row r="32" ht="15.75" customHeight="1"/>
+    <row r="33" ht="15.75" customHeight="1"/>
+    <row r="34" ht="15.75" customHeight="1"/>
+    <row r="35" ht="15.75" customHeight="1"/>
+    <row r="36" ht="15.75" customHeight="1"/>
+    <row r="37" ht="15.75" customHeight="1"/>
+    <row r="38" ht="15.75" customHeight="1"/>
+    <row r="39" ht="15.75" customHeight="1"/>
+    <row r="40" ht="15.75" customHeight="1"/>
+    <row r="41" ht="15.75" customHeight="1"/>
+    <row r="42" ht="15.75" customHeight="1"/>
+    <row r="43" ht="15.75" customHeight="1"/>
+    <row r="44" ht="15.75" customHeight="1"/>
+    <row r="45" ht="15.75" customHeight="1"/>
+    <row r="46" ht="15.75" customHeight="1"/>
+    <row r="47" ht="15.75" customHeight="1"/>
+    <row r="48" ht="15.75" customHeight="1"/>
+    <row r="49" ht="15.75" customHeight="1"/>
+    <row r="50" ht="15.75" customHeight="1"/>
+    <row r="51" ht="15.75" customHeight="1"/>
+    <row r="52" ht="15.75" customHeight="1"/>
+    <row r="53" ht="15.75" customHeight="1"/>
+    <row r="54" ht="15.75" customHeight="1"/>
+    <row r="55" ht="15.75" customHeight="1"/>
+    <row r="56" ht="15.75" customHeight="1"/>
+    <row r="57" ht="15.75" customHeight="1"/>
+    <row r="58" ht="15.75" customHeight="1"/>
+    <row r="59" ht="15.75" customHeight="1"/>
+    <row r="60" ht="15.75" customHeight="1"/>
+    <row r="61" ht="15.75" customHeight="1"/>
+    <row r="62" ht="15.75" customHeight="1"/>
+    <row r="63" ht="15.75" customHeight="1"/>
+    <row r="64" ht="15.75" customHeight="1"/>
+    <row r="65" ht="15.75" customHeight="1"/>
+    <row r="66" ht="15.75" customHeight="1"/>
+    <row r="67" ht="15.75" customHeight="1"/>
+    <row r="68" ht="15.75" customHeight="1"/>
+    <row r="69" ht="15.75" customHeight="1"/>
+    <row r="70" ht="15.75" customHeight="1"/>
+    <row r="71" ht="15.75" customHeight="1"/>
+    <row r="72" ht="15.75" customHeight="1"/>
+    <row r="73" ht="15.75" customHeight="1"/>
+    <row r="74" ht="15.75" customHeight="1"/>
+    <row r="75" ht="15.75" customHeight="1"/>
+    <row r="76" ht="15.75" customHeight="1"/>
+    <row r="77" ht="15.75" customHeight="1"/>
+    <row r="78" ht="15.75" customHeight="1"/>
+    <row r="79" ht="15.75" customHeight="1"/>
+    <row r="80" ht="15.75" customHeight="1"/>
+    <row r="81" ht="15.75" customHeight="1"/>
+    <row r="82" ht="15.75" customHeight="1"/>
+    <row r="83" ht="15.75" customHeight="1"/>
+    <row r="84" ht="15.75" customHeight="1"/>
+    <row r="85" ht="15.75" customHeight="1"/>
+    <row r="86" ht="15.75" customHeight="1"/>
+    <row r="87" ht="15.75" customHeight="1"/>
+    <row r="88" ht="15.75" customHeight="1"/>
+    <row r="89" ht="15.75" customHeight="1"/>
+    <row r="90" ht="15.75" customHeight="1"/>
+    <row r="91" ht="15.75" customHeight="1"/>
+    <row r="92" ht="15.75" customHeight="1"/>
+    <row r="93" ht="15.75" customHeight="1"/>
+    <row r="94" ht="15.75" customHeight="1"/>
+    <row r="95" ht="15.75" customHeight="1"/>
+    <row r="96" ht="15.75" customHeight="1"/>
+    <row r="97" ht="15.75" customHeight="1"/>
+    <row r="98" ht="15.75" customHeight="1"/>
+    <row r="99" ht="15.75" customHeight="1"/>
+    <row r="100" ht="15.75" customHeight="1"/>
+    <row r="101" ht="15.75" customHeight="1"/>
+    <row r="102" ht="15.75" customHeight="1"/>
+    <row r="103" ht="15.75" customHeight="1"/>
+    <row r="104" ht="15.75" customHeight="1"/>
+    <row r="105" ht="15.75" customHeight="1"/>
+    <row r="106" ht="15.75" customHeight="1"/>
+    <row r="107" ht="15.75" customHeight="1"/>
+    <row r="108" ht="15.75" customHeight="1"/>
+    <row r="109" ht="15.75" customHeight="1"/>
+    <row r="110" ht="15.75" customHeight="1"/>
+    <row r="111" ht="15.75" customHeight="1"/>
+    <row r="112" ht="15.75" customHeight="1"/>
+    <row r="113" ht="15.75" customHeight="1"/>
+    <row r="114" ht="15.75" customHeight="1"/>
+    <row r="115" ht="15.75" customHeight="1"/>
+    <row r="116" ht="15.75" customHeight="1"/>
+    <row r="117" ht="15.75" customHeight="1"/>
+    <row r="118" ht="15.75" customHeight="1"/>
+    <row r="119" ht="15.75" customHeight="1"/>
+    <row r="120" ht="15.75" customHeight="1"/>
+    <row r="121" ht="15.75" customHeight="1"/>
+    <row r="122" ht="15.75" customHeight="1"/>
+    <row r="123" ht="15.75" customHeight="1"/>
+    <row r="124" ht="15.75" customHeight="1"/>
+    <row r="125" ht="15.75" customHeight="1"/>
+    <row r="126" ht="15.75" customHeight="1"/>
+    <row r="127" ht="15.75" customHeight="1"/>
+    <row r="128" ht="15.75" customHeight="1"/>
+    <row r="129" ht="15.75" customHeight="1"/>
+    <row r="130" ht="15.75" customHeight="1"/>
+    <row r="131" ht="15.75" customHeight="1"/>
+    <row r="132" ht="15.75" customHeight="1"/>
+    <row r="133" ht="15.75" customHeight="1"/>
+    <row r="134" ht="15.75" customHeight="1"/>
+    <row r="135" ht="15.75" customHeight="1"/>
+    <row r="136" ht="15.75" customHeight="1"/>
+    <row r="137" ht="15.75" customHeight="1"/>
+    <row r="138" ht="15.75" customHeight="1"/>
+    <row r="139" ht="15.75" customHeight="1"/>
+    <row r="140" ht="15.75" customHeight="1"/>
+    <row r="141" ht="15.75" customHeight="1"/>
+    <row r="142" ht="15.75" customHeight="1"/>
+    <row r="143" ht="15.75" customHeight="1"/>
+    <row r="144" ht="15.75" customHeight="1"/>
+    <row r="145" ht="15.75" customHeight="1"/>
+    <row r="146" ht="15.75" customHeight="1"/>
+    <row r="147" ht="15.75" customHeight="1"/>
+    <row r="148" ht="15.75" customHeight="1"/>
+    <row r="149" ht="15.75" customHeight="1"/>
+    <row r="150" ht="15.75" customHeight="1"/>
+    <row r="151" ht="15.75" customHeight="1"/>
+    <row r="152" ht="15.75" customHeight="1"/>
+    <row r="153" ht="15.75" customHeight="1"/>
+    <row r="154" ht="15.75" customHeight="1"/>
+    <row r="155" ht="15.75" customHeight="1"/>
+    <row r="156" ht="15.75" customHeight="1"/>
+    <row r="157" ht="15.75" customHeight="1"/>
+    <row r="158" ht="15.75" customHeight="1"/>
+    <row r="159" ht="15.75" customHeight="1"/>
+    <row r="160" ht="15.75" customHeight="1"/>
+    <row r="161" ht="15.75" customHeight="1"/>
+    <row r="162" ht="15.75" customHeight="1"/>
+    <row r="163" ht="15.75" customHeight="1"/>
+    <row r="164" ht="15.75" customHeight="1"/>
+    <row r="165" ht="15.75" customHeight="1"/>
+    <row r="166" ht="15.75" customHeight="1"/>
+    <row r="167" ht="15.75" customHeight="1"/>
+    <row r="168" ht="15.75" customHeight="1"/>
+    <row r="169" ht="15.75" customHeight="1"/>
+    <row r="170" ht="15.75" customHeight="1"/>
+    <row r="171" ht="15.75" customHeight="1"/>
+    <row r="172" ht="15.75" customHeight="1"/>
+    <row r="173" ht="15.75" customHeight="1"/>
+    <row r="174" ht="15.75" customHeight="1"/>
+    <row r="175" ht="15.75" customHeight="1"/>
+    <row r="176" ht="15.75" customHeight="1"/>
+    <row r="177" ht="15.75" customHeight="1"/>
+    <row r="178" ht="15.75" customHeight="1"/>
+    <row r="179" ht="15.75" customHeight="1"/>
+    <row r="180" ht="15.75" customHeight="1"/>
+    <row r="181" ht="15.75" customHeight="1"/>
+    <row r="182" ht="15.75" customHeight="1"/>
+    <row r="183" ht="15.75" customHeight="1"/>
+    <row r="184" ht="15.75" customHeight="1"/>
+    <row r="185" ht="15.75" customHeight="1"/>
+    <row r="186" ht="15.75" customHeight="1"/>
+    <row r="187" ht="15.75" customHeight="1"/>
+    <row r="188" ht="15.75" customHeight="1"/>
+    <row r="189" ht="15.75" customHeight="1"/>
+    <row r="190" ht="15.75" customHeight="1"/>
+    <row r="191" ht="15.75" customHeight="1"/>
+    <row r="192" ht="15.75" customHeight="1"/>
+    <row r="193" ht="15.75" customHeight="1"/>
+    <row r="194" ht="15.75" customHeight="1"/>
+    <row r="195" ht="15.75" customHeight="1"/>
+    <row r="196" ht="15.75" customHeight="1"/>
+    <row r="197" ht="15.75" customHeight="1"/>
+    <row r="198" ht="15.75" customHeight="1"/>
+    <row r="199" ht="15.75" customHeight="1"/>
+    <row r="200" ht="15.75" customHeight="1"/>
+    <row r="201" ht="15.75" customHeight="1"/>
+    <row r="202" ht="15.75" customHeight="1"/>
+    <row r="203" ht="15.75" customHeight="1"/>
+    <row r="204" ht="15.75" customHeight="1"/>
+    <row r="205" ht="15.75" customHeight="1"/>
+    <row r="206" ht="15.75" customHeight="1"/>
+    <row r="207" ht="15.75" customHeight="1"/>
+    <row r="208" ht="15.75" customHeight="1"/>
+    <row r="209" ht="15.75" customHeight="1"/>
+    <row r="210" ht="15.75" customHeight="1"/>
+    <row r="211" ht="15.75" customHeight="1"/>
+    <row r="212" ht="15.75" customHeight="1"/>
+    <row r="213" ht="15.75" customHeight="1"/>
+    <row r="214" ht="15.75" customHeight="1"/>
+    <row r="215" ht="15.75" customHeight="1"/>
+    <row r="216" ht="15.75" customHeight="1"/>
+    <row r="217" ht="15.75" customHeight="1"/>
+    <row r="218" ht="15.75" customHeight="1"/>
+    <row r="219" ht="15.75" customHeight="1"/>
+    <row r="220" ht="15.75" customHeight="1"/>
+    <row r="221" ht="15.75" customHeight="1"/>
+    <row r="222" ht="15.75" customHeight="1"/>
+    <row r="223" ht="15.75" customHeight="1"/>
+    <row r="224" ht="15.75" customHeight="1"/>
+    <row r="225" ht="15.75" customHeight="1"/>
+    <row r="226" ht="15.75" customHeight="1"/>
+    <row r="227" ht="15.75" customHeight="1"/>
+    <row r="228" ht="15.75" customHeight="1"/>
+    <row r="229" ht="15.75" customHeight="1"/>
+    <row r="230" ht="15.75" customHeight="1"/>
+    <row r="231" ht="15.75" customHeight="1"/>
+    <row r="232" ht="15.75" customHeight="1"/>
+    <row r="233" ht="15.75" customHeight="1"/>
+    <row r="234" ht="15.75" customHeight="1"/>
+    <row r="235" ht="15.75" customHeight="1"/>
+    <row r="236" ht="15.75" customHeight="1"/>
+    <row r="237" ht="15.75" customHeight="1"/>
+    <row r="238" ht="15.75" customHeight="1"/>
+    <row r="239" ht="15.75" customHeight="1"/>
+    <row r="240" ht="15.75" customHeight="1"/>
+    <row r="241" ht="15.75" customHeight="1"/>
+    <row r="242" ht="15.75" customHeight="1"/>
+    <row r="243" ht="15.75" customHeight="1"/>
+    <row r="244" ht="15.75" customHeight="1"/>
+    <row r="245" ht="15.75" customHeight="1"/>
+    <row r="246" ht="15.75" customHeight="1"/>
+    <row r="247" ht="15.75" customHeight="1"/>
+    <row r="248" ht="15.75" customHeight="1"/>
+    <row r="249" ht="15.75" customHeight="1"/>
+    <row r="250" ht="15.75" customHeight="1"/>
+    <row r="251" ht="15.75" customHeight="1"/>
+    <row r="252" ht="15.75" customHeight="1"/>
+    <row r="253" ht="15.75" customHeight="1"/>
+    <row r="254" ht="15.75" customHeight="1"/>
+    <row r="255" ht="15.75" customHeight="1"/>
+    <row r="256" ht="15.75" customHeight="1"/>
+    <row r="257" ht="15.75" customHeight="1"/>
+    <row r="258" ht="15.75" customHeight="1"/>
+    <row r="259" ht="15.75" customHeight="1"/>
+    <row r="260" ht="15.75" customHeight="1"/>
+    <row r="261" ht="15.75" customHeight="1"/>
+    <row r="262" ht="15.75" customHeight="1"/>
+    <row r="263" ht="15.75" customHeight="1"/>
+    <row r="264" ht="15.75" customHeight="1"/>
+    <row r="265" ht="15.75" customHeight="1"/>
+    <row r="266" ht="15.75" customHeight="1"/>
+    <row r="267" ht="15.75" customHeight="1"/>
+    <row r="268" ht="15.75" customHeight="1"/>
+    <row r="269" ht="15.75" customHeight="1"/>
+    <row r="270" ht="15.75" customHeight="1"/>
+    <row r="271" ht="15.75" customHeight="1"/>
+    <row r="272" ht="15.75" customHeight="1"/>
+    <row r="273" ht="15.75" customHeight="1"/>
+    <row r="274" ht="15.75" customHeight="1"/>
+    <row r="275" ht="15.75" customHeight="1"/>
+    <row r="276" ht="15.75" customHeight="1"/>
+    <row r="277" ht="15.75" customHeight="1"/>
+    <row r="278" ht="15.75" customHeight="1"/>
+    <row r="279" ht="15.75" customHeight="1"/>
+    <row r="280" ht="15.75" customHeight="1"/>
+    <row r="281" ht="15.75" customHeight="1"/>
+    <row r="282" ht="15.75" customHeight="1"/>
+    <row r="283" ht="15.75" customHeight="1"/>
+    <row r="284" ht="15.75" customHeight="1"/>
+    <row r="285" ht="15.75" customHeight="1"/>
+    <row r="286" ht="15.75" customHeight="1"/>
+    <row r="287" ht="15.75" customHeight="1"/>
+    <row r="288" ht="15.75" customHeight="1"/>
+    <row r="289" ht="15.75" customHeight="1"/>
+    <row r="290" ht="15.75" customHeight="1"/>
+    <row r="291" ht="15.75" customHeight="1"/>
+    <row r="292" ht="15.75" customHeight="1"/>
+    <row r="293" ht="15.75" customHeight="1"/>
+    <row r="294" ht="15.75" customHeight="1"/>
+    <row r="295" ht="15.75" customHeight="1"/>
+    <row r="296" ht="15.75" customHeight="1"/>
+    <row r="297" ht="15.75" customHeight="1"/>
+    <row r="298" ht="15.75" customHeight="1"/>
+    <row r="299" ht="15.75" customHeight="1"/>
+    <row r="300" ht="15.75" customHeight="1"/>
+    <row r="301" ht="15.75" customHeight="1"/>
+    <row r="302" ht="15.75" customHeight="1"/>
+    <row r="303" ht="15.75" customHeight="1"/>
+    <row r="304" ht="15.75" customHeight="1"/>
+    <row r="305" ht="15.75" customHeight="1"/>
+    <row r="306" ht="15.75" customHeight="1"/>
+    <row r="307" ht="15.75" customHeight="1"/>
+    <row r="308" ht="15.75" customHeight="1"/>
+    <row r="309" ht="15.75" customHeight="1"/>
+    <row r="310" ht="15.75" customHeight="1"/>
+    <row r="311" ht="15.75" customHeight="1"/>
+    <row r="312" ht="15.75" customHeight="1"/>
+    <row r="313" ht="15.75" customHeight="1"/>
+    <row r="314" ht="15.75" customHeight="1"/>
+    <row r="315" ht="15.75" customHeight="1"/>
+    <row r="316" ht="15.75" customHeight="1"/>
+    <row r="317" ht="15.75" customHeight="1"/>
+    <row r="318" ht="15.75" customHeight="1"/>
+    <row r="319" ht="15.75" customHeight="1"/>
+    <row r="320" ht="15.75" customHeight="1"/>
+    <row r="321" ht="15.75" customHeight="1"/>
+    <row r="322" ht="15.75" customHeight="1"/>
+    <row r="323" ht="15.75" customHeight="1"/>
+    <row r="324" ht="15.75" customHeight="1"/>
+    <row r="325" ht="15.75" customHeight="1"/>
+    <row r="326" ht="15.75" customHeight="1"/>
+    <row r="327" ht="15.75" customHeight="1"/>
+    <row r="328" ht="15.75" customHeight="1"/>
+    <row r="329" ht="15.75" customHeight="1"/>
+    <row r="330" ht="15.75" customHeight="1"/>
+    <row r="331" ht="15.75" customHeight="1"/>
+    <row r="332" ht="15.75" customHeight="1"/>
+    <row r="333" ht="15.75" customHeight="1"/>
+    <row r="334" ht="15.75" customHeight="1"/>
+    <row r="335" ht="15.75" customHeight="1"/>
+    <row r="336" ht="15.75" customHeight="1"/>
+    <row r="337" ht="15.75" customHeight="1"/>
+    <row r="338" ht="15.75" customHeight="1"/>
+    <row r="339" ht="15.75" customHeight="1"/>
+    <row r="340" ht="15.75" customHeight="1"/>
+    <row r="341" ht="15.75" customHeight="1"/>
+    <row r="342" ht="15.75" customHeight="1"/>
+    <row r="343" ht="15.75" customHeight="1"/>
+    <row r="344" ht="15.75" customHeight="1"/>
+    <row r="345" ht="15.75" customHeight="1"/>
+    <row r="346" ht="15.75" customHeight="1"/>
+    <row r="347" ht="15.75" customHeight="1"/>
+    <row r="348" ht="15.75" customHeight="1"/>
+    <row r="349" ht="15.75" customHeight="1"/>
+    <row r="350" ht="15.75" customHeight="1"/>
+    <row r="351" ht="15.75" customHeight="1"/>
+    <row r="352" ht="15.75" customHeight="1"/>
+    <row r="353" ht="15.75" customHeight="1"/>
+    <row r="354" ht="15.75" customHeight="1"/>
+    <row r="355" ht="15.75" customHeight="1"/>
+    <row r="356" ht="15.75" customHeight="1"/>
+    <row r="357" ht="15.75" customHeight="1"/>
+    <row r="358" ht="15.75" customHeight="1"/>
+    <row r="359" ht="15.75" customHeight="1"/>
+    <row r="360" ht="15.75" customHeight="1"/>
+    <row r="361" ht="15.75" customHeight="1"/>
+    <row r="362" ht="15.75" customHeight="1"/>
+    <row r="363" ht="15.75" customHeight="1"/>
+    <row r="364" ht="15.75" customHeight="1"/>
+    <row r="365" ht="15.75" customHeight="1"/>
+    <row r="366" ht="15.75" customHeight="1"/>
+    <row r="367" ht="15.75" customHeight="1"/>
+    <row r="368" ht="15.75" customHeight="1"/>
+    <row r="369" ht="15.75" customHeight="1"/>
+    <row r="370" ht="15.75" customHeight="1"/>
+    <row r="371" ht="15.75" customHeight="1"/>
+    <row r="372" ht="15.75" customHeight="1"/>
+    <row r="373" ht="15.75" customHeight="1"/>
+    <row r="374" ht="15.75" customHeight="1"/>
+    <row r="375" ht="15.75" customHeight="1"/>
+    <row r="376" ht="15.75" customHeight="1"/>
+    <row r="377" ht="15.75" customHeight="1"/>
+    <row r="378" ht="15.75" customHeight="1"/>
+    <row r="379" ht="15.75" customHeight="1"/>
+    <row r="380" ht="15.75" customHeight="1"/>
+    <row r="381" ht="15.75" customHeight="1"/>
+    <row r="382" ht="15.75" customHeight="1"/>
+    <row r="383" ht="15.75" customHeight="1"/>
+    <row r="384" ht="15.75" customHeight="1"/>
+    <row r="385" ht="15.75" customHeight="1"/>
+    <row r="386" ht="15.75" customHeight="1"/>
+    <row r="387" ht="15.75" customHeight="1"/>
+    <row r="388" ht="15.75" customHeight="1"/>
+    <row r="389" ht="15.75" customHeight="1"/>
+    <row r="390" ht="15.75" customHeight="1"/>
+    <row r="391" ht="15.75" customHeight="1"/>
+    <row r="392" ht="15.75" customHeight="1"/>
+    <row r="393" ht="15.75" customHeight="1"/>
+    <row r="394" ht="15.75" customHeight="1"/>
+    <row r="395" ht="15.75" customHeight="1"/>
+    <row r="396" ht="15.75" customHeight="1"/>
+    <row r="397" ht="15.75" customHeight="1"/>
+    <row r="398" ht="15.75" customHeight="1"/>
+    <row r="399" ht="15.75" customHeight="1"/>
+    <row r="400" ht="15.75" customHeight="1"/>
+    <row r="401" ht="15.75" customHeight="1"/>
+    <row r="402" ht="15.75" customHeight="1"/>
+    <row r="403" ht="15.75" customHeight="1"/>
+    <row r="404" ht="15.75" customHeight="1"/>
+    <row r="405" ht="15.75" customHeight="1"/>
+    <row r="406" ht="15.75" customHeight="1"/>
+    <row r="407" ht="15.75" customHeight="1"/>
+    <row r="408" ht="15.75" customHeight="1"/>
+    <row r="409" ht="15.75" customHeight="1"/>
+    <row r="410" ht="15.75" customHeight="1"/>
+    <row r="411" ht="15.75" customHeight="1"/>
+    <row r="412" ht="15.75" customHeight="1"/>
+    <row r="413" ht="15.75" customHeight="1"/>
+    <row r="414" ht="15.75" customHeight="1"/>
+    <row r="415" ht="15.75" customHeight="1"/>
+    <row r="416" ht="15.75" customHeight="1"/>
+    <row r="417" ht="15.75" customHeight="1"/>
+    <row r="418" ht="15.75" customHeight="1"/>
+    <row r="419" ht="15.75" customHeight="1"/>
+    <row r="420" ht="15.75" customHeight="1"/>
+    <row r="421" ht="15.75" customHeight="1"/>
+    <row r="422" ht="15.75" customHeight="1"/>
+    <row r="423" ht="15.75" customHeight="1"/>
+    <row r="424" ht="15.75" customHeight="1"/>
+    <row r="425" ht="15.75" customHeight="1"/>
+    <row r="426" ht="15.75" customHeight="1"/>
+    <row r="427" ht="15.75" customHeight="1"/>
+    <row r="428" ht="15.75" customHeight="1"/>
+    <row r="429" ht="15.75" customHeight="1"/>
+    <row r="430" ht="15.75" customHeight="1"/>
+    <row r="431" ht="15.75" customHeight="1"/>
+    <row r="432" ht="15.75" customHeight="1"/>
+    <row r="433" ht="15.75" customHeight="1"/>
+    <row r="434" ht="15.75" customHeight="1"/>
+    <row r="435" ht="15.75" customHeight="1"/>
+    <row r="436" ht="15.75" customHeight="1"/>
+    <row r="437" ht="15.75" customHeight="1"/>
+    <row r="438" ht="15.75" customHeight="1"/>
+    <row r="439" ht="15.75" customHeight="1"/>
+    <row r="440" ht="15.75" customHeight="1"/>
+    <row r="441" ht="15.75" customHeight="1"/>
+    <row r="442" ht="15.75" customHeight="1"/>
+    <row r="443" ht="15.75" customHeight="1"/>
+    <row r="444" ht="15.75" customHeight="1"/>
+    <row r="445" ht="15.75" customHeight="1"/>
+    <row r="446" ht="15.75" customHeight="1"/>
+    <row r="447" ht="15.75" customHeight="1"/>
+    <row r="448" ht="15.75" customHeight="1"/>
+    <row r="449" ht="15.75" customHeight="1"/>
+    <row r="450" ht="15.75" customHeight="1"/>
+    <row r="451" ht="15.75" customHeight="1"/>
+    <row r="452" ht="15.75" customHeight="1"/>
+    <row r="453" ht="15.75" customHeight="1"/>
+    <row r="454" ht="15.75" customHeight="1"/>
+    <row r="455" ht="15.75" customHeight="1"/>
+    <row r="456" ht="15.75" customHeight="1"/>
+    <row r="457" ht="15.75" customHeight="1"/>
+    <row r="458" ht="15.75" customHeight="1"/>
+    <row r="459" ht="15.75" customHeight="1"/>
+    <row r="460" ht="15.75" customHeight="1"/>
+    <row r="461" ht="15.75" customHeight="1"/>
+    <row r="462" ht="15.75" customHeight="1"/>
+    <row r="463" ht="15.75" customHeight="1"/>
+    <row r="464" ht="15.75" customHeight="1"/>
+    <row r="465" ht="15.75" customHeight="1"/>
+    <row r="466" ht="15.75" customHeight="1"/>
+    <row r="467" ht="15.75" customHeight="1"/>
+    <row r="468" ht="15.75" customHeight="1"/>
+    <row r="469" ht="15.75" customHeight="1"/>
+    <row r="470" ht="15.75" customHeight="1"/>
+    <row r="471" ht="15.75" customHeight="1"/>
+    <row r="472" ht="15.75" customHeight="1"/>
+    <row r="473" ht="15.75" customHeight="1"/>
+    <row r="474" ht="15.75" customHeight="1"/>
+    <row r="475" ht="15.75" customHeight="1"/>
+    <row r="476" ht="15.75" customHeight="1"/>
+    <row r="477" ht="15.75" customHeight="1"/>
+    <row r="478" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1"/>
+    <row r="480" ht="15.75" customHeight="1"/>
+    <row r="481" ht="15.75" customHeight="1"/>
+    <row r="482" ht="15.75" customHeight="1"/>
+    <row r="483" ht="15.75" customHeight="1"/>
+    <row r="484" ht="15.75" customHeight="1"/>
+    <row r="485" ht="15.75" customHeight="1"/>
+    <row r="486" ht="15.75" customHeight="1"/>
+    <row r="487" ht="15.75" customHeight="1"/>
+    <row r="488" ht="15.75" customHeight="1"/>
+    <row r="489" ht="15.75" customHeight="1"/>
+    <row r="490" ht="15.75" customHeight="1"/>
+    <row r="491" ht="15.75" customHeight="1"/>
+    <row r="492" ht="15.75" customHeight="1"/>
+    <row r="493" ht="15.75" customHeight="1"/>
+    <row r="494" ht="15.75" customHeight="1"/>
+    <row r="495" ht="15.75" customHeight="1"/>
+    <row r="496" ht="15.75" customHeight="1"/>
+    <row r="497" ht="15.75" customHeight="1"/>
+    <row r="498" ht="15.75" customHeight="1"/>
+    <row r="499" ht="15.75" customHeight="1"/>
+    <row r="500" ht="15.75" customHeight="1"/>
+    <row r="501" ht="15.75" customHeight="1"/>
+    <row r="502" ht="15.75" customHeight="1"/>
+    <row r="503" ht="15.75" customHeight="1"/>
+    <row r="504" ht="15.75" customHeight="1"/>
+    <row r="505" ht="15.75" customHeight="1"/>
+    <row r="506" ht="15.75" customHeight="1"/>
+    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="508" ht="15.75" customHeight="1"/>
+    <row r="509" ht="15.75" customHeight="1"/>
+    <row r="510" ht="15.75" customHeight="1"/>
+    <row r="511" ht="15.75" customHeight="1"/>
+    <row r="512" ht="15.75" customHeight="1"/>
+    <row r="513" ht="15.75" customHeight="1"/>
+    <row r="514" ht="15.75" customHeight="1"/>
+    <row r="515" ht="15.75" customHeight="1"/>
+    <row r="516" ht="15.75" customHeight="1"/>
+    <row r="517" ht="15.75" customHeight="1"/>
+    <row r="518" ht="15.75" customHeight="1"/>
+    <row r="519" ht="15.75" customHeight="1"/>
+    <row r="520" ht="15.75" customHeight="1"/>
+    <row r="521" ht="15.75" customHeight="1"/>
+    <row r="522" ht="15.75" customHeight="1"/>
+    <row r="523" ht="15.75" customHeight="1"/>
+    <row r="524" ht="15.75" customHeight="1"/>
+    <row r="525" ht="15.75" customHeight="1"/>
+    <row r="526" ht="15.75" customHeight="1"/>
+    <row r="527" ht="15.75" customHeight="1"/>
+    <row r="528" ht="15.75" customHeight="1"/>
+    <row r="529" ht="15.75" customHeight="1"/>
+    <row r="530" ht="15.75" customHeight="1"/>
+    <row r="531" ht="15.75" customHeight="1"/>
+    <row r="532" ht="15.75" customHeight="1"/>
+    <row r="533" ht="15.75" customHeight="1"/>
+    <row r="534" ht="15.75" customHeight="1"/>
+    <row r="535" ht="15.75" customHeight="1"/>
+    <row r="536" ht="15.75" customHeight="1"/>
+    <row r="537" ht="15.75" customHeight="1"/>
+    <row r="538" ht="15.75" customHeight="1"/>
+    <row r="539" ht="15.75" customHeight="1"/>
+    <row r="540" ht="15.75" customHeight="1"/>
+    <row r="541" ht="15.75" customHeight="1"/>
+    <row r="542" ht="15.75" customHeight="1"/>
+    <row r="543" ht="15.75" customHeight="1"/>
+    <row r="544" ht="15.75" customHeight="1"/>
+    <row r="545" ht="15.75" customHeight="1"/>
+    <row r="546" ht="15.75" customHeight="1"/>
+    <row r="547" ht="15.75" customHeight="1"/>
+    <row r="548" ht="15.75" customHeight="1"/>
+    <row r="549" ht="15.75" customHeight="1"/>
+    <row r="550" ht="15.75" customHeight="1"/>
+    <row r="551" ht="15.75" customHeight="1"/>
+    <row r="552" ht="15.75" customHeight="1"/>
+    <row r="553" ht="15.75" customHeight="1"/>
+    <row r="554" ht="15.75" customHeight="1"/>
+    <row r="555" ht="15.75" customHeight="1"/>
+    <row r="556" ht="15.75" customHeight="1"/>
+    <row r="557" ht="15.75" customHeight="1"/>
+    <row r="558" ht="15.75" customHeight="1"/>
+    <row r="559" ht="15.75" customHeight="1"/>
+    <row r="560" ht="15.75" customHeight="1"/>
+    <row r="561" ht="15.75" customHeight="1"/>
+    <row r="562" ht="15.75" customHeight="1"/>
+    <row r="563" ht="15.75" customHeight="1"/>
+    <row r="564" ht="15.75" customHeight="1"/>
+    <row r="565" ht="15.75" customHeight="1"/>
+    <row r="566" ht="15.75" customHeight="1"/>
+    <row r="567" ht="15.75" customHeight="1"/>
+    <row r="568" ht="15.75" customHeight="1"/>
+    <row r="569" ht="15.75" customHeight="1"/>
+    <row r="570" ht="15.75" customHeight="1"/>
+    <row r="571" ht="15.75" customHeight="1"/>
+    <row r="572" ht="15.75" customHeight="1"/>
+    <row r="573" ht="15.75" customHeight="1"/>
+    <row r="574" ht="15.75" customHeight="1"/>
+    <row r="575" ht="15.75" customHeight="1"/>
+    <row r="576" ht="15.75" customHeight="1"/>
+    <row r="577" ht="15.75" customHeight="1"/>
+    <row r="578" ht="15.75" customHeight="1"/>
+    <row r="579" ht="15.75" customHeight="1"/>
+    <row r="580" ht="15.75" customHeight="1"/>
+    <row r="581" ht="15.75" customHeight="1"/>
+    <row r="582" ht="15.75" customHeight="1"/>
+    <row r="583" ht="15.75" customHeight="1"/>
+    <row r="584" ht="15.75" customHeight="1"/>
+    <row r="585" ht="15.75" customHeight="1"/>
+    <row r="586" ht="15.75" customHeight="1"/>
+    <row r="587" ht="15.75" customHeight="1"/>
+    <row r="588" ht="15.75" customHeight="1"/>
+    <row r="589" ht="15.75" customHeight="1"/>
+    <row r="590" ht="15.75" customHeight="1"/>
+    <row r="591" ht="15.75" customHeight="1"/>
+    <row r="592" ht="15.75" customHeight="1"/>
+    <row r="593" ht="15.75" customHeight="1"/>
+    <row r="594" ht="15.75" customHeight="1"/>
+    <row r="595" ht="15.75" customHeight="1"/>
+    <row r="596" ht="15.75" customHeight="1"/>
+    <row r="597" ht="15.75" customHeight="1"/>
+    <row r="598" ht="15.75" customHeight="1"/>
+    <row r="599" ht="15.75" customHeight="1"/>
+    <row r="600" ht="15.75" customHeight="1"/>
+    <row r="601" ht="15.75" customHeight="1"/>
+    <row r="602" ht="15.75" customHeight="1"/>
+    <row r="603" ht="15.75" customHeight="1"/>
+    <row r="604" ht="15.75" customHeight="1"/>
+    <row r="605" ht="15.75" customHeight="1"/>
+    <row r="606" ht="15.75" customHeight="1"/>
+    <row r="607" ht="15.75" customHeight="1"/>
+    <row r="608" ht="15.75" customHeight="1"/>
+    <row r="609" ht="15.75" customHeight="1"/>
+    <row r="610" ht="15.75" customHeight="1"/>
+    <row r="611" ht="15.75" customHeight="1"/>
+    <row r="612" ht="15.75" customHeight="1"/>
+    <row r="613" ht="15.75" customHeight="1"/>
+    <row r="614" ht="15.75" customHeight="1"/>
+    <row r="615" ht="15.75" customHeight="1"/>
+    <row r="616" ht="15.75" customHeight="1"/>
+    <row r="617" ht="15.75" customHeight="1"/>
+    <row r="618" ht="15.75" customHeight="1"/>
+    <row r="619" ht="15.75" customHeight="1"/>
+    <row r="620" ht="15.75" customHeight="1"/>
+    <row r="621" ht="15.75" customHeight="1"/>
+    <row r="622" ht="15.75" customHeight="1"/>
+    <row r="623" ht="15.75" customHeight="1"/>
+    <row r="624" ht="15.75" customHeight="1"/>
+    <row r="625" ht="15.75" customHeight="1"/>
+    <row r="626" ht="15.75" customHeight="1"/>
+    <row r="627" ht="15.75" customHeight="1"/>
+    <row r="628" ht="15.75" customHeight="1"/>
+    <row r="629" ht="15.75" customHeight="1"/>
+    <row r="630" ht="15.75" customHeight="1"/>
+    <row r="631" ht="15.75" customHeight="1"/>
+    <row r="632" ht="15.75" customHeight="1"/>
+    <row r="633" ht="15.75" customHeight="1"/>
+    <row r="634" ht="15.75" customHeight="1"/>
+    <row r="635" ht="15.75" customHeight="1"/>
+    <row r="636" ht="15.75" customHeight="1"/>
+    <row r="637" ht="15.75" customHeight="1"/>
+    <row r="638" ht="15.75" customHeight="1"/>
+    <row r="639" ht="15.75" customHeight="1"/>
+    <row r="640" ht="15.75" customHeight="1"/>
+    <row r="641" ht="15.75" customHeight="1"/>
+    <row r="642" ht="15.75" customHeight="1"/>
+    <row r="643" ht="15.75" customHeight="1"/>
+    <row r="644" ht="15.75" customHeight="1"/>
+    <row r="645" ht="15.75" customHeight="1"/>
+    <row r="646" ht="15.75" customHeight="1"/>
+    <row r="647" ht="15.75" customHeight="1"/>
+    <row r="648" ht="15.75" customHeight="1"/>
+    <row r="649" ht="15.75" customHeight="1"/>
+    <row r="650" ht="15.75" customHeight="1"/>
+    <row r="651" ht="15.75" customHeight="1"/>
+    <row r="652" ht="15.75" customHeight="1"/>
+    <row r="653" ht="15.75" customHeight="1"/>
+    <row r="654" ht="15.75" customHeight="1"/>
+    <row r="655" ht="15.75" customHeight="1"/>
+    <row r="656" ht="15.75" customHeight="1"/>
+    <row r="657" ht="15.75" customHeight="1"/>
+    <row r="658" ht="15.75" customHeight="1"/>
+    <row r="659" ht="15.75" customHeight="1"/>
+    <row r="660" ht="15.75" customHeight="1"/>
+    <row r="661" ht="15.75" customHeight="1"/>
+    <row r="662" ht="15.75" customHeight="1"/>
+    <row r="663" ht="15.75" customHeight="1"/>
+    <row r="664" ht="15.75" customHeight="1"/>
+    <row r="665" ht="15.75" customHeight="1"/>
+    <row r="666" ht="15.75" customHeight="1"/>
+    <row r="667" ht="15.75" customHeight="1"/>
+    <row r="668" ht="15.75" customHeight="1"/>
+    <row r="669" ht="15.75" customHeight="1"/>
+    <row r="670" ht="15.75" customHeight="1"/>
+    <row r="671" ht="15.75" customHeight="1"/>
+    <row r="672" ht="15.75" customHeight="1"/>
+    <row r="673" ht="15.75" customHeight="1"/>
+    <row r="674" ht="15.75" customHeight="1"/>
+    <row r="675" ht="15.75" customHeight="1"/>
+    <row r="676" ht="15.75" customHeight="1"/>
+    <row r="677" ht="15.75" customHeight="1"/>
+    <row r="678" ht="15.75" customHeight="1"/>
+    <row r="679" ht="15.75" customHeight="1"/>
+    <row r="680" ht="15.75" customHeight="1"/>
+    <row r="681" ht="15.75" customHeight="1"/>
+    <row r="682" ht="15.75" customHeight="1"/>
+    <row r="683" ht="15.75" customHeight="1"/>
+    <row r="684" ht="15.75" customHeight="1"/>
+    <row r="685" ht="15.75" customHeight="1"/>
+    <row r="686" ht="15.75" customHeight="1"/>
+    <row r="687" ht="15.75" customHeight="1"/>
+    <row r="688" ht="15.75" customHeight="1"/>
+    <row r="689" ht="15.75" customHeight="1"/>
+    <row r="690" ht="15.75" customHeight="1"/>
+    <row r="691" ht="15.75" customHeight="1"/>
+    <row r="692" ht="15.75" customHeight="1"/>
+    <row r="693" ht="15.75" customHeight="1"/>
+    <row r="694" ht="15.75" customHeight="1"/>
+    <row r="695" ht="15.75" customHeight="1"/>
+    <row r="696" ht="15.75" customHeight="1"/>
+    <row r="697" ht="15.75" customHeight="1"/>
+    <row r="698" ht="15.75" customHeight="1"/>
+    <row r="699" ht="15.75" customHeight="1"/>
+    <row r="700" ht="15.75" customHeight="1"/>
+    <row r="701" ht="15.75" customHeight="1"/>
+    <row r="702" ht="15.75" customHeight="1"/>
+    <row r="703" ht="15.75" customHeight="1"/>
+    <row r="704" ht="15.75" customHeight="1"/>
+    <row r="705" ht="15.75" customHeight="1"/>
+    <row r="706" ht="15.75" customHeight="1"/>
+    <row r="707" ht="15.75" customHeight="1"/>
+    <row r="708" ht="15.75" customHeight="1"/>
+    <row r="709" ht="15.75" customHeight="1"/>
+    <row r="710" ht="15.75" customHeight="1"/>
+    <row r="711" ht="15.75" customHeight="1"/>
+    <row r="712" ht="15.75" customHeight="1"/>
+    <row r="713" ht="15.75" customHeight="1"/>
+    <row r="714" ht="15.75" customHeight="1"/>
+    <row r="715" ht="15.75" customHeight="1"/>
+    <row r="716" ht="15.75" customHeight="1"/>
+    <row r="717" ht="15.75" customHeight="1"/>
+    <row r="718" ht="15.75" customHeight="1"/>
+    <row r="719" ht="15.75" customHeight="1"/>
+    <row r="720" ht="15.75" customHeight="1"/>
+    <row r="721" ht="15.75" customHeight="1"/>
+    <row r="722" ht="15.75" customHeight="1"/>
+    <row r="723" ht="15.75" customHeight="1"/>
+    <row r="724" ht="15.75" customHeight="1"/>
+    <row r="725" ht="15.75" customHeight="1"/>
+    <row r="726" ht="15.75" customHeight="1"/>
+    <row r="727" ht="15.75" customHeight="1"/>
+    <row r="728" ht="15.75" customHeight="1"/>
+    <row r="729" ht="15.75" customHeight="1"/>
+    <row r="730" ht="15.75" customHeight="1"/>
+    <row r="731" ht="15.75" customHeight="1"/>
+    <row r="732" ht="15.75" customHeight="1"/>
+    <row r="733" ht="15.75" customHeight="1"/>
+    <row r="734" ht="15.75" customHeight="1"/>
+    <row r="735" ht="15.75" customHeight="1"/>
+    <row r="736" ht="15.75" customHeight="1"/>
+    <row r="737" ht="15.75" customHeight="1"/>
+    <row r="738" ht="15.75" customHeight="1"/>
+    <row r="739" ht="15.75" customHeight="1"/>
+    <row r="740" ht="15.75" customHeight="1"/>
+    <row r="741" ht="15.75" customHeight="1"/>
+    <row r="742" ht="15.75" customHeight="1"/>
+    <row r="743" ht="15.75" customHeight="1"/>
+    <row r="744" ht="15.75" customHeight="1"/>
+    <row r="745" ht="15.75" customHeight="1"/>
+    <row r="746" ht="15.75" customHeight="1"/>
+    <row r="747" ht="15.75" customHeight="1"/>
+    <row r="748" ht="15.75" customHeight="1"/>
+    <row r="749" ht="15.75" customHeight="1"/>
+    <row r="750" ht="15.75" customHeight="1"/>
+    <row r="751" ht="15.75" customHeight="1"/>
+    <row r="752" ht="15.75" customHeight="1"/>
+    <row r="753" ht="15.75" customHeight="1"/>
+    <row r="754" ht="15.75" customHeight="1"/>
+    <row r="755" ht="15.75" customHeight="1"/>
+    <row r="756" ht="15.75" customHeight="1"/>
+    <row r="757" ht="15.75" customHeight="1"/>
+    <row r="758" ht="15.75" customHeight="1"/>
+    <row r="759" ht="15.75" customHeight="1"/>
+    <row r="760" ht="15.75" customHeight="1"/>
+    <row r="761" ht="15.75" customHeight="1"/>
+    <row r="762" ht="15.75" customHeight="1"/>
+    <row r="763" ht="15.75" customHeight="1"/>
+    <row r="764" ht="15.75" customHeight="1"/>
+    <row r="765" ht="15.75" customHeight="1"/>
+    <row r="766" ht="15.75" customHeight="1"/>
+    <row r="767" ht="15.75" customHeight="1"/>
+    <row r="768" ht="15.75" customHeight="1"/>
+    <row r="769" ht="15.75" customHeight="1"/>
+    <row r="770" ht="15.75" customHeight="1"/>
+    <row r="771" ht="15.75" customHeight="1"/>
+    <row r="772" ht="15.75" customHeight="1"/>
+    <row r="773" ht="15.75" customHeight="1"/>
+    <row r="774" ht="15.75" customHeight="1"/>
+    <row r="775" ht="15.75" customHeight="1"/>
+    <row r="776" ht="15.75" customHeight="1"/>
+    <row r="777" ht="15.75" customHeight="1"/>
+    <row r="778" ht="15.75" customHeight="1"/>
+    <row r="779" ht="15.75" customHeight="1"/>
+    <row r="780" ht="15.75" customHeight="1"/>
+    <row r="781" ht="15.75" customHeight="1"/>
+    <row r="782" ht="15.75" customHeight="1"/>
+    <row r="783" ht="15.75" customHeight="1"/>
+    <row r="784" ht="15.75" customHeight="1"/>
+    <row r="785" ht="15.75" customHeight="1"/>
+    <row r="786" ht="15.75" customHeight="1"/>
+    <row r="787" ht="15.75" customHeight="1"/>
+    <row r="788" ht="15.75" customHeight="1"/>
+    <row r="789" ht="15.75" customHeight="1"/>
+    <row r="790" ht="15.75" customHeight="1"/>
+    <row r="791" ht="15.75" customHeight="1"/>
+    <row r="792" ht="15.75" customHeight="1"/>
+    <row r="793" ht="15.75" customHeight="1"/>
+    <row r="794" ht="15.75" customHeight="1"/>
+    <row r="795" ht="15.75" customHeight="1"/>
+    <row r="796" ht="15.75" customHeight="1"/>
+    <row r="797" ht="15.75" customHeight="1"/>
+    <row r="798" ht="15.75" customHeight="1"/>
+    <row r="799" ht="15.75" customHeight="1"/>
+    <row r="800" ht="15.75" customHeight="1"/>
+    <row r="801" ht="15.75" customHeight="1"/>
+    <row r="802" ht="15.75" customHeight="1"/>
+    <row r="803" ht="15.75" customHeight="1"/>
+    <row r="804" ht="15.75" customHeight="1"/>
+    <row r="805" ht="15.75" customHeight="1"/>
+    <row r="806" ht="15.75" customHeight="1"/>
+    <row r="807" ht="15.75" customHeight="1"/>
+    <row r="808" ht="15.75" customHeight="1"/>
+    <row r="809" ht="15.75" customHeight="1"/>
+    <row r="810" ht="15.75" customHeight="1"/>
+    <row r="811" ht="15.75" customHeight="1"/>
+    <row r="812" ht="15.75" customHeight="1"/>
+    <row r="813" ht="15.75" customHeight="1"/>
+    <row r="814" ht="15.75" customHeight="1"/>
+    <row r="815" ht="15.75" customHeight="1"/>
+    <row r="816" ht="15.75" customHeight="1"/>
+    <row r="817" ht="15.75" customHeight="1"/>
+    <row r="818" ht="15.75" customHeight="1"/>
+    <row r="819" ht="15.75" customHeight="1"/>
+    <row r="820" ht="15.75" customHeight="1"/>
+    <row r="821" ht="15.75" customHeight="1"/>
+    <row r="822" ht="15.75" customHeight="1"/>
+    <row r="823" ht="15.75" customHeight="1"/>
+    <row r="824" ht="15.75" customHeight="1"/>
+    <row r="825" ht="15.75" customHeight="1"/>
+    <row r="826" ht="15.75" customHeight="1"/>
+    <row r="827" ht="15.75" customHeight="1"/>
+    <row r="828" ht="15.75" customHeight="1"/>
+    <row r="829" ht="15.75" customHeight="1"/>
+    <row r="830" ht="15.75" customHeight="1"/>
+    <row r="831" ht="15.75" customHeight="1"/>
+    <row r="832" ht="15.75" customHeight="1"/>
+    <row r="833" ht="15.75" customHeight="1"/>
+    <row r="834" ht="15.75" customHeight="1"/>
+    <row r="835" ht="15.75" customHeight="1"/>
+    <row r="836" ht="15.75" customHeight="1"/>
+    <row r="837" ht="15.75" customHeight="1"/>
+    <row r="838" ht="15.75" customHeight="1"/>
+    <row r="839" ht="15.75" customHeight="1"/>
+    <row r="840" ht="15.75" customHeight="1"/>
+    <row r="841" ht="15.75" customHeight="1"/>
+    <row r="842" ht="15.75" customHeight="1"/>
+    <row r="843" ht="15.75" customHeight="1"/>
+    <row r="844" ht="15.75" customHeight="1"/>
+    <row r="845" ht="15.75" customHeight="1"/>
+    <row r="846" ht="15.75" customHeight="1"/>
+    <row r="847" ht="15.75" customHeight="1"/>
+    <row r="848" ht="15.75" customHeight="1"/>
+    <row r="849" ht="15.75" customHeight="1"/>
+    <row r="850" ht="15.75" customHeight="1"/>
+    <row r="851" ht="15.75" customHeight="1"/>
+    <row r="852" ht="15.75" customHeight="1"/>
+    <row r="853" ht="15.75" customHeight="1"/>
+    <row r="854" ht="15.75" customHeight="1"/>
+    <row r="855" ht="15.75" customHeight="1"/>
+    <row r="856" ht="15.75" customHeight="1"/>
+    <row r="857" ht="15.75" customHeight="1"/>
+    <row r="858" ht="15.75" customHeight="1"/>
+    <row r="859" ht="15.75" customHeight="1"/>
+    <row r="860" ht="15.75" customHeight="1"/>
+    <row r="861" ht="15.75" customHeight="1"/>
+    <row r="862" ht="15.75" customHeight="1"/>
+    <row r="863" ht="15.75" customHeight="1"/>
+    <row r="864" ht="15.75" customHeight="1"/>
+    <row r="865" ht="15.75" customHeight="1"/>
+    <row r="866" ht="15.75" customHeight="1"/>
+    <row r="867" ht="15.75" customHeight="1"/>
+    <row r="868" ht="15.75" customHeight="1"/>
+    <row r="869" ht="15.75" customHeight="1"/>
+    <row r="870" ht="15.75" customHeight="1"/>
+    <row r="871" ht="15.75" customHeight="1"/>
+    <row r="872" ht="15.75" customHeight="1"/>
+    <row r="873" ht="15.75" customHeight="1"/>
+    <row r="874" ht="15.75" customHeight="1"/>
+    <row r="875" ht="15.75" customHeight="1"/>
+    <row r="876" ht="15.75" customHeight="1"/>
+    <row r="877" ht="15.75" customHeight="1"/>
+    <row r="878" ht="15.75" customHeight="1"/>
+    <row r="879" ht="15.75" customHeight="1"/>
+    <row r="880" ht="15.75" customHeight="1"/>
+    <row r="881" ht="15.75" customHeight="1"/>
+    <row r="882" ht="15.75" customHeight="1"/>
+    <row r="883" ht="15.75" customHeight="1"/>
+    <row r="884" ht="15.75" customHeight="1"/>
+    <row r="885" ht="15.75" customHeight="1"/>
+    <row r="886" ht="15.75" customHeight="1"/>
+    <row r="887" ht="15.75" customHeight="1"/>
+    <row r="888" ht="15.75" customHeight="1"/>
+    <row r="889" ht="15.75" customHeight="1"/>
+    <row r="890" ht="15.75" customHeight="1"/>
+    <row r="891" ht="15.75" customHeight="1"/>
+    <row r="892" ht="15.75" customHeight="1"/>
+    <row r="893" ht="15.75" customHeight="1"/>
+    <row r="894" ht="15.75" customHeight="1"/>
+    <row r="895" ht="15.75" customHeight="1"/>
+    <row r="896" ht="15.75" customHeight="1"/>
+    <row r="897" ht="15.75" customHeight="1"/>
+    <row r="898" ht="15.75" customHeight="1"/>
+    <row r="899" ht="15.75" customHeight="1"/>
+    <row r="900" ht="15.75" customHeight="1"/>
+    <row r="901" ht="15.75" customHeight="1"/>
+    <row r="902" ht="15.75" customHeight="1"/>
+    <row r="903" ht="15.75" customHeight="1"/>
+    <row r="904" ht="15.75" customHeight="1"/>
+    <row r="905" ht="15.75" customHeight="1"/>
+    <row r="906" ht="15.75" customHeight="1"/>
+    <row r="907" ht="15.75" customHeight="1"/>
+    <row r="908" ht="15.75" customHeight="1"/>
+    <row r="909" ht="15.75" customHeight="1"/>
+    <row r="910" ht="15.75" customHeight="1"/>
+    <row r="911" ht="15.75" customHeight="1"/>
+    <row r="912" ht="15.75" customHeight="1"/>
+    <row r="913" ht="15.75" customHeight="1"/>
+    <row r="914" ht="15.75" customHeight="1"/>
+    <row r="915" ht="15.75" customHeight="1"/>
+    <row r="916" ht="15.75" customHeight="1"/>
+    <row r="917" ht="15.75" customHeight="1"/>
+    <row r="918" ht="15.75" customHeight="1"/>
+    <row r="919" ht="15.75" customHeight="1"/>
+    <row r="920" ht="15.75" customHeight="1"/>
+    <row r="921" ht="15.75" customHeight="1"/>
+    <row r="922" ht="15.75" customHeight="1"/>
+    <row r="923" ht="15.75" customHeight="1"/>
+    <row r="924" ht="15.75" customHeight="1"/>
+    <row r="925" ht="15.75" customHeight="1"/>
+    <row r="926" ht="15.75" customHeight="1"/>
+    <row r="927" ht="15.75" customHeight="1"/>
+    <row r="928" ht="15.75" customHeight="1"/>
+    <row r="929" ht="15.75" customHeight="1"/>
+    <row r="930" ht="15.75" customHeight="1"/>
+    <row r="931" ht="15.75" customHeight="1"/>
+    <row r="932" ht="15.75" customHeight="1"/>
+    <row r="933" ht="15.75" customHeight="1"/>
+    <row r="934" ht="15.75" customHeight="1"/>
+    <row r="935" ht="15.75" customHeight="1"/>
+    <row r="936" ht="15.75" customHeight="1"/>
+    <row r="937" ht="15.75" customHeight="1"/>
+    <row r="938" ht="15.75" customHeight="1"/>
+    <row r="939" ht="15.75" customHeight="1"/>
+    <row r="940" ht="15.75" customHeight="1"/>
+    <row r="941" ht="15.75" customHeight="1"/>
+    <row r="942" ht="15.75" customHeight="1"/>
+    <row r="943" ht="15.75" customHeight="1"/>
+    <row r="944" ht="15.75" customHeight="1"/>
+    <row r="945" ht="15.75" customHeight="1"/>
+    <row r="946" ht="15.75" customHeight="1"/>
+    <row r="947" ht="15.75" customHeight="1"/>
+    <row r="948" ht="15.75" customHeight="1"/>
+    <row r="949" ht="15.75" customHeight="1"/>
+    <row r="950" ht="15.75" customHeight="1"/>
+    <row r="951" ht="15.75" customHeight="1"/>
+    <row r="952" ht="15.75" customHeight="1"/>
+    <row r="953" ht="15.75" customHeight="1"/>
+    <row r="954" ht="15.75" customHeight="1"/>
+    <row r="955" ht="15.75" customHeight="1"/>
+    <row r="956" ht="15.75" customHeight="1"/>
+    <row r="957" ht="15.75" customHeight="1"/>
+    <row r="958" ht="15.75" customHeight="1"/>
+    <row r="959" ht="15.75" customHeight="1"/>
+    <row r="960" ht="15.75" customHeight="1"/>
+    <row r="961" ht="15.75" customHeight="1"/>
+    <row r="962" ht="15.75" customHeight="1"/>
+    <row r="963" ht="15.75" customHeight="1"/>
+    <row r="964" ht="15.75" customHeight="1"/>
+    <row r="965" ht="15.75" customHeight="1"/>
+    <row r="966" ht="15.75" customHeight="1"/>
+    <row r="967" ht="15.75" customHeight="1"/>
+    <row r="968" ht="15.75" customHeight="1"/>
+    <row r="969" ht="15.75" customHeight="1"/>
+    <row r="970" ht="15.75" customHeight="1"/>
+    <row r="971" ht="15.75" customHeight="1"/>
+    <row r="972" ht="15.75" customHeight="1"/>
+    <row r="973" ht="15.75" customHeight="1"/>
+    <row r="974" ht="15.75" customHeight="1"/>
+    <row r="975" ht="15.75" customHeight="1"/>
+    <row r="976" ht="15.75" customHeight="1"/>
+    <row r="977" ht="15.75" customHeight="1"/>
+    <row r="978" ht="15.75" customHeight="1"/>
+    <row r="979" ht="15.75" customHeight="1"/>
+    <row r="980" ht="15.75" customHeight="1"/>
+    <row r="981" ht="15.75" customHeight="1"/>
+    <row r="982" ht="15.75" customHeight="1"/>
+    <row r="983" ht="15.75" customHeight="1"/>
+    <row r="984" ht="15.75" customHeight="1"/>
+    <row r="985" ht="15.75" customHeight="1"/>
+    <row r="986" ht="15.75" customHeight="1"/>
+    <row r="987" ht="15.75" customHeight="1"/>
+    <row r="988" ht="15.75" customHeight="1"/>
+    <row r="989" ht="15.75" customHeight="1"/>
+    <row r="990" ht="15.75" customHeight="1"/>
+    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="992" ht="15.75" customHeight="1"/>
+    <row r="993" ht="15.75" customHeight="1"/>
+    <row r="994" ht="15.75" customHeight="1"/>
+    <row r="995" ht="15.75" customHeight="1"/>
+    <row r="996" ht="15.75" customHeight="1"/>
+    <row r="997" ht="15.75" customHeight="1"/>
+    <row r="998" ht="15.75" customHeight="1"/>
+    <row r="999" ht="15.75" customHeight="1"/>
+    <row r="1000" ht="15.75" customHeight="1"/>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
     <pageSetUpPr/>
   </sheetPr>
   <sheetViews>
@@ -15792,71 +15909,71 @@
   </cols>
   <sheetData>
     <row r="3">
-      <c r="A3" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="B3" s="21" t="s">
+      <c r="A3" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="B3" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="21">
+      <c r="C3" s="24">
         <v>0.0</v>
       </c>
-      <c r="L3" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="M3" s="23" t="s">
+      <c r="L3" s="25" t="s">
+        <v>79</v>
+      </c>
+      <c r="M3" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="N3" s="23">
+      <c r="N3" s="26">
         <v>0.0</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="24"/>
-      <c r="B4" s="21" t="s">
+      <c r="A4" s="27"/>
+      <c r="B4" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="21">
+      <c r="C4" s="24">
         <v>2.0</v>
       </c>
-      <c r="L4" s="25"/>
-      <c r="M4" s="23" t="s">
+      <c r="L4" s="28"/>
+      <c r="M4" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="N4" s="23">
+      <c r="N4" s="26">
         <v>0.0</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="24"/>
-      <c r="B5" s="21" t="s">
-        <v>49</v>
-      </c>
-      <c r="C5" s="21">
+      <c r="A5" s="27"/>
+      <c r="B5" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="24">
         <v>1.0</v>
       </c>
-      <c r="L5" s="25"/>
-      <c r="M5" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="N5" s="23">
+      <c r="L5" s="28"/>
+      <c r="M5" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="N5" s="26">
         <v>5.0</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="24"/>
-      <c r="B6" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="C6" s="21">
+      <c r="A6" s="27"/>
+      <c r="B6" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="24">
         <f>SUM(C4:C5)</f>
         <v>3</v>
       </c>
-      <c r="L6" s="26"/>
-      <c r="M6" s="23" t="s">
-        <v>76</v>
-      </c>
-      <c r="N6" s="23">
+      <c r="L6" s="29"/>
+      <c r="M6" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="N6" s="26">
         <f>SUM(N4:N5)</f>
         <v>5</v>
       </c>

--- a/Monitoring and Controlling/Reviews.xlsx
+++ b/Monitoring and Controlling/Reviews.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="158">
   <si>
     <t>Review No.</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Change Control Management is missing some details</t>
   </si>
   <si>
-    <t>Work in progress</t>
+    <t>Close</t>
   </si>
   <si>
     <t>PMP_02</t>
@@ -80,9 +80,6 @@
   </si>
   <si>
     <t>Schedule and dependencies is missing</t>
-  </si>
-  <si>
-    <t>Close</t>
   </si>
   <si>
     <t>PMP_03</t>
@@ -181,9 +178,6 @@
     <t>Testcase Description should start with verb to describe the reason for this test case like (validate).</t>
   </si>
   <si>
-    <t>open</t>
-  </si>
-  <si>
     <t>TC_CL_02</t>
   </si>
   <si>
@@ -243,9 +237,6 @@
   </si>
   <si>
     <t>"TC_BS_Edit_Client_05" to "TC_BS_Edit_Client_19"</t>
-  </si>
-  <si>
-    <t>Open</t>
   </si>
   <si>
     <t>TC_21</t>
@@ -316,6 +307,12 @@
   </si>
   <si>
     <t>Admin Name should be Changed to User Name</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>Work in progress</t>
   </si>
   <si>
     <t>RV_01</t>
@@ -739,7 +736,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="53">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -824,9 +821,6 @@
     <xf borderId="1" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf borderId="2" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
@@ -862,6 +856,12 @@
     </xf>
     <xf borderId="1" fillId="3" fontId="3" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="3" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="3" fillId="7" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
@@ -1535,7 +1535,7 @@
       <c r="E2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G2" s="4" t="s">
@@ -1560,7 +1560,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>10</v>
@@ -1571,10 +1571,10 @@
     </row>
     <row r="4" ht="37.5" customHeight="1">
       <c r="A4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>19</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>10</v>
@@ -1583,9 +1583,9 @@
         <v>44665.0</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G4" s="4" t="s">
@@ -4851,28 +4851,28 @@
   </cols>
   <sheetData>
     <row r="1" ht="36.0" customHeight="1">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="D1" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="44" t="s">
+      <c r="E1" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="44" t="s">
+      <c r="F1" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="44" t="s">
+      <c r="G1" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="44" t="s">
+      <c r="H1" s="45" t="s">
         <v>7</v>
       </c>
     </row>
@@ -5879,71 +5879,71 @@
   </cols>
   <sheetData>
     <row r="3">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="46" t="s">
+        <v>155</v>
+      </c>
+      <c r="B3" s="47" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="47">
+        <v>0.0</v>
+      </c>
+      <c r="L3" s="48" t="s">
         <v>156</v>
       </c>
-      <c r="B3" s="46" t="s">
-        <v>71</v>
-      </c>
-      <c r="C3" s="46">
+      <c r="M3" s="49" t="s">
+        <v>92</v>
+      </c>
+      <c r="N3" s="49">
         <v>0.0</v>
       </c>
-      <c r="L3" s="47" t="s">
+    </row>
+    <row r="4">
+      <c r="A4" s="50"/>
+      <c r="B4" s="47" t="s">
+        <v>93</v>
+      </c>
+      <c r="C4" s="47">
+        <v>2.0</v>
+      </c>
+      <c r="L4" s="51"/>
+      <c r="M4" s="49" t="s">
+        <v>93</v>
+      </c>
+      <c r="N4" s="49">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="50"/>
+      <c r="B5" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="47">
+        <v>1.0</v>
+      </c>
+      <c r="L5" s="51"/>
+      <c r="M5" s="49" t="s">
+        <v>63</v>
+      </c>
+      <c r="N5" s="49">
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="50"/>
+      <c r="B6" s="47" t="s">
         <v>157</v>
       </c>
-      <c r="M3" s="48" t="s">
-        <v>71</v>
-      </c>
-      <c r="N3" s="48">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="49"/>
-      <c r="B4" s="46" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="46">
-        <v>2.0</v>
-      </c>
-      <c r="L4" s="50"/>
-      <c r="M4" s="48" t="s">
-        <v>13</v>
-      </c>
-      <c r="N4" s="48">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="49"/>
-      <c r="B5" s="46" t="s">
-        <v>65</v>
-      </c>
-      <c r="C5" s="46">
-        <v>1.0</v>
-      </c>
-      <c r="L5" s="50"/>
-      <c r="M5" s="48" t="s">
-        <v>65</v>
-      </c>
-      <c r="N5" s="48">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="49"/>
-      <c r="B6" s="46" t="s">
-        <v>158</v>
-      </c>
-      <c r="C6" s="46">
+      <c r="C6" s="47">
         <f>SUM(C4:C5)</f>
         <v>3</v>
       </c>
-      <c r="L6" s="51"/>
-      <c r="M6" s="48" t="s">
-        <v>158</v>
-      </c>
-      <c r="N6" s="48">
+      <c r="L6" s="52"/>
+      <c r="M6" s="49" t="s">
+        <v>157</v>
+      </c>
+      <c r="N6" s="49">
         <f>SUM(N4:N5)</f>
         <v>5</v>
       </c>
@@ -6962,7 +6962,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E1" s="14"/>
     </row>
@@ -6983,7 +6983,7 @@
         <v>4</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G2" s="15" t="s">
         <v>5</v>
@@ -6997,28 +6997,28 @@
     </row>
     <row r="3">
       <c r="A3" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="C3" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="D3" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="E3" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="F3" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="20" t="s">
+      <c r="G3" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="18" t="s">
-        <v>29</v>
-      </c>
       <c r="H3" s="18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I3" s="21">
         <v>44707.0</v>
@@ -7026,28 +7026,28 @@
     </row>
     <row r="4">
       <c r="A4" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>31</v>
-      </c>
       <c r="F4" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="G4" s="18" t="s">
-        <v>29</v>
-      </c>
       <c r="H4" s="18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I4" s="21">
         <v>44707.0</v>
@@ -7055,28 +7055,28 @@
     </row>
     <row r="5">
       <c r="A5" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="19" t="s">
+      <c r="F5" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="20" t="s">
-        <v>34</v>
-      </c>
       <c r="G5" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I5" s="21">
         <v>44707.0</v>
@@ -7084,28 +7084,28 @@
     </row>
     <row r="6">
       <c r="A6" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="19" t="s">
+      <c r="F6" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="22" t="s">
-        <v>37</v>
-      </c>
       <c r="G6" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H6" s="18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I6" s="21">
         <v>44707.0</v>
@@ -7113,28 +7113,28 @@
     </row>
     <row r="7">
       <c r="A7" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="19" t="s">
+      <c r="F7" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="20" t="s">
-        <v>40</v>
-      </c>
       <c r="G7" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H7" s="18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I7" s="21">
         <v>44707.0</v>
@@ -7142,28 +7142,28 @@
     </row>
     <row r="8">
       <c r="A8" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="B8" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="19" t="s">
+      <c r="F8" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="F8" s="18" t="s">
-        <v>43</v>
-      </c>
       <c r="G8" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H8" s="18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I8" s="21">
         <v>44707.0</v>
@@ -7171,28 +7171,28 @@
     </row>
     <row r="9">
       <c r="A9" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="F9" s="20" t="s">
-        <v>45</v>
-      </c>
       <c r="G9" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I9" s="21">
         <v>44707.0</v>
@@ -7204,7 +7204,7 @@
     </row>
     <row r="11">
       <c r="A11" s="13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E11" s="14"/>
     </row>
@@ -7225,7 +7225,7 @@
         <v>4</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G12" s="15" t="s">
         <v>5</v>
@@ -7239,28 +7239,28 @@
     </row>
     <row r="13">
       <c r="A13" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="B13" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" s="18" t="s">
+      <c r="D13" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="D13" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="19" t="s">
-        <v>49</v>
-      </c>
       <c r="F13" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G13" s="18" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="H13" s="18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I13" s="21">
         <v>44707.0</v>
@@ -7268,28 +7268,28 @@
     </row>
     <row r="14">
       <c r="A14" s="18" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F14" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="H14" s="18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I14" s="21">
         <v>44707.0</v>
@@ -7297,28 +7297,28 @@
     </row>
     <row r="15">
       <c r="A15" s="18" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="H15" s="18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I15" s="21">
         <v>44707.0</v>
@@ -7329,7 +7329,7 @@
     </row>
     <row r="17">
       <c r="A17" s="13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E17" s="14"/>
     </row>
@@ -7350,7 +7350,7 @@
         <v>4</v>
       </c>
       <c r="F18" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G18" s="15" t="s">
         <v>5</v>
@@ -7364,28 +7364,28 @@
     </row>
     <row r="19">
       <c r="A19" s="18" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B19" s="18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G19" s="18" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="H19" s="18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I19" s="21">
         <v>44707.0</v>
@@ -7393,28 +7393,28 @@
     </row>
     <row r="20">
       <c r="A20" s="18" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F20" s="18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G20" s="18" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="H20" s="18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I20" s="21">
         <v>44707.0</v>
@@ -7422,28 +7422,28 @@
     </row>
     <row r="21">
       <c r="A21" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B21" s="18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F21" s="18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G21" s="18" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="H21" s="18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I21" s="21">
         <v>44707.0</v>
@@ -7454,7 +7454,7 @@
     </row>
     <row r="23">
       <c r="A23" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E23" s="14"/>
     </row>
@@ -7475,7 +7475,7 @@
         <v>4</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G24" s="15" t="s">
         <v>5</v>
@@ -7489,25 +7489,25 @@
     </row>
     <row r="25">
       <c r="A25" s="18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B25" s="18" t="s">
         <v>15</v>
       </c>
       <c r="C25" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="F25" s="26" t="s">
         <v>62</v>
       </c>
-      <c r="D25" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E25" s="25" t="s">
+      <c r="G25" s="18" t="s">
         <v>63</v>
-      </c>
-      <c r="F25" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="G25" s="18" t="s">
-        <v>65</v>
       </c>
       <c r="H25" s="27" t="s">
         <v>15</v>
@@ -7521,7 +7521,7 @@
     </row>
     <row r="27">
       <c r="A27" s="28" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E27" s="14"/>
     </row>
@@ -7542,7 +7542,7 @@
         <v>4</v>
       </c>
       <c r="F28" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G28" s="15" t="s">
         <v>5</v>
@@ -7556,61 +7556,69 @@
     </row>
     <row r="29">
       <c r="A29" s="18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B29" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C29" s="18" t="s">
         <v>15</v>
       </c>
       <c r="D29" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="E29" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="F29" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="E29" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="F29" s="29" t="s">
-        <v>70</v>
-      </c>
       <c r="G29" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="H29" s="18"/>
-      <c r="I29" s="30"/>
+        <v>63</v>
+      </c>
+      <c r="H29" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="I29" s="21">
+        <v>44707.0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="18" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B30" s="18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C30" s="18" t="s">
         <v>15</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E30" s="25" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F30" s="29" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="G30" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="H30" s="30"/>
-      <c r="I30" s="30"/>
+        <v>63</v>
+      </c>
+      <c r="H30" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="I30" s="21">
+        <v>44707.0</v>
+      </c>
     </row>
     <row r="31">
-      <c r="A31" s="31"/>
+      <c r="A31" s="30"/>
       <c r="E31" s="14"/>
     </row>
     <row r="32">
       <c r="A32" s="13" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E32" s="14"/>
     </row>
@@ -7631,7 +7639,7 @@
         <v>4</v>
       </c>
       <c r="F33" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G33" s="15" t="s">
         <v>5</v>
@@ -7645,40 +7653,40 @@
     </row>
     <row r="34">
       <c r="A34" s="18" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E34" s="19" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F34" s="20" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="G34" s="18" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H34" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I34" s="21">
         <v>44707.0</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="32"/>
+      <c r="A35" s="31"/>
       <c r="E35" s="14"/>
     </row>
     <row r="36">
       <c r="A36" s="13" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E36" s="14"/>
     </row>
@@ -7699,7 +7707,7 @@
         <v>4</v>
       </c>
       <c r="F37" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G37" s="15" t="s">
         <v>5</v>
@@ -7713,28 +7721,28 @@
     </row>
     <row r="38">
       <c r="A38" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="B38" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="C38" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D38" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="E38" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="F38" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="B38" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="C38" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="D38" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="E38" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="F38" s="20" t="s">
-        <v>83</v>
-      </c>
       <c r="G38" s="18" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H38" s="18" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I38" s="21">
         <v>44707.0</v>
@@ -7742,28 +7750,28 @@
     </row>
     <row r="39">
       <c r="A39" s="18" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D39" s="18" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E39" s="19" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F39" s="20" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G39" s="18" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H39" s="18" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I39" s="21">
         <v>44707.0</v>
@@ -7771,28 +7779,28 @@
     </row>
     <row r="40">
       <c r="A40" s="18" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B40" s="18" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D40" s="18" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E40" s="19" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F40" s="20" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G40" s="18" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H40" s="18" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I40" s="21">
         <v>44707.0</v>
@@ -7800,28 +7808,32 @@
     </row>
     <row r="41">
       <c r="A41" s="18" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B41" s="18" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D41" s="18" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E41" s="19" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F41" s="20" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="G41" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="H41" s="30"/>
-      <c r="I41" s="30"/>
+        <v>63</v>
+      </c>
+      <c r="H41" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="I41" s="21">
+        <v>44707.0</v>
+      </c>
     </row>
     <row r="46">
       <c r="E46" s="14"/>
@@ -10782,7 +10794,7 @@
     </row>
     <row r="2" ht="37.5" customHeight="1">
       <c r="A2" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>15</v>
@@ -10794,10 +10806,10 @@
         <v>44690.0</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>15</v>
@@ -10808,7 +10820,7 @@
     </row>
     <row r="3" ht="70.5" customHeight="1">
       <c r="A3" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>15</v>
@@ -10820,10 +10832,10 @@
         <v>44690.0</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>15</v>
@@ -10836,7 +10848,7 @@
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
-      <c r="D4" s="33"/>
+      <c r="D4" s="32"/>
       <c r="E4" s="10"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -14098,17 +14110,17 @@
   <sheetData>
     <row r="1">
       <c r="B1" s="11" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2">
       <c r="B2" s="11" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3">
       <c r="B3" s="11" t="s">
-        <v>13</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1"/>
@@ -15166,149 +15178,149 @@
     </row>
     <row r="2" ht="37.5" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>11</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" ht="68.25" customHeight="1">
       <c r="A3" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C3" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>101</v>
-      </c>
       <c r="F3" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4" ht="37.5" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E4" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>105</v>
-      </c>
       <c r="F4" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" ht="37.5" customHeight="1">
       <c r="A5" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>108</v>
-      </c>
       <c r="F5" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" ht="37.5" customHeight="1">
       <c r="A6" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>111</v>
-      </c>
       <c r="F6" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="G6" s="4" t="s">
         <v>10</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" ht="37.5" customHeight="1">
       <c r="A7" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C7" s="4" t="s">
+      <c r="D7" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="E7" s="4" t="s">
         <v>115</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>116</v>
       </c>
       <c r="F7" s="4"/>
       <c r="G7" s="4"/>
@@ -18569,25 +18581,25 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D2" s="7">
         <v>44698.0</v>
       </c>
-      <c r="E2" s="34" t="s">
-        <v>118</v>
+      <c r="E2" s="33" t="s">
+        <v>117</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H2" s="7">
         <v>44698.0</v>
@@ -18595,25 +18607,25 @@
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D3" s="7">
         <v>44698.0</v>
       </c>
-      <c r="E3" s="34" t="s">
-        <v>120</v>
+      <c r="E3" s="33" t="s">
+        <v>119</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H3" s="7">
         <v>44698.0</v>
@@ -19652,3253 +19664,3253 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E2" s="34" t="s">
-        <v>123</v>
-      </c>
       <c r="F2" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" s="33" t="s">
         <v>124</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="E3" s="34" t="s">
-        <v>125</v>
-      </c>
       <c r="F3" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="34" t="s">
-        <v>127</v>
+        <v>18</v>
+      </c>
+      <c r="E4" s="33" t="s">
+        <v>126</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="34" t="s">
-        <v>129</v>
+        <v>18</v>
+      </c>
+      <c r="E5" s="33" t="s">
+        <v>128</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>15</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="35"/>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
+      <c r="A6" s="34"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
     </row>
     <row r="7">
-      <c r="A7" s="35"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="35"/>
-      <c r="H7" s="35"/>
+      <c r="A7" s="34"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
     </row>
     <row r="8">
-      <c r="A8" s="35"/>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
+      <c r="A8" s="34"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
     </row>
     <row r="9">
-      <c r="A9" s="35"/>
-      <c r="B9" s="35"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="36"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
+      <c r="A9" s="34"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="34"/>
+      <c r="G9" s="34"/>
+      <c r="H9" s="34"/>
     </row>
     <row r="10">
-      <c r="A10" s="35"/>
-      <c r="B10" s="35"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
+      <c r="A10" s="34"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="34"/>
+      <c r="H10" s="34"/>
     </row>
     <row r="11">
-      <c r="A11" s="35"/>
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="35"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
+      <c r="A11" s="34"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
     </row>
     <row r="12">
-      <c r="A12" s="35"/>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
+      <c r="A12" s="34"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
     </row>
     <row r="13">
-      <c r="A13" s="35"/>
-      <c r="B13" s="35"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
+      <c r="A13" s="34"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
     </row>
     <row r="14">
-      <c r="A14" s="35"/>
-      <c r="B14" s="35"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
+      <c r="A14" s="34"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
     </row>
     <row r="15">
-      <c r="A15" s="35"/>
-      <c r="B15" s="35"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
+      <c r="A15" s="34"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
     </row>
     <row r="16">
-      <c r="A16" s="35"/>
-      <c r="B16" s="35"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
+      <c r="A16" s="34"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
     </row>
     <row r="17">
-      <c r="A17" s="35"/>
-      <c r="B17" s="35"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="36"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
+      <c r="A17" s="34"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
     </row>
     <row r="18">
-      <c r="A18" s="35"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="36"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
+      <c r="A18" s="34"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
     </row>
     <row r="19">
-      <c r="A19" s="35"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="36"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
+      <c r="A19" s="34"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
     </row>
     <row r="20">
-      <c r="A20" s="35"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="35"/>
+      <c r="A20" s="34"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
     </row>
     <row r="21">
-      <c r="A21" s="35"/>
-      <c r="B21" s="35"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="36"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="35"/>
+      <c r="A21" s="34"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
     </row>
     <row r="22">
-      <c r="A22" s="35"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="35"/>
+      <c r="A22" s="34"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
     </row>
     <row r="23">
-      <c r="A23" s="35"/>
-      <c r="B23" s="35"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="36"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="35"/>
+      <c r="A23" s="34"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
     </row>
     <row r="24">
-      <c r="A24" s="35"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="36"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="35"/>
+      <c r="A24" s="34"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
     </row>
     <row r="25">
-      <c r="A25" s="35"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="35"/>
+      <c r="A25" s="34"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
     </row>
     <row r="26">
-      <c r="A26" s="35"/>
-      <c r="B26" s="35"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="36"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="35"/>
+      <c r="A26" s="34"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
     </row>
     <row r="27">
-      <c r="A27" s="35"/>
-      <c r="B27" s="35"/>
-      <c r="C27" s="35"/>
-      <c r="D27" s="35"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="35"/>
+      <c r="A27" s="34"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="34"/>
     </row>
     <row r="28">
-      <c r="A28" s="35"/>
-      <c r="B28" s="35"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="35"/>
+      <c r="A28" s="34"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
     </row>
     <row r="29">
-      <c r="E29" s="37"/>
+      <c r="E29" s="36"/>
     </row>
     <row r="30">
-      <c r="E30" s="37"/>
+      <c r="E30" s="36"/>
     </row>
     <row r="31">
-      <c r="E31" s="37"/>
+      <c r="E31" s="36"/>
     </row>
     <row r="32">
-      <c r="E32" s="37"/>
+      <c r="E32" s="36"/>
     </row>
     <row r="33">
-      <c r="E33" s="37"/>
+      <c r="E33" s="36"/>
     </row>
     <row r="34">
-      <c r="E34" s="37"/>
+      <c r="E34" s="36"/>
     </row>
     <row r="35">
-      <c r="E35" s="37"/>
+      <c r="E35" s="36"/>
     </row>
     <row r="36">
-      <c r="E36" s="37"/>
+      <c r="E36" s="36"/>
     </row>
     <row r="37">
-      <c r="E37" s="37"/>
+      <c r="E37" s="36"/>
     </row>
     <row r="38">
-      <c r="E38" s="37"/>
+      <c r="E38" s="36"/>
     </row>
     <row r="39">
-      <c r="E39" s="37"/>
+      <c r="E39" s="36"/>
     </row>
     <row r="40">
-      <c r="E40" s="37"/>
+      <c r="E40" s="36"/>
     </row>
     <row r="41">
-      <c r="E41" s="37"/>
+      <c r="E41" s="36"/>
     </row>
     <row r="42">
-      <c r="E42" s="37"/>
+      <c r="E42" s="36"/>
     </row>
     <row r="43">
-      <c r="E43" s="37"/>
+      <c r="E43" s="36"/>
     </row>
     <row r="44">
-      <c r="E44" s="37"/>
+      <c r="E44" s="36"/>
     </row>
     <row r="45">
-      <c r="E45" s="37"/>
+      <c r="E45" s="36"/>
     </row>
     <row r="46">
-      <c r="E46" s="37"/>
+      <c r="E46" s="36"/>
     </row>
     <row r="47">
-      <c r="E47" s="37"/>
+      <c r="E47" s="36"/>
     </row>
     <row r="48">
-      <c r="E48" s="37"/>
+      <c r="E48" s="36"/>
     </row>
     <row r="49">
-      <c r="E49" s="37"/>
+      <c r="E49" s="36"/>
     </row>
     <row r="50">
-      <c r="E50" s="37"/>
+      <c r="E50" s="36"/>
     </row>
     <row r="51">
-      <c r="E51" s="37"/>
+      <c r="E51" s="36"/>
     </row>
     <row r="52">
-      <c r="E52" s="37"/>
+      <c r="E52" s="36"/>
     </row>
     <row r="53">
-      <c r="E53" s="37"/>
+      <c r="E53" s="36"/>
     </row>
     <row r="54">
-      <c r="E54" s="37"/>
+      <c r="E54" s="36"/>
     </row>
     <row r="55">
-      <c r="E55" s="37"/>
+      <c r="E55" s="36"/>
     </row>
     <row r="56">
-      <c r="E56" s="37"/>
+      <c r="E56" s="36"/>
     </row>
     <row r="57">
-      <c r="E57" s="37"/>
+      <c r="E57" s="36"/>
     </row>
     <row r="58">
-      <c r="E58" s="37"/>
+      <c r="E58" s="36"/>
     </row>
     <row r="59">
-      <c r="E59" s="37"/>
+      <c r="E59" s="36"/>
     </row>
     <row r="60">
-      <c r="E60" s="37"/>
+      <c r="E60" s="36"/>
     </row>
     <row r="61">
-      <c r="E61" s="37"/>
+      <c r="E61" s="36"/>
     </row>
     <row r="62">
-      <c r="E62" s="37"/>
+      <c r="E62" s="36"/>
     </row>
     <row r="63">
-      <c r="E63" s="37"/>
+      <c r="E63" s="36"/>
     </row>
     <row r="64">
-      <c r="E64" s="37"/>
+      <c r="E64" s="36"/>
     </row>
     <row r="65">
-      <c r="E65" s="37"/>
+      <c r="E65" s="36"/>
     </row>
     <row r="66">
-      <c r="E66" s="37"/>
+      <c r="E66" s="36"/>
     </row>
     <row r="67">
-      <c r="E67" s="37"/>
+      <c r="E67" s="36"/>
     </row>
     <row r="68">
-      <c r="E68" s="37"/>
+      <c r="E68" s="36"/>
     </row>
     <row r="69">
-      <c r="E69" s="37"/>
+      <c r="E69" s="36"/>
     </row>
     <row r="70">
-      <c r="E70" s="37"/>
+      <c r="E70" s="36"/>
     </row>
     <row r="71">
-      <c r="E71" s="37"/>
+      <c r="E71" s="36"/>
     </row>
     <row r="72">
-      <c r="E72" s="37"/>
+      <c r="E72" s="36"/>
     </row>
     <row r="73">
-      <c r="E73" s="37"/>
+      <c r="E73" s="36"/>
     </row>
     <row r="74">
-      <c r="E74" s="37"/>
+      <c r="E74" s="36"/>
     </row>
     <row r="75">
-      <c r="E75" s="37"/>
+      <c r="E75" s="36"/>
     </row>
     <row r="76">
-      <c r="E76" s="37"/>
+      <c r="E76" s="36"/>
     </row>
     <row r="77">
-      <c r="E77" s="37"/>
+      <c r="E77" s="36"/>
     </row>
     <row r="78">
-      <c r="E78" s="37"/>
+      <c r="E78" s="36"/>
     </row>
     <row r="79">
-      <c r="E79" s="37"/>
+      <c r="E79" s="36"/>
     </row>
     <row r="80">
-      <c r="E80" s="37"/>
+      <c r="E80" s="36"/>
     </row>
     <row r="81">
-      <c r="E81" s="37"/>
+      <c r="E81" s="36"/>
     </row>
     <row r="82">
-      <c r="E82" s="37"/>
+      <c r="E82" s="36"/>
     </row>
     <row r="83">
-      <c r="E83" s="37"/>
+      <c r="E83" s="36"/>
     </row>
     <row r="84">
-      <c r="E84" s="37"/>
+      <c r="E84" s="36"/>
     </row>
     <row r="85">
-      <c r="E85" s="37"/>
+      <c r="E85" s="36"/>
     </row>
     <row r="86">
-      <c r="E86" s="37"/>
+      <c r="E86" s="36"/>
     </row>
     <row r="87">
-      <c r="E87" s="37"/>
+      <c r="E87" s="36"/>
     </row>
     <row r="88">
-      <c r="E88" s="37"/>
+      <c r="E88" s="36"/>
     </row>
     <row r="89">
-      <c r="E89" s="37"/>
+      <c r="E89" s="36"/>
     </row>
     <row r="90">
-      <c r="E90" s="37"/>
+      <c r="E90" s="36"/>
     </row>
     <row r="91">
-      <c r="E91" s="37"/>
+      <c r="E91" s="36"/>
     </row>
     <row r="92">
-      <c r="E92" s="37"/>
+      <c r="E92" s="36"/>
     </row>
     <row r="93">
-      <c r="E93" s="37"/>
+      <c r="E93" s="36"/>
     </row>
     <row r="94">
-      <c r="E94" s="37"/>
+      <c r="E94" s="36"/>
     </row>
     <row r="95">
-      <c r="E95" s="37"/>
+      <c r="E95" s="36"/>
     </row>
     <row r="96">
-      <c r="E96" s="37"/>
+      <c r="E96" s="36"/>
     </row>
     <row r="97">
-      <c r="E97" s="37"/>
+      <c r="E97" s="36"/>
     </row>
     <row r="98">
-      <c r="E98" s="37"/>
+      <c r="E98" s="36"/>
     </row>
     <row r="99">
-      <c r="E99" s="37"/>
+      <c r="E99" s="36"/>
     </row>
     <row r="100">
-      <c r="E100" s="37"/>
+      <c r="E100" s="36"/>
     </row>
     <row r="101">
-      <c r="E101" s="37"/>
+      <c r="E101" s="36"/>
     </row>
     <row r="102">
-      <c r="E102" s="37"/>
+      <c r="E102" s="36"/>
     </row>
     <row r="103">
-      <c r="E103" s="37"/>
+      <c r="E103" s="36"/>
     </row>
     <row r="104">
-      <c r="E104" s="37"/>
+      <c r="E104" s="36"/>
     </row>
     <row r="105">
-      <c r="E105" s="37"/>
+      <c r="E105" s="36"/>
     </row>
     <row r="106">
-      <c r="E106" s="37"/>
+      <c r="E106" s="36"/>
     </row>
     <row r="107">
-      <c r="E107" s="37"/>
+      <c r="E107" s="36"/>
     </row>
     <row r="108">
-      <c r="E108" s="37"/>
+      <c r="E108" s="36"/>
     </row>
     <row r="109">
-      <c r="E109" s="37"/>
+      <c r="E109" s="36"/>
     </row>
     <row r="110">
-      <c r="E110" s="37"/>
+      <c r="E110" s="36"/>
     </row>
     <row r="111">
-      <c r="E111" s="37"/>
+      <c r="E111" s="36"/>
     </row>
     <row r="112">
-      <c r="E112" s="37"/>
+      <c r="E112" s="36"/>
     </row>
     <row r="113">
-      <c r="E113" s="37"/>
+      <c r="E113" s="36"/>
     </row>
     <row r="114">
-      <c r="E114" s="37"/>
+      <c r="E114" s="36"/>
     </row>
     <row r="115">
-      <c r="E115" s="37"/>
+      <c r="E115" s="36"/>
     </row>
     <row r="116">
-      <c r="E116" s="37"/>
+      <c r="E116" s="36"/>
     </row>
     <row r="117">
-      <c r="E117" s="37"/>
+      <c r="E117" s="36"/>
     </row>
     <row r="118">
-      <c r="E118" s="37"/>
+      <c r="E118" s="36"/>
     </row>
     <row r="119">
-      <c r="E119" s="37"/>
+      <c r="E119" s="36"/>
     </row>
     <row r="120">
-      <c r="E120" s="37"/>
+      <c r="E120" s="36"/>
     </row>
     <row r="121">
-      <c r="E121" s="37"/>
+      <c r="E121" s="36"/>
     </row>
     <row r="122">
-      <c r="E122" s="37"/>
+      <c r="E122" s="36"/>
     </row>
     <row r="123">
-      <c r="E123" s="37"/>
+      <c r="E123" s="36"/>
     </row>
     <row r="124">
-      <c r="E124" s="37"/>
+      <c r="E124" s="36"/>
     </row>
     <row r="125">
-      <c r="E125" s="37"/>
+      <c r="E125" s="36"/>
     </row>
     <row r="126">
-      <c r="E126" s="37"/>
+      <c r="E126" s="36"/>
     </row>
     <row r="127">
-      <c r="E127" s="37"/>
+      <c r="E127" s="36"/>
     </row>
     <row r="128">
-      <c r="E128" s="37"/>
+      <c r="E128" s="36"/>
     </row>
     <row r="129">
-      <c r="E129" s="37"/>
+      <c r="E129" s="36"/>
     </row>
     <row r="130">
-      <c r="E130" s="37"/>
+      <c r="E130" s="36"/>
     </row>
     <row r="131">
-      <c r="E131" s="37"/>
+      <c r="E131" s="36"/>
     </row>
     <row r="132">
-      <c r="E132" s="37"/>
+      <c r="E132" s="36"/>
     </row>
     <row r="133">
-      <c r="E133" s="37"/>
+      <c r="E133" s="36"/>
     </row>
     <row r="134">
-      <c r="E134" s="37"/>
+      <c r="E134" s="36"/>
     </row>
     <row r="135">
-      <c r="E135" s="37"/>
+      <c r="E135" s="36"/>
     </row>
     <row r="136">
-      <c r="E136" s="37"/>
+      <c r="E136" s="36"/>
     </row>
     <row r="137">
-      <c r="E137" s="37"/>
+      <c r="E137" s="36"/>
     </row>
     <row r="138">
-      <c r="E138" s="37"/>
+      <c r="E138" s="36"/>
     </row>
     <row r="139">
-      <c r="E139" s="37"/>
+      <c r="E139" s="36"/>
     </row>
     <row r="140">
-      <c r="E140" s="37"/>
+      <c r="E140" s="36"/>
     </row>
     <row r="141">
-      <c r="E141" s="37"/>
+      <c r="E141" s="36"/>
     </row>
     <row r="142">
-      <c r="E142" s="37"/>
+      <c r="E142" s="36"/>
     </row>
     <row r="143">
-      <c r="E143" s="37"/>
+      <c r="E143" s="36"/>
     </row>
     <row r="144">
-      <c r="E144" s="37"/>
+      <c r="E144" s="36"/>
     </row>
     <row r="145">
-      <c r="E145" s="37"/>
+      <c r="E145" s="36"/>
     </row>
     <row r="146">
-      <c r="E146" s="37"/>
+      <c r="E146" s="36"/>
     </row>
     <row r="147">
-      <c r="E147" s="37"/>
+      <c r="E147" s="36"/>
     </row>
     <row r="148">
-      <c r="E148" s="37"/>
+      <c r="E148" s="36"/>
     </row>
     <row r="149">
-      <c r="E149" s="37"/>
+      <c r="E149" s="36"/>
     </row>
     <row r="150">
-      <c r="E150" s="37"/>
+      <c r="E150" s="36"/>
     </row>
     <row r="151">
-      <c r="E151" s="37"/>
+      <c r="E151" s="36"/>
     </row>
     <row r="152">
-      <c r="E152" s="37"/>
+      <c r="E152" s="36"/>
     </row>
     <row r="153">
-      <c r="E153" s="37"/>
+      <c r="E153" s="36"/>
     </row>
     <row r="154">
-      <c r="E154" s="37"/>
+      <c r="E154" s="36"/>
     </row>
     <row r="155">
-      <c r="E155" s="37"/>
+      <c r="E155" s="36"/>
     </row>
     <row r="156">
-      <c r="E156" s="37"/>
+      <c r="E156" s="36"/>
     </row>
     <row r="157">
-      <c r="E157" s="37"/>
+      <c r="E157" s="36"/>
     </row>
     <row r="158">
-      <c r="E158" s="37"/>
+      <c r="E158" s="36"/>
     </row>
     <row r="159">
-      <c r="E159" s="37"/>
+      <c r="E159" s="36"/>
     </row>
     <row r="160">
-      <c r="E160" s="37"/>
+      <c r="E160" s="36"/>
     </row>
     <row r="161">
-      <c r="E161" s="37"/>
+      <c r="E161" s="36"/>
     </row>
     <row r="162">
-      <c r="E162" s="37"/>
+      <c r="E162" s="36"/>
     </row>
     <row r="163">
-      <c r="E163" s="37"/>
+      <c r="E163" s="36"/>
     </row>
     <row r="164">
-      <c r="E164" s="37"/>
+      <c r="E164" s="36"/>
     </row>
     <row r="165">
-      <c r="E165" s="37"/>
+      <c r="E165" s="36"/>
     </row>
     <row r="166">
-      <c r="E166" s="37"/>
+      <c r="E166" s="36"/>
     </row>
     <row r="167">
-      <c r="E167" s="37"/>
+      <c r="E167" s="36"/>
     </row>
     <row r="168">
-      <c r="E168" s="37"/>
+      <c r="E168" s="36"/>
     </row>
     <row r="169">
-      <c r="E169" s="37"/>
+      <c r="E169" s="36"/>
     </row>
     <row r="170">
-      <c r="E170" s="37"/>
+      <c r="E170" s="36"/>
     </row>
     <row r="171">
-      <c r="E171" s="37"/>
+      <c r="E171" s="36"/>
     </row>
     <row r="172">
-      <c r="E172" s="37"/>
+      <c r="E172" s="36"/>
     </row>
     <row r="173">
-      <c r="E173" s="37"/>
+      <c r="E173" s="36"/>
     </row>
     <row r="174">
-      <c r="E174" s="37"/>
+      <c r="E174" s="36"/>
     </row>
     <row r="175">
-      <c r="E175" s="37"/>
+      <c r="E175" s="36"/>
     </row>
     <row r="176">
-      <c r="E176" s="37"/>
+      <c r="E176" s="36"/>
     </row>
     <row r="177">
-      <c r="E177" s="37"/>
+      <c r="E177" s="36"/>
     </row>
     <row r="178">
-      <c r="E178" s="37"/>
+      <c r="E178" s="36"/>
     </row>
     <row r="179">
-      <c r="E179" s="37"/>
+      <c r="E179" s="36"/>
     </row>
     <row r="180">
-      <c r="E180" s="37"/>
+      <c r="E180" s="36"/>
     </row>
     <row r="181">
-      <c r="E181" s="37"/>
+      <c r="E181" s="36"/>
     </row>
     <row r="182">
-      <c r="E182" s="37"/>
+      <c r="E182" s="36"/>
     </row>
     <row r="183">
-      <c r="E183" s="37"/>
+      <c r="E183" s="36"/>
     </row>
     <row r="184">
-      <c r="E184" s="37"/>
+      <c r="E184" s="36"/>
     </row>
     <row r="185">
-      <c r="E185" s="37"/>
+      <c r="E185" s="36"/>
     </row>
     <row r="186">
-      <c r="E186" s="37"/>
+      <c r="E186" s="36"/>
     </row>
     <row r="187">
-      <c r="E187" s="37"/>
+      <c r="E187" s="36"/>
     </row>
     <row r="188">
-      <c r="E188" s="37"/>
+      <c r="E188" s="36"/>
     </row>
     <row r="189">
-      <c r="E189" s="37"/>
+      <c r="E189" s="36"/>
     </row>
     <row r="190">
-      <c r="E190" s="37"/>
+      <c r="E190" s="36"/>
     </row>
     <row r="191">
-      <c r="E191" s="37"/>
+      <c r="E191" s="36"/>
     </row>
     <row r="192">
-      <c r="E192" s="37"/>
+      <c r="E192" s="36"/>
     </row>
     <row r="193">
-      <c r="E193" s="37"/>
+      <c r="E193" s="36"/>
     </row>
     <row r="194">
-      <c r="E194" s="37"/>
+      <c r="E194" s="36"/>
     </row>
     <row r="195">
-      <c r="E195" s="37"/>
+      <c r="E195" s="36"/>
     </row>
     <row r="196">
-      <c r="E196" s="37"/>
+      <c r="E196" s="36"/>
     </row>
     <row r="197">
-      <c r="E197" s="37"/>
+      <c r="E197" s="36"/>
     </row>
     <row r="198">
-      <c r="E198" s="37"/>
+      <c r="E198" s="36"/>
     </row>
     <row r="199">
-      <c r="E199" s="37"/>
+      <c r="E199" s="36"/>
     </row>
     <row r="200">
-      <c r="E200" s="37"/>
+      <c r="E200" s="36"/>
     </row>
     <row r="201">
-      <c r="E201" s="37"/>
+      <c r="E201" s="36"/>
     </row>
     <row r="202">
-      <c r="E202" s="37"/>
+      <c r="E202" s="36"/>
     </row>
     <row r="203">
-      <c r="E203" s="37"/>
+      <c r="E203" s="36"/>
     </row>
     <row r="204">
-      <c r="E204" s="37"/>
+      <c r="E204" s="36"/>
     </row>
     <row r="205">
-      <c r="E205" s="37"/>
+      <c r="E205" s="36"/>
     </row>
     <row r="206">
-      <c r="E206" s="37"/>
+      <c r="E206" s="36"/>
     </row>
     <row r="207">
-      <c r="E207" s="37"/>
+      <c r="E207" s="36"/>
     </row>
     <row r="208">
-      <c r="E208" s="37"/>
+      <c r="E208" s="36"/>
     </row>
     <row r="209">
-      <c r="E209" s="37"/>
+      <c r="E209" s="36"/>
     </row>
     <row r="210">
-      <c r="E210" s="37"/>
+      <c r="E210" s="36"/>
     </row>
     <row r="211">
-      <c r="E211" s="37"/>
+      <c r="E211" s="36"/>
     </row>
     <row r="212">
-      <c r="E212" s="37"/>
+      <c r="E212" s="36"/>
     </row>
     <row r="213">
-      <c r="E213" s="37"/>
+      <c r="E213" s="36"/>
     </row>
     <row r="214">
-      <c r="E214" s="37"/>
+      <c r="E214" s="36"/>
     </row>
     <row r="215">
-      <c r="E215" s="37"/>
+      <c r="E215" s="36"/>
     </row>
     <row r="216">
-      <c r="E216" s="37"/>
+      <c r="E216" s="36"/>
     </row>
     <row r="217">
-      <c r="E217" s="37"/>
+      <c r="E217" s="36"/>
     </row>
     <row r="218">
-      <c r="E218" s="37"/>
+      <c r="E218" s="36"/>
     </row>
     <row r="219">
-      <c r="E219" s="37"/>
+      <c r="E219" s="36"/>
     </row>
     <row r="220">
-      <c r="E220" s="37"/>
+      <c r="E220" s="36"/>
     </row>
     <row r="221">
-      <c r="E221" s="37"/>
+      <c r="E221" s="36"/>
     </row>
     <row r="222">
-      <c r="E222" s="37"/>
+      <c r="E222" s="36"/>
     </row>
     <row r="223">
-      <c r="E223" s="37"/>
+      <c r="E223" s="36"/>
     </row>
     <row r="224">
-      <c r="E224" s="37"/>
+      <c r="E224" s="36"/>
     </row>
     <row r="225">
-      <c r="E225" s="37"/>
+      <c r="E225" s="36"/>
     </row>
     <row r="226">
-      <c r="E226" s="37"/>
+      <c r="E226" s="36"/>
     </row>
     <row r="227">
-      <c r="E227" s="37"/>
+      <c r="E227" s="36"/>
     </row>
     <row r="228">
-      <c r="E228" s="37"/>
+      <c r="E228" s="36"/>
     </row>
     <row r="229">
-      <c r="E229" s="37"/>
+      <c r="E229" s="36"/>
     </row>
     <row r="230">
-      <c r="E230" s="37"/>
+      <c r="E230" s="36"/>
     </row>
     <row r="231">
-      <c r="E231" s="37"/>
+      <c r="E231" s="36"/>
     </row>
     <row r="232">
-      <c r="E232" s="37"/>
+      <c r="E232" s="36"/>
     </row>
     <row r="233">
-      <c r="E233" s="37"/>
+      <c r="E233" s="36"/>
     </row>
     <row r="234">
-      <c r="E234" s="37"/>
+      <c r="E234" s="36"/>
     </row>
     <row r="235">
-      <c r="E235" s="37"/>
+      <c r="E235" s="36"/>
     </row>
     <row r="236">
-      <c r="E236" s="37"/>
+      <c r="E236" s="36"/>
     </row>
     <row r="237">
-      <c r="E237" s="37"/>
+      <c r="E237" s="36"/>
     </row>
     <row r="238">
-      <c r="E238" s="37"/>
+      <c r="E238" s="36"/>
     </row>
     <row r="239">
-      <c r="E239" s="37"/>
+      <c r="E239" s="36"/>
     </row>
     <row r="240">
-      <c r="E240" s="37"/>
+      <c r="E240" s="36"/>
     </row>
     <row r="241">
-      <c r="E241" s="37"/>
+      <c r="E241" s="36"/>
     </row>
     <row r="242">
-      <c r="E242" s="37"/>
+      <c r="E242" s="36"/>
     </row>
     <row r="243">
-      <c r="E243" s="37"/>
+      <c r="E243" s="36"/>
     </row>
     <row r="244">
-      <c r="E244" s="37"/>
+      <c r="E244" s="36"/>
     </row>
     <row r="245">
-      <c r="E245" s="37"/>
+      <c r="E245" s="36"/>
     </row>
     <row r="246">
-      <c r="E246" s="37"/>
+      <c r="E246" s="36"/>
     </row>
     <row r="247">
-      <c r="E247" s="37"/>
+      <c r="E247" s="36"/>
     </row>
     <row r="248">
-      <c r="E248" s="37"/>
+      <c r="E248" s="36"/>
     </row>
     <row r="249">
-      <c r="E249" s="37"/>
+      <c r="E249" s="36"/>
     </row>
     <row r="250">
-      <c r="E250" s="37"/>
+      <c r="E250" s="36"/>
     </row>
     <row r="251">
-      <c r="E251" s="37"/>
+      <c r="E251" s="36"/>
     </row>
     <row r="252">
-      <c r="E252" s="37"/>
+      <c r="E252" s="36"/>
     </row>
     <row r="253">
-      <c r="E253" s="37"/>
+      <c r="E253" s="36"/>
     </row>
     <row r="254">
-      <c r="E254" s="37"/>
+      <c r="E254" s="36"/>
     </row>
     <row r="255">
-      <c r="E255" s="37"/>
+      <c r="E255" s="36"/>
     </row>
     <row r="256">
-      <c r="E256" s="37"/>
+      <c r="E256" s="36"/>
     </row>
     <row r="257">
-      <c r="E257" s="37"/>
+      <c r="E257" s="36"/>
     </row>
     <row r="258">
-      <c r="E258" s="37"/>
+      <c r="E258" s="36"/>
     </row>
     <row r="259">
-      <c r="E259" s="37"/>
+      <c r="E259" s="36"/>
     </row>
     <row r="260">
-      <c r="E260" s="37"/>
+      <c r="E260" s="36"/>
     </row>
     <row r="261">
-      <c r="E261" s="37"/>
+      <c r="E261" s="36"/>
     </row>
     <row r="262">
-      <c r="E262" s="37"/>
+      <c r="E262" s="36"/>
     </row>
     <row r="263">
-      <c r="E263" s="37"/>
+      <c r="E263" s="36"/>
     </row>
     <row r="264">
-      <c r="E264" s="37"/>
+      <c r="E264" s="36"/>
     </row>
     <row r="265">
-      <c r="E265" s="37"/>
+      <c r="E265" s="36"/>
     </row>
     <row r="266">
-      <c r="E266" s="37"/>
+      <c r="E266" s="36"/>
     </row>
     <row r="267">
-      <c r="E267" s="37"/>
+      <c r="E267" s="36"/>
     </row>
     <row r="268">
-      <c r="E268" s="37"/>
+      <c r="E268" s="36"/>
     </row>
     <row r="269">
-      <c r="E269" s="37"/>
+      <c r="E269" s="36"/>
     </row>
     <row r="270">
-      <c r="E270" s="37"/>
+      <c r="E270" s="36"/>
     </row>
     <row r="271">
-      <c r="E271" s="37"/>
+      <c r="E271" s="36"/>
     </row>
     <row r="272">
-      <c r="E272" s="37"/>
+      <c r="E272" s="36"/>
     </row>
     <row r="273">
-      <c r="E273" s="37"/>
+      <c r="E273" s="36"/>
     </row>
     <row r="274">
-      <c r="E274" s="37"/>
+      <c r="E274" s="36"/>
     </row>
     <row r="275">
-      <c r="E275" s="37"/>
+      <c r="E275" s="36"/>
     </row>
     <row r="276">
-      <c r="E276" s="37"/>
+      <c r="E276" s="36"/>
     </row>
     <row r="277">
-      <c r="E277" s="37"/>
+      <c r="E277" s="36"/>
     </row>
     <row r="278">
-      <c r="E278" s="37"/>
+      <c r="E278" s="36"/>
     </row>
     <row r="279">
-      <c r="E279" s="37"/>
+      <c r="E279" s="36"/>
     </row>
     <row r="280">
-      <c r="E280" s="37"/>
+      <c r="E280" s="36"/>
     </row>
     <row r="281">
-      <c r="E281" s="37"/>
+      <c r="E281" s="36"/>
     </row>
     <row r="282">
-      <c r="E282" s="37"/>
+      <c r="E282" s="36"/>
     </row>
     <row r="283">
-      <c r="E283" s="37"/>
+      <c r="E283" s="36"/>
     </row>
     <row r="284">
-      <c r="E284" s="37"/>
+      <c r="E284" s="36"/>
     </row>
     <row r="285">
-      <c r="E285" s="37"/>
+      <c r="E285" s="36"/>
     </row>
     <row r="286">
-      <c r="E286" s="37"/>
+      <c r="E286" s="36"/>
     </row>
     <row r="287">
-      <c r="E287" s="37"/>
+      <c r="E287" s="36"/>
     </row>
     <row r="288">
-      <c r="E288" s="37"/>
+      <c r="E288" s="36"/>
     </row>
     <row r="289">
-      <c r="E289" s="37"/>
+      <c r="E289" s="36"/>
     </row>
     <row r="290">
-      <c r="E290" s="37"/>
+      <c r="E290" s="36"/>
     </row>
     <row r="291">
-      <c r="E291" s="37"/>
+      <c r="E291" s="36"/>
     </row>
     <row r="292">
-      <c r="E292" s="37"/>
+      <c r="E292" s="36"/>
     </row>
     <row r="293">
-      <c r="E293" s="37"/>
+      <c r="E293" s="36"/>
     </row>
     <row r="294">
-      <c r="E294" s="37"/>
+      <c r="E294" s="36"/>
     </row>
     <row r="295">
-      <c r="E295" s="37"/>
+      <c r="E295" s="36"/>
     </row>
     <row r="296">
-      <c r="E296" s="37"/>
+      <c r="E296" s="36"/>
     </row>
     <row r="297">
-      <c r="E297" s="37"/>
+      <c r="E297" s="36"/>
     </row>
     <row r="298">
-      <c r="E298" s="37"/>
+      <c r="E298" s="36"/>
     </row>
     <row r="299">
-      <c r="E299" s="37"/>
+      <c r="E299" s="36"/>
     </row>
     <row r="300">
-      <c r="E300" s="37"/>
+      <c r="E300" s="36"/>
     </row>
     <row r="301">
-      <c r="E301" s="37"/>
+      <c r="E301" s="36"/>
     </row>
     <row r="302">
-      <c r="E302" s="37"/>
+      <c r="E302" s="36"/>
     </row>
     <row r="303">
-      <c r="E303" s="37"/>
+      <c r="E303" s="36"/>
     </row>
     <row r="304">
-      <c r="E304" s="37"/>
+      <c r="E304" s="36"/>
     </row>
     <row r="305">
-      <c r="E305" s="37"/>
+      <c r="E305" s="36"/>
     </row>
     <row r="306">
-      <c r="E306" s="37"/>
+      <c r="E306" s="36"/>
     </row>
     <row r="307">
-      <c r="E307" s="37"/>
+      <c r="E307" s="36"/>
     </row>
     <row r="308">
-      <c r="E308" s="37"/>
+      <c r="E308" s="36"/>
     </row>
     <row r="309">
-      <c r="E309" s="37"/>
+      <c r="E309" s="36"/>
     </row>
     <row r="310">
-      <c r="E310" s="37"/>
+      <c r="E310" s="36"/>
     </row>
     <row r="311">
-      <c r="E311" s="37"/>
+      <c r="E311" s="36"/>
     </row>
     <row r="312">
-      <c r="E312" s="37"/>
+      <c r="E312" s="36"/>
     </row>
     <row r="313">
-      <c r="E313" s="37"/>
+      <c r="E313" s="36"/>
     </row>
     <row r="314">
-      <c r="E314" s="37"/>
+      <c r="E314" s="36"/>
     </row>
     <row r="315">
-      <c r="E315" s="37"/>
+      <c r="E315" s="36"/>
     </row>
     <row r="316">
-      <c r="E316" s="37"/>
+      <c r="E316" s="36"/>
     </row>
     <row r="317">
-      <c r="E317" s="37"/>
+      <c r="E317" s="36"/>
     </row>
     <row r="318">
-      <c r="E318" s="37"/>
+      <c r="E318" s="36"/>
     </row>
     <row r="319">
-      <c r="E319" s="37"/>
+      <c r="E319" s="36"/>
     </row>
     <row r="320">
-      <c r="E320" s="37"/>
+      <c r="E320" s="36"/>
     </row>
     <row r="321">
-      <c r="E321" s="37"/>
+      <c r="E321" s="36"/>
     </row>
     <row r="322">
-      <c r="E322" s="37"/>
+      <c r="E322" s="36"/>
     </row>
     <row r="323">
-      <c r="E323" s="37"/>
+      <c r="E323" s="36"/>
     </row>
     <row r="324">
-      <c r="E324" s="37"/>
+      <c r="E324" s="36"/>
     </row>
     <row r="325">
-      <c r="E325" s="37"/>
+      <c r="E325" s="36"/>
     </row>
     <row r="326">
-      <c r="E326" s="37"/>
+      <c r="E326" s="36"/>
     </row>
     <row r="327">
-      <c r="E327" s="37"/>
+      <c r="E327" s="36"/>
     </row>
     <row r="328">
-      <c r="E328" s="37"/>
+      <c r="E328" s="36"/>
     </row>
     <row r="329">
-      <c r="E329" s="37"/>
+      <c r="E329" s="36"/>
     </row>
     <row r="330">
-      <c r="E330" s="37"/>
+      <c r="E330" s="36"/>
     </row>
     <row r="331">
-      <c r="E331" s="37"/>
+      <c r="E331" s="36"/>
     </row>
     <row r="332">
-      <c r="E332" s="37"/>
+      <c r="E332" s="36"/>
     </row>
     <row r="333">
-      <c r="E333" s="37"/>
+      <c r="E333" s="36"/>
     </row>
     <row r="334">
-      <c r="E334" s="37"/>
+      <c r="E334" s="36"/>
     </row>
     <row r="335">
-      <c r="E335" s="37"/>
+      <c r="E335" s="36"/>
     </row>
     <row r="336">
-      <c r="E336" s="37"/>
+      <c r="E336" s="36"/>
     </row>
     <row r="337">
-      <c r="E337" s="37"/>
+      <c r="E337" s="36"/>
     </row>
     <row r="338">
-      <c r="E338" s="37"/>
+      <c r="E338" s="36"/>
     </row>
     <row r="339">
-      <c r="E339" s="37"/>
+      <c r="E339" s="36"/>
     </row>
     <row r="340">
-      <c r="E340" s="37"/>
+      <c r="E340" s="36"/>
     </row>
     <row r="341">
-      <c r="E341" s="37"/>
+      <c r="E341" s="36"/>
     </row>
     <row r="342">
-      <c r="E342" s="37"/>
+      <c r="E342" s="36"/>
     </row>
     <row r="343">
-      <c r="E343" s="37"/>
+      <c r="E343" s="36"/>
     </row>
     <row r="344">
-      <c r="E344" s="37"/>
+      <c r="E344" s="36"/>
     </row>
     <row r="345">
-      <c r="E345" s="37"/>
+      <c r="E345" s="36"/>
     </row>
     <row r="346">
-      <c r="E346" s="37"/>
+      <c r="E346" s="36"/>
     </row>
     <row r="347">
-      <c r="E347" s="37"/>
+      <c r="E347" s="36"/>
     </row>
     <row r="348">
-      <c r="E348" s="37"/>
+      <c r="E348" s="36"/>
     </row>
     <row r="349">
-      <c r="E349" s="37"/>
+      <c r="E349" s="36"/>
     </row>
     <row r="350">
-      <c r="E350" s="37"/>
+      <c r="E350" s="36"/>
     </row>
     <row r="351">
-      <c r="E351" s="37"/>
+      <c r="E351" s="36"/>
     </row>
     <row r="352">
-      <c r="E352" s="37"/>
+      <c r="E352" s="36"/>
     </row>
     <row r="353">
-      <c r="E353" s="37"/>
+      <c r="E353" s="36"/>
     </row>
     <row r="354">
-      <c r="E354" s="37"/>
+      <c r="E354" s="36"/>
     </row>
     <row r="355">
-      <c r="E355" s="37"/>
+      <c r="E355" s="36"/>
     </row>
     <row r="356">
-      <c r="E356" s="37"/>
+      <c r="E356" s="36"/>
     </row>
     <row r="357">
-      <c r="E357" s="37"/>
+      <c r="E357" s="36"/>
     </row>
     <row r="358">
-      <c r="E358" s="37"/>
+      <c r="E358" s="36"/>
     </row>
     <row r="359">
-      <c r="E359" s="37"/>
+      <c r="E359" s="36"/>
     </row>
     <row r="360">
-      <c r="E360" s="37"/>
+      <c r="E360" s="36"/>
     </row>
     <row r="361">
-      <c r="E361" s="37"/>
+      <c r="E361" s="36"/>
     </row>
     <row r="362">
-      <c r="E362" s="37"/>
+      <c r="E362" s="36"/>
     </row>
     <row r="363">
-      <c r="E363" s="37"/>
+      <c r="E363" s="36"/>
     </row>
     <row r="364">
-      <c r="E364" s="37"/>
+      <c r="E364" s="36"/>
     </row>
     <row r="365">
-      <c r="E365" s="37"/>
+      <c r="E365" s="36"/>
     </row>
     <row r="366">
-      <c r="E366" s="37"/>
+      <c r="E366" s="36"/>
     </row>
     <row r="367">
-      <c r="E367" s="37"/>
+      <c r="E367" s="36"/>
     </row>
     <row r="368">
-      <c r="E368" s="37"/>
+      <c r="E368" s="36"/>
     </row>
     <row r="369">
-      <c r="E369" s="37"/>
+      <c r="E369" s="36"/>
     </row>
     <row r="370">
-      <c r="E370" s="37"/>
+      <c r="E370" s="36"/>
     </row>
     <row r="371">
-      <c r="E371" s="37"/>
+      <c r="E371" s="36"/>
     </row>
     <row r="372">
-      <c r="E372" s="37"/>
+      <c r="E372" s="36"/>
     </row>
     <row r="373">
-      <c r="E373" s="37"/>
+      <c r="E373" s="36"/>
     </row>
     <row r="374">
-      <c r="E374" s="37"/>
+      <c r="E374" s="36"/>
     </row>
     <row r="375">
-      <c r="E375" s="37"/>
+      <c r="E375" s="36"/>
     </row>
     <row r="376">
-      <c r="E376" s="37"/>
+      <c r="E376" s="36"/>
     </row>
     <row r="377">
-      <c r="E377" s="37"/>
+      <c r="E377" s="36"/>
     </row>
     <row r="378">
-      <c r="E378" s="37"/>
+      <c r="E378" s="36"/>
     </row>
     <row r="379">
-      <c r="E379" s="37"/>
+      <c r="E379" s="36"/>
     </row>
     <row r="380">
-      <c r="E380" s="37"/>
+      <c r="E380" s="36"/>
     </row>
     <row r="381">
-      <c r="E381" s="37"/>
+      <c r="E381" s="36"/>
     </row>
     <row r="382">
-      <c r="E382" s="37"/>
+      <c r="E382" s="36"/>
     </row>
     <row r="383">
-      <c r="E383" s="37"/>
+      <c r="E383" s="36"/>
     </row>
     <row r="384">
-      <c r="E384" s="37"/>
+      <c r="E384" s="36"/>
     </row>
     <row r="385">
-      <c r="E385" s="37"/>
+      <c r="E385" s="36"/>
     </row>
     <row r="386">
-      <c r="E386" s="37"/>
+      <c r="E386" s="36"/>
     </row>
     <row r="387">
-      <c r="E387" s="37"/>
+      <c r="E387" s="36"/>
     </row>
     <row r="388">
-      <c r="E388" s="37"/>
+      <c r="E388" s="36"/>
     </row>
     <row r="389">
-      <c r="E389" s="37"/>
+      <c r="E389" s="36"/>
     </row>
     <row r="390">
-      <c r="E390" s="37"/>
+      <c r="E390" s="36"/>
     </row>
     <row r="391">
-      <c r="E391" s="37"/>
+      <c r="E391" s="36"/>
     </row>
     <row r="392">
-      <c r="E392" s="37"/>
+      <c r="E392" s="36"/>
     </row>
     <row r="393">
-      <c r="E393" s="37"/>
+      <c r="E393" s="36"/>
     </row>
     <row r="394">
-      <c r="E394" s="37"/>
+      <c r="E394" s="36"/>
     </row>
     <row r="395">
-      <c r="E395" s="37"/>
+      <c r="E395" s="36"/>
     </row>
     <row r="396">
-      <c r="E396" s="37"/>
+      <c r="E396" s="36"/>
     </row>
     <row r="397">
-      <c r="E397" s="37"/>
+      <c r="E397" s="36"/>
     </row>
     <row r="398">
-      <c r="E398" s="37"/>
+      <c r="E398" s="36"/>
     </row>
     <row r="399">
-      <c r="E399" s="37"/>
+      <c r="E399" s="36"/>
     </row>
     <row r="400">
-      <c r="E400" s="37"/>
+      <c r="E400" s="36"/>
     </row>
     <row r="401">
-      <c r="E401" s="37"/>
+      <c r="E401" s="36"/>
     </row>
     <row r="402">
-      <c r="E402" s="37"/>
+      <c r="E402" s="36"/>
     </row>
     <row r="403">
-      <c r="E403" s="37"/>
+      <c r="E403" s="36"/>
     </row>
     <row r="404">
-      <c r="E404" s="37"/>
+      <c r="E404" s="36"/>
     </row>
     <row r="405">
-      <c r="E405" s="37"/>
+      <c r="E405" s="36"/>
     </row>
     <row r="406">
-      <c r="E406" s="37"/>
+      <c r="E406" s="36"/>
     </row>
     <row r="407">
-      <c r="E407" s="37"/>
+      <c r="E407" s="36"/>
     </row>
     <row r="408">
-      <c r="E408" s="37"/>
+      <c r="E408" s="36"/>
     </row>
     <row r="409">
-      <c r="E409" s="37"/>
+      <c r="E409" s="36"/>
     </row>
     <row r="410">
-      <c r="E410" s="37"/>
+      <c r="E410" s="36"/>
     </row>
     <row r="411">
-      <c r="E411" s="37"/>
+      <c r="E411" s="36"/>
     </row>
     <row r="412">
-      <c r="E412" s="37"/>
+      <c r="E412" s="36"/>
     </row>
     <row r="413">
-      <c r="E413" s="37"/>
+      <c r="E413" s="36"/>
     </row>
     <row r="414">
-      <c r="E414" s="37"/>
+      <c r="E414" s="36"/>
     </row>
     <row r="415">
-      <c r="E415" s="37"/>
+      <c r="E415" s="36"/>
     </row>
     <row r="416">
-      <c r="E416" s="37"/>
+      <c r="E416" s="36"/>
     </row>
     <row r="417">
-      <c r="E417" s="37"/>
+      <c r="E417" s="36"/>
     </row>
     <row r="418">
-      <c r="E418" s="37"/>
+      <c r="E418" s="36"/>
     </row>
     <row r="419">
-      <c r="E419" s="37"/>
+      <c r="E419" s="36"/>
     </row>
     <row r="420">
-      <c r="E420" s="37"/>
+      <c r="E420" s="36"/>
     </row>
     <row r="421">
-      <c r="E421" s="37"/>
+      <c r="E421" s="36"/>
     </row>
     <row r="422">
-      <c r="E422" s="37"/>
+      <c r="E422" s="36"/>
     </row>
     <row r="423">
-      <c r="E423" s="37"/>
+      <c r="E423" s="36"/>
     </row>
     <row r="424">
-      <c r="E424" s="37"/>
+      <c r="E424" s="36"/>
     </row>
     <row r="425">
-      <c r="E425" s="37"/>
+      <c r="E425" s="36"/>
     </row>
     <row r="426">
-      <c r="E426" s="37"/>
+      <c r="E426" s="36"/>
     </row>
     <row r="427">
-      <c r="E427" s="37"/>
+      <c r="E427" s="36"/>
     </row>
     <row r="428">
-      <c r="E428" s="37"/>
+      <c r="E428" s="36"/>
     </row>
     <row r="429">
-      <c r="E429" s="37"/>
+      <c r="E429" s="36"/>
     </row>
     <row r="430">
-      <c r="E430" s="37"/>
+      <c r="E430" s="36"/>
     </row>
     <row r="431">
-      <c r="E431" s="37"/>
+      <c r="E431" s="36"/>
     </row>
     <row r="432">
-      <c r="E432" s="37"/>
+      <c r="E432" s="36"/>
     </row>
     <row r="433">
-      <c r="E433" s="37"/>
+      <c r="E433" s="36"/>
     </row>
     <row r="434">
-      <c r="E434" s="37"/>
+      <c r="E434" s="36"/>
     </row>
     <row r="435">
-      <c r="E435" s="37"/>
+      <c r="E435" s="36"/>
     </row>
     <row r="436">
-      <c r="E436" s="37"/>
+      <c r="E436" s="36"/>
     </row>
     <row r="437">
-      <c r="E437" s="37"/>
+      <c r="E437" s="36"/>
     </row>
     <row r="438">
-      <c r="E438" s="37"/>
+      <c r="E438" s="36"/>
     </row>
     <row r="439">
-      <c r="E439" s="37"/>
+      <c r="E439" s="36"/>
     </row>
     <row r="440">
-      <c r="E440" s="37"/>
+      <c r="E440" s="36"/>
     </row>
     <row r="441">
-      <c r="E441" s="37"/>
+      <c r="E441" s="36"/>
     </row>
     <row r="442">
-      <c r="E442" s="37"/>
+      <c r="E442" s="36"/>
     </row>
     <row r="443">
-      <c r="E443" s="37"/>
+      <c r="E443" s="36"/>
     </row>
     <row r="444">
-      <c r="E444" s="37"/>
+      <c r="E444" s="36"/>
     </row>
     <row r="445">
-      <c r="E445" s="37"/>
+      <c r="E445" s="36"/>
     </row>
     <row r="446">
-      <c r="E446" s="37"/>
+      <c r="E446" s="36"/>
     </row>
     <row r="447">
-      <c r="E447" s="37"/>
+      <c r="E447" s="36"/>
     </row>
     <row r="448">
-      <c r="E448" s="37"/>
+      <c r="E448" s="36"/>
     </row>
     <row r="449">
-      <c r="E449" s="37"/>
+      <c r="E449" s="36"/>
     </row>
     <row r="450">
-      <c r="E450" s="37"/>
+      <c r="E450" s="36"/>
     </row>
     <row r="451">
-      <c r="E451" s="37"/>
+      <c r="E451" s="36"/>
     </row>
     <row r="452">
-      <c r="E452" s="37"/>
+      <c r="E452" s="36"/>
     </row>
     <row r="453">
-      <c r="E453" s="37"/>
+      <c r="E453" s="36"/>
     </row>
     <row r="454">
-      <c r="E454" s="37"/>
+      <c r="E454" s="36"/>
     </row>
     <row r="455">
-      <c r="E455" s="37"/>
+      <c r="E455" s="36"/>
     </row>
     <row r="456">
-      <c r="E456" s="37"/>
+      <c r="E456" s="36"/>
     </row>
     <row r="457">
-      <c r="E457" s="37"/>
+      <c r="E457" s="36"/>
     </row>
     <row r="458">
-      <c r="E458" s="37"/>
+      <c r="E458" s="36"/>
     </row>
     <row r="459">
-      <c r="E459" s="37"/>
+      <c r="E459" s="36"/>
     </row>
     <row r="460">
-      <c r="E460" s="37"/>
+      <c r="E460" s="36"/>
     </row>
     <row r="461">
-      <c r="E461" s="37"/>
+      <c r="E461" s="36"/>
     </row>
     <row r="462">
-      <c r="E462" s="37"/>
+      <c r="E462" s="36"/>
     </row>
     <row r="463">
-      <c r="E463" s="37"/>
+      <c r="E463" s="36"/>
     </row>
     <row r="464">
-      <c r="E464" s="37"/>
+      <c r="E464" s="36"/>
     </row>
     <row r="465">
-      <c r="E465" s="37"/>
+      <c r="E465" s="36"/>
     </row>
     <row r="466">
-      <c r="E466" s="37"/>
+      <c r="E466" s="36"/>
     </row>
     <row r="467">
-      <c r="E467" s="37"/>
+      <c r="E467" s="36"/>
     </row>
     <row r="468">
-      <c r="E468" s="37"/>
+      <c r="E468" s="36"/>
     </row>
     <row r="469">
-      <c r="E469" s="37"/>
+      <c r="E469" s="36"/>
     </row>
     <row r="470">
-      <c r="E470" s="37"/>
+      <c r="E470" s="36"/>
     </row>
     <row r="471">
-      <c r="E471" s="37"/>
+      <c r="E471" s="36"/>
     </row>
     <row r="472">
-      <c r="E472" s="37"/>
+      <c r="E472" s="36"/>
     </row>
     <row r="473">
-      <c r="E473" s="37"/>
+      <c r="E473" s="36"/>
     </row>
     <row r="474">
-      <c r="E474" s="37"/>
+      <c r="E474" s="36"/>
     </row>
     <row r="475">
-      <c r="E475" s="37"/>
+      <c r="E475" s="36"/>
     </row>
     <row r="476">
-      <c r="E476" s="37"/>
+      <c r="E476" s="36"/>
     </row>
     <row r="477">
-      <c r="E477" s="37"/>
+      <c r="E477" s="36"/>
     </row>
     <row r="478">
-      <c r="E478" s="37"/>
+      <c r="E478" s="36"/>
     </row>
     <row r="479">
-      <c r="E479" s="37"/>
+      <c r="E479" s="36"/>
     </row>
     <row r="480">
-      <c r="E480" s="37"/>
+      <c r="E480" s="36"/>
     </row>
     <row r="481">
-      <c r="E481" s="37"/>
+      <c r="E481" s="36"/>
     </row>
     <row r="482">
-      <c r="E482" s="37"/>
+      <c r="E482" s="36"/>
     </row>
     <row r="483">
-      <c r="E483" s="37"/>
+      <c r="E483" s="36"/>
     </row>
     <row r="484">
-      <c r="E484" s="37"/>
+      <c r="E484" s="36"/>
     </row>
     <row r="485">
-      <c r="E485" s="37"/>
+      <c r="E485" s="36"/>
     </row>
     <row r="486">
-      <c r="E486" s="37"/>
+      <c r="E486" s="36"/>
     </row>
     <row r="487">
-      <c r="E487" s="37"/>
+      <c r="E487" s="36"/>
     </row>
     <row r="488">
-      <c r="E488" s="37"/>
+      <c r="E488" s="36"/>
     </row>
     <row r="489">
-      <c r="E489" s="37"/>
+      <c r="E489" s="36"/>
     </row>
     <row r="490">
-      <c r="E490" s="37"/>
+      <c r="E490" s="36"/>
     </row>
     <row r="491">
-      <c r="E491" s="37"/>
+      <c r="E491" s="36"/>
     </row>
     <row r="492">
-      <c r="E492" s="37"/>
+      <c r="E492" s="36"/>
     </row>
     <row r="493">
-      <c r="E493" s="37"/>
+      <c r="E493" s="36"/>
     </row>
     <row r="494">
-      <c r="E494" s="37"/>
+      <c r="E494" s="36"/>
     </row>
     <row r="495">
-      <c r="E495" s="37"/>
+      <c r="E495" s="36"/>
     </row>
     <row r="496">
-      <c r="E496" s="37"/>
+      <c r="E496" s="36"/>
     </row>
     <row r="497">
-      <c r="E497" s="37"/>
+      <c r="E497" s="36"/>
     </row>
     <row r="498">
-      <c r="E498" s="37"/>
+      <c r="E498" s="36"/>
     </row>
     <row r="499">
-      <c r="E499" s="37"/>
+      <c r="E499" s="36"/>
     </row>
     <row r="500">
-      <c r="E500" s="37"/>
+      <c r="E500" s="36"/>
     </row>
     <row r="501">
-      <c r="E501" s="37"/>
+      <c r="E501" s="36"/>
     </row>
     <row r="502">
-      <c r="E502" s="37"/>
+      <c r="E502" s="36"/>
     </row>
     <row r="503">
-      <c r="E503" s="37"/>
+      <c r="E503" s="36"/>
     </row>
     <row r="504">
-      <c r="E504" s="37"/>
+      <c r="E504" s="36"/>
     </row>
     <row r="505">
-      <c r="E505" s="37"/>
+      <c r="E505" s="36"/>
     </row>
     <row r="506">
-      <c r="E506" s="37"/>
+      <c r="E506" s="36"/>
     </row>
     <row r="507">
-      <c r="E507" s="37"/>
+      <c r="E507" s="36"/>
     </row>
     <row r="508">
-      <c r="E508" s="37"/>
+      <c r="E508" s="36"/>
     </row>
     <row r="509">
-      <c r="E509" s="37"/>
+      <c r="E509" s="36"/>
     </row>
     <row r="510">
-      <c r="E510" s="37"/>
+      <c r="E510" s="36"/>
     </row>
     <row r="511">
-      <c r="E511" s="37"/>
+      <c r="E511" s="36"/>
     </row>
     <row r="512">
-      <c r="E512" s="37"/>
+      <c r="E512" s="36"/>
     </row>
     <row r="513">
-      <c r="E513" s="37"/>
+      <c r="E513" s="36"/>
     </row>
     <row r="514">
-      <c r="E514" s="37"/>
+      <c r="E514" s="36"/>
     </row>
     <row r="515">
-      <c r="E515" s="37"/>
+      <c r="E515" s="36"/>
     </row>
     <row r="516">
-      <c r="E516" s="37"/>
+      <c r="E516" s="36"/>
     </row>
     <row r="517">
-      <c r="E517" s="37"/>
+      <c r="E517" s="36"/>
     </row>
     <row r="518">
-      <c r="E518" s="37"/>
+      <c r="E518" s="36"/>
     </row>
     <row r="519">
-      <c r="E519" s="37"/>
+      <c r="E519" s="36"/>
     </row>
     <row r="520">
-      <c r="E520" s="37"/>
+      <c r="E520" s="36"/>
     </row>
     <row r="521">
-      <c r="E521" s="37"/>
+      <c r="E521" s="36"/>
     </row>
     <row r="522">
-      <c r="E522" s="37"/>
+      <c r="E522" s="36"/>
     </row>
     <row r="523">
-      <c r="E523" s="37"/>
+      <c r="E523" s="36"/>
     </row>
     <row r="524">
-      <c r="E524" s="37"/>
+      <c r="E524" s="36"/>
     </row>
     <row r="525">
-      <c r="E525" s="37"/>
+      <c r="E525" s="36"/>
     </row>
     <row r="526">
-      <c r="E526" s="37"/>
+      <c r="E526" s="36"/>
     </row>
     <row r="527">
-      <c r="E527" s="37"/>
+      <c r="E527" s="36"/>
     </row>
     <row r="528">
-      <c r="E528" s="37"/>
+      <c r="E528" s="36"/>
     </row>
     <row r="529">
-      <c r="E529" s="37"/>
+      <c r="E529" s="36"/>
     </row>
     <row r="530">
-      <c r="E530" s="37"/>
+      <c r="E530" s="36"/>
     </row>
     <row r="531">
-      <c r="E531" s="37"/>
+      <c r="E531" s="36"/>
     </row>
     <row r="532">
-      <c r="E532" s="37"/>
+      <c r="E532" s="36"/>
     </row>
     <row r="533">
-      <c r="E533" s="37"/>
+      <c r="E533" s="36"/>
     </row>
     <row r="534">
-      <c r="E534" s="37"/>
+      <c r="E534" s="36"/>
     </row>
     <row r="535">
-      <c r="E535" s="37"/>
+      <c r="E535" s="36"/>
     </row>
     <row r="536">
-      <c r="E536" s="37"/>
+      <c r="E536" s="36"/>
     </row>
     <row r="537">
-      <c r="E537" s="37"/>
+      <c r="E537" s="36"/>
     </row>
     <row r="538">
-      <c r="E538" s="37"/>
+      <c r="E538" s="36"/>
     </row>
     <row r="539">
-      <c r="E539" s="37"/>
+      <c r="E539" s="36"/>
     </row>
     <row r="540">
-      <c r="E540" s="37"/>
+      <c r="E540" s="36"/>
     </row>
     <row r="541">
-      <c r="E541" s="37"/>
+      <c r="E541" s="36"/>
     </row>
     <row r="542">
-      <c r="E542" s="37"/>
+      <c r="E542" s="36"/>
     </row>
     <row r="543">
-      <c r="E543" s="37"/>
+      <c r="E543" s="36"/>
     </row>
     <row r="544">
-      <c r="E544" s="37"/>
+      <c r="E544" s="36"/>
     </row>
     <row r="545">
-      <c r="E545" s="37"/>
+      <c r="E545" s="36"/>
     </row>
     <row r="546">
-      <c r="E546" s="37"/>
+      <c r="E546" s="36"/>
     </row>
     <row r="547">
-      <c r="E547" s="37"/>
+      <c r="E547" s="36"/>
     </row>
     <row r="548">
-      <c r="E548" s="37"/>
+      <c r="E548" s="36"/>
     </row>
     <row r="549">
-      <c r="E549" s="37"/>
+      <c r="E549" s="36"/>
     </row>
     <row r="550">
-      <c r="E550" s="37"/>
+      <c r="E550" s="36"/>
     </row>
     <row r="551">
-      <c r="E551" s="37"/>
+      <c r="E551" s="36"/>
     </row>
     <row r="552">
-      <c r="E552" s="37"/>
+      <c r="E552" s="36"/>
     </row>
     <row r="553">
-      <c r="E553" s="37"/>
+      <c r="E553" s="36"/>
     </row>
     <row r="554">
-      <c r="E554" s="37"/>
+      <c r="E554" s="36"/>
     </row>
     <row r="555">
-      <c r="E555" s="37"/>
+      <c r="E555" s="36"/>
     </row>
     <row r="556">
-      <c r="E556" s="37"/>
+      <c r="E556" s="36"/>
     </row>
     <row r="557">
-      <c r="E557" s="37"/>
+      <c r="E557" s="36"/>
     </row>
     <row r="558">
-      <c r="E558" s="37"/>
+      <c r="E558" s="36"/>
     </row>
     <row r="559">
-      <c r="E559" s="37"/>
+      <c r="E559" s="36"/>
     </row>
     <row r="560">
-      <c r="E560" s="37"/>
+      <c r="E560" s="36"/>
     </row>
     <row r="561">
-      <c r="E561" s="37"/>
+      <c r="E561" s="36"/>
     </row>
     <row r="562">
-      <c r="E562" s="37"/>
+      <c r="E562" s="36"/>
     </row>
     <row r="563">
-      <c r="E563" s="37"/>
+      <c r="E563" s="36"/>
     </row>
     <row r="564">
-      <c r="E564" s="37"/>
+      <c r="E564" s="36"/>
     </row>
     <row r="565">
-      <c r="E565" s="37"/>
+      <c r="E565" s="36"/>
     </row>
     <row r="566">
-      <c r="E566" s="37"/>
+      <c r="E566" s="36"/>
     </row>
     <row r="567">
-      <c r="E567" s="37"/>
+      <c r="E567" s="36"/>
     </row>
     <row r="568">
-      <c r="E568" s="37"/>
+      <c r="E568" s="36"/>
     </row>
     <row r="569">
-      <c r="E569" s="37"/>
+      <c r="E569" s="36"/>
     </row>
     <row r="570">
-      <c r="E570" s="37"/>
+      <c r="E570" s="36"/>
     </row>
     <row r="571">
-      <c r="E571" s="37"/>
+      <c r="E571" s="36"/>
     </row>
     <row r="572">
-      <c r="E572" s="37"/>
+      <c r="E572" s="36"/>
     </row>
     <row r="573">
-      <c r="E573" s="37"/>
+      <c r="E573" s="36"/>
     </row>
     <row r="574">
-      <c r="E574" s="37"/>
+      <c r="E574" s="36"/>
     </row>
     <row r="575">
-      <c r="E575" s="37"/>
+      <c r="E575" s="36"/>
     </row>
     <row r="576">
-      <c r="E576" s="37"/>
+      <c r="E576" s="36"/>
     </row>
     <row r="577">
-      <c r="E577" s="37"/>
+      <c r="E577" s="36"/>
     </row>
     <row r="578">
-      <c r="E578" s="37"/>
+      <c r="E578" s="36"/>
     </row>
     <row r="579">
-      <c r="E579" s="37"/>
+      <c r="E579" s="36"/>
     </row>
     <row r="580">
-      <c r="E580" s="37"/>
+      <c r="E580" s="36"/>
     </row>
     <row r="581">
-      <c r="E581" s="37"/>
+      <c r="E581" s="36"/>
     </row>
     <row r="582">
-      <c r="E582" s="37"/>
+      <c r="E582" s="36"/>
     </row>
     <row r="583">
-      <c r="E583" s="37"/>
+      <c r="E583" s="36"/>
     </row>
     <row r="584">
-      <c r="E584" s="37"/>
+      <c r="E584" s="36"/>
     </row>
     <row r="585">
-      <c r="E585" s="37"/>
+      <c r="E585" s="36"/>
     </row>
     <row r="586">
-      <c r="E586" s="37"/>
+      <c r="E586" s="36"/>
     </row>
     <row r="587">
-      <c r="E587" s="37"/>
+      <c r="E587" s="36"/>
     </row>
     <row r="588">
-      <c r="E588" s="37"/>
+      <c r="E588" s="36"/>
     </row>
     <row r="589">
-      <c r="E589" s="37"/>
+      <c r="E589" s="36"/>
     </row>
     <row r="590">
-      <c r="E590" s="37"/>
+      <c r="E590" s="36"/>
     </row>
     <row r="591">
-      <c r="E591" s="37"/>
+      <c r="E591" s="36"/>
     </row>
     <row r="592">
-      <c r="E592" s="37"/>
+      <c r="E592" s="36"/>
     </row>
     <row r="593">
-      <c r="E593" s="37"/>
+      <c r="E593" s="36"/>
     </row>
     <row r="594">
-      <c r="E594" s="37"/>
+      <c r="E594" s="36"/>
     </row>
     <row r="595">
-      <c r="E595" s="37"/>
+      <c r="E595" s="36"/>
     </row>
     <row r="596">
-      <c r="E596" s="37"/>
+      <c r="E596" s="36"/>
     </row>
     <row r="597">
-      <c r="E597" s="37"/>
+      <c r="E597" s="36"/>
     </row>
     <row r="598">
-      <c r="E598" s="37"/>
+      <c r="E598" s="36"/>
     </row>
     <row r="599">
-      <c r="E599" s="37"/>
+      <c r="E599" s="36"/>
     </row>
     <row r="600">
-      <c r="E600" s="37"/>
+      <c r="E600" s="36"/>
     </row>
     <row r="601">
-      <c r="E601" s="37"/>
+      <c r="E601" s="36"/>
     </row>
     <row r="602">
-      <c r="E602" s="37"/>
+      <c r="E602" s="36"/>
     </row>
     <row r="603">
-      <c r="E603" s="37"/>
+      <c r="E603" s="36"/>
     </row>
     <row r="604">
-      <c r="E604" s="37"/>
+      <c r="E604" s="36"/>
     </row>
     <row r="605">
-      <c r="E605" s="37"/>
+      <c r="E605" s="36"/>
     </row>
     <row r="606">
-      <c r="E606" s="37"/>
+      <c r="E606" s="36"/>
     </row>
     <row r="607">
-      <c r="E607" s="37"/>
+      <c r="E607" s="36"/>
     </row>
     <row r="608">
-      <c r="E608" s="37"/>
+      <c r="E608" s="36"/>
     </row>
     <row r="609">
-      <c r="E609" s="37"/>
+      <c r="E609" s="36"/>
     </row>
     <row r="610">
-      <c r="E610" s="37"/>
+      <c r="E610" s="36"/>
     </row>
     <row r="611">
-      <c r="E611" s="37"/>
+      <c r="E611" s="36"/>
     </row>
     <row r="612">
-      <c r="E612" s="37"/>
+      <c r="E612" s="36"/>
     </row>
     <row r="613">
-      <c r="E613" s="37"/>
+      <c r="E613" s="36"/>
     </row>
     <row r="614">
-      <c r="E614" s="37"/>
+      <c r="E614" s="36"/>
     </row>
     <row r="615">
-      <c r="E615" s="37"/>
+      <c r="E615" s="36"/>
     </row>
     <row r="616">
-      <c r="E616" s="37"/>
+      <c r="E616" s="36"/>
     </row>
     <row r="617">
-      <c r="E617" s="37"/>
+      <c r="E617" s="36"/>
     </row>
     <row r="618">
-      <c r="E618" s="37"/>
+      <c r="E618" s="36"/>
     </row>
     <row r="619">
-      <c r="E619" s="37"/>
+      <c r="E619" s="36"/>
     </row>
     <row r="620">
-      <c r="E620" s="37"/>
+      <c r="E620" s="36"/>
     </row>
     <row r="621">
-      <c r="E621" s="37"/>
+      <c r="E621" s="36"/>
     </row>
     <row r="622">
-      <c r="E622" s="37"/>
+      <c r="E622" s="36"/>
     </row>
     <row r="623">
-      <c r="E623" s="37"/>
+      <c r="E623" s="36"/>
     </row>
     <row r="624">
-      <c r="E624" s="37"/>
+      <c r="E624" s="36"/>
     </row>
     <row r="625">
-      <c r="E625" s="37"/>
+      <c r="E625" s="36"/>
     </row>
     <row r="626">
-      <c r="E626" s="37"/>
+      <c r="E626" s="36"/>
     </row>
     <row r="627">
-      <c r="E627" s="37"/>
+      <c r="E627" s="36"/>
     </row>
     <row r="628">
-      <c r="E628" s="37"/>
+      <c r="E628" s="36"/>
     </row>
     <row r="629">
-      <c r="E629" s="37"/>
+      <c r="E629" s="36"/>
     </row>
     <row r="630">
-      <c r="E630" s="37"/>
+      <c r="E630" s="36"/>
     </row>
     <row r="631">
-      <c r="E631" s="37"/>
+      <c r="E631" s="36"/>
     </row>
     <row r="632">
-      <c r="E632" s="37"/>
+      <c r="E632" s="36"/>
     </row>
     <row r="633">
-      <c r="E633" s="37"/>
+      <c r="E633" s="36"/>
     </row>
     <row r="634">
-      <c r="E634" s="37"/>
+      <c r="E634" s="36"/>
     </row>
     <row r="635">
-      <c r="E635" s="37"/>
+      <c r="E635" s="36"/>
     </row>
     <row r="636">
-      <c r="E636" s="37"/>
+      <c r="E636" s="36"/>
     </row>
     <row r="637">
-      <c r="E637" s="37"/>
+      <c r="E637" s="36"/>
     </row>
     <row r="638">
-      <c r="E638" s="37"/>
+      <c r="E638" s="36"/>
     </row>
     <row r="639">
-      <c r="E639" s="37"/>
+      <c r="E639" s="36"/>
     </row>
     <row r="640">
-      <c r="E640" s="37"/>
+      <c r="E640" s="36"/>
     </row>
     <row r="641">
-      <c r="E641" s="37"/>
+      <c r="E641" s="36"/>
     </row>
     <row r="642">
-      <c r="E642" s="37"/>
+      <c r="E642" s="36"/>
     </row>
     <row r="643">
-      <c r="E643" s="37"/>
+      <c r="E643" s="36"/>
     </row>
     <row r="644">
-      <c r="E644" s="37"/>
+      <c r="E644" s="36"/>
     </row>
     <row r="645">
-      <c r="E645" s="37"/>
+      <c r="E645" s="36"/>
     </row>
     <row r="646">
-      <c r="E646" s="37"/>
+      <c r="E646" s="36"/>
     </row>
     <row r="647">
-      <c r="E647" s="37"/>
+      <c r="E647" s="36"/>
     </row>
     <row r="648">
-      <c r="E648" s="37"/>
+      <c r="E648" s="36"/>
     </row>
     <row r="649">
-      <c r="E649" s="37"/>
+      <c r="E649" s="36"/>
     </row>
     <row r="650">
-      <c r="E650" s="37"/>
+      <c r="E650" s="36"/>
     </row>
     <row r="651">
-      <c r="E651" s="37"/>
+      <c r="E651" s="36"/>
     </row>
     <row r="652">
-      <c r="E652" s="37"/>
+      <c r="E652" s="36"/>
     </row>
     <row r="653">
-      <c r="E653" s="37"/>
+      <c r="E653" s="36"/>
     </row>
     <row r="654">
-      <c r="E654" s="37"/>
+      <c r="E654" s="36"/>
     </row>
     <row r="655">
-      <c r="E655" s="37"/>
+      <c r="E655" s="36"/>
     </row>
     <row r="656">
-      <c r="E656" s="37"/>
+      <c r="E656" s="36"/>
     </row>
     <row r="657">
-      <c r="E657" s="37"/>
+      <c r="E657" s="36"/>
     </row>
     <row r="658">
-      <c r="E658" s="37"/>
+      <c r="E658" s="36"/>
     </row>
     <row r="659">
-      <c r="E659" s="37"/>
+      <c r="E659" s="36"/>
     </row>
     <row r="660">
-      <c r="E660" s="37"/>
+      <c r="E660" s="36"/>
     </row>
     <row r="661">
-      <c r="E661" s="37"/>
+      <c r="E661" s="36"/>
     </row>
     <row r="662">
-      <c r="E662" s="37"/>
+      <c r="E662" s="36"/>
     </row>
     <row r="663">
-      <c r="E663" s="37"/>
+      <c r="E663" s="36"/>
     </row>
     <row r="664">
-      <c r="E664" s="37"/>
+      <c r="E664" s="36"/>
     </row>
     <row r="665">
-      <c r="E665" s="37"/>
+      <c r="E665" s="36"/>
     </row>
     <row r="666">
-      <c r="E666" s="37"/>
+      <c r="E666" s="36"/>
     </row>
     <row r="667">
-      <c r="E667" s="37"/>
+      <c r="E667" s="36"/>
     </row>
     <row r="668">
-      <c r="E668" s="37"/>
+      <c r="E668" s="36"/>
     </row>
     <row r="669">
-      <c r="E669" s="37"/>
+      <c r="E669" s="36"/>
     </row>
     <row r="670">
-      <c r="E670" s="37"/>
+      <c r="E670" s="36"/>
     </row>
     <row r="671">
-      <c r="E671" s="37"/>
+      <c r="E671" s="36"/>
     </row>
     <row r="672">
-      <c r="E672" s="37"/>
+      <c r="E672" s="36"/>
     </row>
     <row r="673">
-      <c r="E673" s="37"/>
+      <c r="E673" s="36"/>
     </row>
     <row r="674">
-      <c r="E674" s="37"/>
+      <c r="E674" s="36"/>
     </row>
     <row r="675">
-      <c r="E675" s="37"/>
+      <c r="E675" s="36"/>
     </row>
     <row r="676">
-      <c r="E676" s="37"/>
+      <c r="E676" s="36"/>
     </row>
     <row r="677">
-      <c r="E677" s="37"/>
+      <c r="E677" s="36"/>
     </row>
     <row r="678">
-      <c r="E678" s="37"/>
+      <c r="E678" s="36"/>
     </row>
     <row r="679">
-      <c r="E679" s="37"/>
+      <c r="E679" s="36"/>
     </row>
     <row r="680">
-      <c r="E680" s="37"/>
+      <c r="E680" s="36"/>
     </row>
     <row r="681">
-      <c r="E681" s="37"/>
+      <c r="E681" s="36"/>
     </row>
     <row r="682">
-      <c r="E682" s="37"/>
+      <c r="E682" s="36"/>
     </row>
     <row r="683">
-      <c r="E683" s="37"/>
+      <c r="E683" s="36"/>
     </row>
     <row r="684">
-      <c r="E684" s="37"/>
+      <c r="E684" s="36"/>
     </row>
     <row r="685">
-      <c r="E685" s="37"/>
+      <c r="E685" s="36"/>
     </row>
     <row r="686">
-      <c r="E686" s="37"/>
+      <c r="E686" s="36"/>
     </row>
     <row r="687">
-      <c r="E687" s="37"/>
+      <c r="E687" s="36"/>
     </row>
     <row r="688">
-      <c r="E688" s="37"/>
+      <c r="E688" s="36"/>
     </row>
     <row r="689">
-      <c r="E689" s="37"/>
+      <c r="E689" s="36"/>
     </row>
     <row r="690">
-      <c r="E690" s="37"/>
+      <c r="E690" s="36"/>
     </row>
     <row r="691">
-      <c r="E691" s="37"/>
+      <c r="E691" s="36"/>
     </row>
     <row r="692">
-      <c r="E692" s="37"/>
+      <c r="E692" s="36"/>
     </row>
     <row r="693">
-      <c r="E693" s="37"/>
+      <c r="E693" s="36"/>
     </row>
     <row r="694">
-      <c r="E694" s="37"/>
+      <c r="E694" s="36"/>
     </row>
     <row r="695">
-      <c r="E695" s="37"/>
+      <c r="E695" s="36"/>
     </row>
     <row r="696">
-      <c r="E696" s="37"/>
+      <c r="E696" s="36"/>
     </row>
     <row r="697">
-      <c r="E697" s="37"/>
+      <c r="E697" s="36"/>
     </row>
     <row r="698">
-      <c r="E698" s="37"/>
+      <c r="E698" s="36"/>
     </row>
     <row r="699">
-      <c r="E699" s="37"/>
+      <c r="E699" s="36"/>
     </row>
     <row r="700">
-      <c r="E700" s="37"/>
+      <c r="E700" s="36"/>
     </row>
     <row r="701">
-      <c r="E701" s="37"/>
+      <c r="E701" s="36"/>
     </row>
     <row r="702">
-      <c r="E702" s="37"/>
+      <c r="E702" s="36"/>
     </row>
     <row r="703">
-      <c r="E703" s="37"/>
+      <c r="E703" s="36"/>
     </row>
     <row r="704">
-      <c r="E704" s="37"/>
+      <c r="E704" s="36"/>
     </row>
     <row r="705">
-      <c r="E705" s="37"/>
+      <c r="E705" s="36"/>
     </row>
     <row r="706">
-      <c r="E706" s="37"/>
+      <c r="E706" s="36"/>
     </row>
     <row r="707">
-      <c r="E707" s="37"/>
+      <c r="E707" s="36"/>
     </row>
     <row r="708">
-      <c r="E708" s="37"/>
+      <c r="E708" s="36"/>
     </row>
     <row r="709">
-      <c r="E709" s="37"/>
+      <c r="E709" s="36"/>
     </row>
     <row r="710">
-      <c r="E710" s="37"/>
+      <c r="E710" s="36"/>
     </row>
     <row r="711">
-      <c r="E711" s="37"/>
+      <c r="E711" s="36"/>
     </row>
     <row r="712">
-      <c r="E712" s="37"/>
+      <c r="E712" s="36"/>
     </row>
     <row r="713">
-      <c r="E713" s="37"/>
+      <c r="E713" s="36"/>
     </row>
     <row r="714">
-      <c r="E714" s="37"/>
+      <c r="E714" s="36"/>
     </row>
     <row r="715">
-      <c r="E715" s="37"/>
+      <c r="E715" s="36"/>
     </row>
     <row r="716">
-      <c r="E716" s="37"/>
+      <c r="E716" s="36"/>
     </row>
     <row r="717">
-      <c r="E717" s="37"/>
+      <c r="E717" s="36"/>
     </row>
     <row r="718">
-      <c r="E718" s="37"/>
+      <c r="E718" s="36"/>
     </row>
     <row r="719">
-      <c r="E719" s="37"/>
+      <c r="E719" s="36"/>
     </row>
     <row r="720">
-      <c r="E720" s="37"/>
+      <c r="E720" s="36"/>
     </row>
     <row r="721">
-      <c r="E721" s="37"/>
+      <c r="E721" s="36"/>
     </row>
     <row r="722">
-      <c r="E722" s="37"/>
+      <c r="E722" s="36"/>
     </row>
     <row r="723">
-      <c r="E723" s="37"/>
+      <c r="E723" s="36"/>
     </row>
     <row r="724">
-      <c r="E724" s="37"/>
+      <c r="E724" s="36"/>
     </row>
     <row r="725">
-      <c r="E725" s="37"/>
+      <c r="E725" s="36"/>
     </row>
     <row r="726">
-      <c r="E726" s="37"/>
+      <c r="E726" s="36"/>
     </row>
     <row r="727">
-      <c r="E727" s="37"/>
+      <c r="E727" s="36"/>
     </row>
     <row r="728">
-      <c r="E728" s="37"/>
+      <c r="E728" s="36"/>
     </row>
     <row r="729">
-      <c r="E729" s="37"/>
+      <c r="E729" s="36"/>
     </row>
     <row r="730">
-      <c r="E730" s="37"/>
+      <c r="E730" s="36"/>
     </row>
     <row r="731">
-      <c r="E731" s="37"/>
+      <c r="E731" s="36"/>
     </row>
     <row r="732">
-      <c r="E732" s="37"/>
+      <c r="E732" s="36"/>
     </row>
     <row r="733">
-      <c r="E733" s="37"/>
+      <c r="E733" s="36"/>
     </row>
     <row r="734">
-      <c r="E734" s="37"/>
+      <c r="E734" s="36"/>
     </row>
     <row r="735">
-      <c r="E735" s="37"/>
+      <c r="E735" s="36"/>
     </row>
     <row r="736">
-      <c r="E736" s="37"/>
+      <c r="E736" s="36"/>
     </row>
     <row r="737">
-      <c r="E737" s="37"/>
+      <c r="E737" s="36"/>
     </row>
     <row r="738">
-      <c r="E738" s="37"/>
+      <c r="E738" s="36"/>
     </row>
     <row r="739">
-      <c r="E739" s="37"/>
+      <c r="E739" s="36"/>
     </row>
     <row r="740">
-      <c r="E740" s="37"/>
+      <c r="E740" s="36"/>
     </row>
     <row r="741">
-      <c r="E741" s="37"/>
+      <c r="E741" s="36"/>
     </row>
     <row r="742">
-      <c r="E742" s="37"/>
+      <c r="E742" s="36"/>
     </row>
     <row r="743">
-      <c r="E743" s="37"/>
+      <c r="E743" s="36"/>
     </row>
     <row r="744">
-      <c r="E744" s="37"/>
+      <c r="E744" s="36"/>
     </row>
     <row r="745">
-      <c r="E745" s="37"/>
+      <c r="E745" s="36"/>
     </row>
     <row r="746">
-      <c r="E746" s="37"/>
+      <c r="E746" s="36"/>
     </row>
     <row r="747">
-      <c r="E747" s="37"/>
+      <c r="E747" s="36"/>
     </row>
     <row r="748">
-      <c r="E748" s="37"/>
+      <c r="E748" s="36"/>
     </row>
     <row r="749">
-      <c r="E749" s="37"/>
+      <c r="E749" s="36"/>
     </row>
     <row r="750">
-      <c r="E750" s="37"/>
+      <c r="E750" s="36"/>
     </row>
     <row r="751">
-      <c r="E751" s="37"/>
+      <c r="E751" s="36"/>
     </row>
     <row r="752">
-      <c r="E752" s="37"/>
+      <c r="E752" s="36"/>
     </row>
     <row r="753">
-      <c r="E753" s="37"/>
+      <c r="E753" s="36"/>
     </row>
     <row r="754">
-      <c r="E754" s="37"/>
+      <c r="E754" s="36"/>
     </row>
     <row r="755">
-      <c r="E755" s="37"/>
+      <c r="E755" s="36"/>
     </row>
     <row r="756">
-      <c r="E756" s="37"/>
+      <c r="E756" s="36"/>
     </row>
     <row r="757">
-      <c r="E757" s="37"/>
+      <c r="E757" s="36"/>
     </row>
     <row r="758">
-      <c r="E758" s="37"/>
+      <c r="E758" s="36"/>
     </row>
     <row r="759">
-      <c r="E759" s="37"/>
+      <c r="E759" s="36"/>
     </row>
     <row r="760">
-      <c r="E760" s="37"/>
+      <c r="E760" s="36"/>
     </row>
     <row r="761">
-      <c r="E761" s="37"/>
+      <c r="E761" s="36"/>
     </row>
     <row r="762">
-      <c r="E762" s="37"/>
+      <c r="E762" s="36"/>
     </row>
     <row r="763">
-      <c r="E763" s="37"/>
+      <c r="E763" s="36"/>
     </row>
     <row r="764">
-      <c r="E764" s="37"/>
+      <c r="E764" s="36"/>
     </row>
     <row r="765">
-      <c r="E765" s="37"/>
+      <c r="E765" s="36"/>
     </row>
     <row r="766">
-      <c r="E766" s="37"/>
+      <c r="E766" s="36"/>
     </row>
     <row r="767">
-      <c r="E767" s="37"/>
+      <c r="E767" s="36"/>
     </row>
     <row r="768">
-      <c r="E768" s="37"/>
+      <c r="E768" s="36"/>
     </row>
     <row r="769">
-      <c r="E769" s="37"/>
+      <c r="E769" s="36"/>
     </row>
     <row r="770">
-      <c r="E770" s="37"/>
+      <c r="E770" s="36"/>
     </row>
     <row r="771">
-      <c r="E771" s="37"/>
+      <c r="E771" s="36"/>
     </row>
     <row r="772">
-      <c r="E772" s="37"/>
+      <c r="E772" s="36"/>
     </row>
     <row r="773">
-      <c r="E773" s="37"/>
+      <c r="E773" s="36"/>
     </row>
     <row r="774">
-      <c r="E774" s="37"/>
+      <c r="E774" s="36"/>
     </row>
     <row r="775">
-      <c r="E775" s="37"/>
+      <c r="E775" s="36"/>
     </row>
     <row r="776">
-      <c r="E776" s="37"/>
+      <c r="E776" s="36"/>
     </row>
     <row r="777">
-      <c r="E777" s="37"/>
+      <c r="E777" s="36"/>
     </row>
     <row r="778">
-      <c r="E778" s="37"/>
+      <c r="E778" s="36"/>
     </row>
     <row r="779">
-      <c r="E779" s="37"/>
+      <c r="E779" s="36"/>
     </row>
     <row r="780">
-      <c r="E780" s="37"/>
+      <c r="E780" s="36"/>
     </row>
     <row r="781">
-      <c r="E781" s="37"/>
+      <c r="E781" s="36"/>
     </row>
     <row r="782">
-      <c r="E782" s="37"/>
+      <c r="E782" s="36"/>
     </row>
     <row r="783">
-      <c r="E783" s="37"/>
+      <c r="E783" s="36"/>
     </row>
     <row r="784">
-      <c r="E784" s="37"/>
+      <c r="E784" s="36"/>
     </row>
     <row r="785">
-      <c r="E785" s="37"/>
+      <c r="E785" s="36"/>
     </row>
     <row r="786">
-      <c r="E786" s="37"/>
+      <c r="E786" s="36"/>
     </row>
     <row r="787">
-      <c r="E787" s="37"/>
+      <c r="E787" s="36"/>
     </row>
     <row r="788">
-      <c r="E788" s="37"/>
+      <c r="E788" s="36"/>
     </row>
     <row r="789">
-      <c r="E789" s="37"/>
+      <c r="E789" s="36"/>
     </row>
     <row r="790">
-      <c r="E790" s="37"/>
+      <c r="E790" s="36"/>
     </row>
     <row r="791">
-      <c r="E791" s="37"/>
+      <c r="E791" s="36"/>
     </row>
     <row r="792">
-      <c r="E792" s="37"/>
+      <c r="E792" s="36"/>
     </row>
     <row r="793">
-      <c r="E793" s="37"/>
+      <c r="E793" s="36"/>
     </row>
     <row r="794">
-      <c r="E794" s="37"/>
+      <c r="E794" s="36"/>
     </row>
     <row r="795">
-      <c r="E795" s="37"/>
+      <c r="E795" s="36"/>
     </row>
     <row r="796">
-      <c r="E796" s="37"/>
+      <c r="E796" s="36"/>
     </row>
     <row r="797">
-      <c r="E797" s="37"/>
+      <c r="E797" s="36"/>
     </row>
     <row r="798">
-      <c r="E798" s="37"/>
+      <c r="E798" s="36"/>
     </row>
     <row r="799">
-      <c r="E799" s="37"/>
+      <c r="E799" s="36"/>
     </row>
     <row r="800">
-      <c r="E800" s="37"/>
+      <c r="E800" s="36"/>
     </row>
     <row r="801">
-      <c r="E801" s="37"/>
+      <c r="E801" s="36"/>
     </row>
     <row r="802">
-      <c r="E802" s="37"/>
+      <c r="E802" s="36"/>
     </row>
     <row r="803">
-      <c r="E803" s="37"/>
+      <c r="E803" s="36"/>
     </row>
     <row r="804">
-      <c r="E804" s="37"/>
+      <c r="E804" s="36"/>
     </row>
     <row r="805">
-      <c r="E805" s="37"/>
+      <c r="E805" s="36"/>
     </row>
     <row r="806">
-      <c r="E806" s="37"/>
+      <c r="E806" s="36"/>
     </row>
     <row r="807">
-      <c r="E807" s="37"/>
+      <c r="E807" s="36"/>
     </row>
     <row r="808">
-      <c r="E808" s="37"/>
+      <c r="E808" s="36"/>
     </row>
     <row r="809">
-      <c r="E809" s="37"/>
+      <c r="E809" s="36"/>
     </row>
     <row r="810">
-      <c r="E810" s="37"/>
+      <c r="E810" s="36"/>
     </row>
     <row r="811">
-      <c r="E811" s="37"/>
+      <c r="E811" s="36"/>
     </row>
     <row r="812">
-      <c r="E812" s="37"/>
+      <c r="E812" s="36"/>
     </row>
     <row r="813">
-      <c r="E813" s="37"/>
+      <c r="E813" s="36"/>
     </row>
     <row r="814">
-      <c r="E814" s="37"/>
+      <c r="E814" s="36"/>
     </row>
     <row r="815">
-      <c r="E815" s="37"/>
+      <c r="E815" s="36"/>
     </row>
     <row r="816">
-      <c r="E816" s="37"/>
+      <c r="E816" s="36"/>
     </row>
     <row r="817">
-      <c r="E817" s="37"/>
+      <c r="E817" s="36"/>
     </row>
     <row r="818">
-      <c r="E818" s="37"/>
+      <c r="E818" s="36"/>
     </row>
     <row r="819">
-      <c r="E819" s="37"/>
+      <c r="E819" s="36"/>
     </row>
     <row r="820">
-      <c r="E820" s="37"/>
+      <c r="E820" s="36"/>
     </row>
     <row r="821">
-      <c r="E821" s="37"/>
+      <c r="E821" s="36"/>
     </row>
     <row r="822">
-      <c r="E822" s="37"/>
+      <c r="E822" s="36"/>
     </row>
     <row r="823">
-      <c r="E823" s="37"/>
+      <c r="E823" s="36"/>
     </row>
     <row r="824">
-      <c r="E824" s="37"/>
+      <c r="E824" s="36"/>
     </row>
     <row r="825">
-      <c r="E825" s="37"/>
+      <c r="E825" s="36"/>
     </row>
     <row r="826">
-      <c r="E826" s="37"/>
+      <c r="E826" s="36"/>
     </row>
     <row r="827">
-      <c r="E827" s="37"/>
+      <c r="E827" s="36"/>
     </row>
     <row r="828">
-      <c r="E828" s="37"/>
+      <c r="E828" s="36"/>
     </row>
     <row r="829">
-      <c r="E829" s="37"/>
+      <c r="E829" s="36"/>
     </row>
     <row r="830">
-      <c r="E830" s="37"/>
+      <c r="E830" s="36"/>
     </row>
     <row r="831">
-      <c r="E831" s="37"/>
+      <c r="E831" s="36"/>
     </row>
     <row r="832">
-      <c r="E832" s="37"/>
+      <c r="E832" s="36"/>
     </row>
     <row r="833">
-      <c r="E833" s="37"/>
+      <c r="E833" s="36"/>
     </row>
     <row r="834">
-      <c r="E834" s="37"/>
+      <c r="E834" s="36"/>
     </row>
     <row r="835">
-      <c r="E835" s="37"/>
+      <c r="E835" s="36"/>
     </row>
     <row r="836">
-      <c r="E836" s="37"/>
+      <c r="E836" s="36"/>
     </row>
     <row r="837">
-      <c r="E837" s="37"/>
+      <c r="E837" s="36"/>
     </row>
     <row r="838">
-      <c r="E838" s="37"/>
+      <c r="E838" s="36"/>
     </row>
     <row r="839">
-      <c r="E839" s="37"/>
+      <c r="E839" s="36"/>
     </row>
     <row r="840">
-      <c r="E840" s="37"/>
+      <c r="E840" s="36"/>
     </row>
     <row r="841">
-      <c r="E841" s="37"/>
+      <c r="E841" s="36"/>
     </row>
     <row r="842">
-      <c r="E842" s="37"/>
+      <c r="E842" s="36"/>
     </row>
     <row r="843">
-      <c r="E843" s="37"/>
+      <c r="E843" s="36"/>
     </row>
     <row r="844">
-      <c r="E844" s="37"/>
+      <c r="E844" s="36"/>
     </row>
     <row r="845">
-      <c r="E845" s="37"/>
+      <c r="E845" s="36"/>
     </row>
     <row r="846">
-      <c r="E846" s="37"/>
+      <c r="E846" s="36"/>
     </row>
     <row r="847">
-      <c r="E847" s="37"/>
+      <c r="E847" s="36"/>
     </row>
     <row r="848">
-      <c r="E848" s="37"/>
+      <c r="E848" s="36"/>
     </row>
     <row r="849">
-      <c r="E849" s="37"/>
+      <c r="E849" s="36"/>
     </row>
     <row r="850">
-      <c r="E850" s="37"/>
+      <c r="E850" s="36"/>
     </row>
     <row r="851">
-      <c r="E851" s="37"/>
+      <c r="E851" s="36"/>
     </row>
     <row r="852">
-      <c r="E852" s="37"/>
+      <c r="E852" s="36"/>
     </row>
     <row r="853">
-      <c r="E853" s="37"/>
+      <c r="E853" s="36"/>
     </row>
     <row r="854">
-      <c r="E854" s="37"/>
+      <c r="E854" s="36"/>
     </row>
     <row r="855">
-      <c r="E855" s="37"/>
+      <c r="E855" s="36"/>
     </row>
     <row r="856">
-      <c r="E856" s="37"/>
+      <c r="E856" s="36"/>
     </row>
     <row r="857">
-      <c r="E857" s="37"/>
+      <c r="E857" s="36"/>
     </row>
     <row r="858">
-      <c r="E858" s="37"/>
+      <c r="E858" s="36"/>
     </row>
     <row r="859">
-      <c r="E859" s="37"/>
+      <c r="E859" s="36"/>
     </row>
     <row r="860">
-      <c r="E860" s="37"/>
+      <c r="E860" s="36"/>
     </row>
     <row r="861">
-      <c r="E861" s="37"/>
+      <c r="E861" s="36"/>
     </row>
     <row r="862">
-      <c r="E862" s="37"/>
+      <c r="E862" s="36"/>
     </row>
     <row r="863">
-      <c r="E863" s="37"/>
+      <c r="E863" s="36"/>
     </row>
     <row r="864">
-      <c r="E864" s="37"/>
+      <c r="E864" s="36"/>
     </row>
     <row r="865">
-      <c r="E865" s="37"/>
+      <c r="E865" s="36"/>
     </row>
     <row r="866">
-      <c r="E866" s="37"/>
+      <c r="E866" s="36"/>
     </row>
     <row r="867">
-      <c r="E867" s="37"/>
+      <c r="E867" s="36"/>
     </row>
     <row r="868">
-      <c r="E868" s="37"/>
+      <c r="E868" s="36"/>
     </row>
     <row r="869">
-      <c r="E869" s="37"/>
+      <c r="E869" s="36"/>
     </row>
     <row r="870">
-      <c r="E870" s="37"/>
+      <c r="E870" s="36"/>
     </row>
     <row r="871">
-      <c r="E871" s="37"/>
+      <c r="E871" s="36"/>
     </row>
     <row r="872">
-      <c r="E872" s="37"/>
+      <c r="E872" s="36"/>
     </row>
     <row r="873">
-      <c r="E873" s="37"/>
+      <c r="E873" s="36"/>
     </row>
     <row r="874">
-      <c r="E874" s="37"/>
+      <c r="E874" s="36"/>
     </row>
     <row r="875">
-      <c r="E875" s="37"/>
+      <c r="E875" s="36"/>
     </row>
     <row r="876">
-      <c r="E876" s="37"/>
+      <c r="E876" s="36"/>
     </row>
     <row r="877">
-      <c r="E877" s="37"/>
+      <c r="E877" s="36"/>
     </row>
     <row r="878">
-      <c r="E878" s="37"/>
+      <c r="E878" s="36"/>
     </row>
     <row r="879">
-      <c r="E879" s="37"/>
+      <c r="E879" s="36"/>
     </row>
     <row r="880">
-      <c r="E880" s="37"/>
+      <c r="E880" s="36"/>
     </row>
     <row r="881">
-      <c r="E881" s="37"/>
+      <c r="E881" s="36"/>
     </row>
     <row r="882">
-      <c r="E882" s="37"/>
+      <c r="E882" s="36"/>
     </row>
     <row r="883">
-      <c r="E883" s="37"/>
+      <c r="E883" s="36"/>
     </row>
     <row r="884">
-      <c r="E884" s="37"/>
+      <c r="E884" s="36"/>
     </row>
     <row r="885">
-      <c r="E885" s="37"/>
+      <c r="E885" s="36"/>
     </row>
     <row r="886">
-      <c r="E886" s="37"/>
+      <c r="E886" s="36"/>
     </row>
     <row r="887">
-      <c r="E887" s="37"/>
+      <c r="E887" s="36"/>
     </row>
     <row r="888">
-      <c r="E888" s="37"/>
+      <c r="E888" s="36"/>
     </row>
     <row r="889">
-      <c r="E889" s="37"/>
+      <c r="E889" s="36"/>
     </row>
     <row r="890">
-      <c r="E890" s="37"/>
+      <c r="E890" s="36"/>
     </row>
     <row r="891">
-      <c r="E891" s="37"/>
+      <c r="E891" s="36"/>
     </row>
     <row r="892">
-      <c r="E892" s="37"/>
+      <c r="E892" s="36"/>
     </row>
     <row r="893">
-      <c r="E893" s="37"/>
+      <c r="E893" s="36"/>
     </row>
     <row r="894">
-      <c r="E894" s="37"/>
+      <c r="E894" s="36"/>
     </row>
     <row r="895">
-      <c r="E895" s="37"/>
+      <c r="E895" s="36"/>
     </row>
     <row r="896">
-      <c r="E896" s="37"/>
+      <c r="E896" s="36"/>
     </row>
     <row r="897">
-      <c r="E897" s="37"/>
+      <c r="E897" s="36"/>
     </row>
     <row r="898">
-      <c r="E898" s="37"/>
+      <c r="E898" s="36"/>
     </row>
     <row r="899">
-      <c r="E899" s="37"/>
+      <c r="E899" s="36"/>
     </row>
     <row r="900">
-      <c r="E900" s="37"/>
+      <c r="E900" s="36"/>
     </row>
     <row r="901">
-      <c r="E901" s="37"/>
+      <c r="E901" s="36"/>
     </row>
     <row r="902">
-      <c r="E902" s="37"/>
+      <c r="E902" s="36"/>
     </row>
     <row r="903">
-      <c r="E903" s="37"/>
+      <c r="E903" s="36"/>
     </row>
     <row r="904">
-      <c r="E904" s="37"/>
+      <c r="E904" s="36"/>
     </row>
     <row r="905">
-      <c r="E905" s="37"/>
+      <c r="E905" s="36"/>
     </row>
     <row r="906">
-      <c r="E906" s="37"/>
+      <c r="E906" s="36"/>
     </row>
     <row r="907">
-      <c r="E907" s="37"/>
+      <c r="E907" s="36"/>
     </row>
     <row r="908">
-      <c r="E908" s="37"/>
+      <c r="E908" s="36"/>
     </row>
     <row r="909">
-      <c r="E909" s="37"/>
+      <c r="E909" s="36"/>
     </row>
     <row r="910">
-      <c r="E910" s="37"/>
+      <c r="E910" s="36"/>
     </row>
     <row r="911">
-      <c r="E911" s="37"/>
+      <c r="E911" s="36"/>
     </row>
     <row r="912">
-      <c r="E912" s="37"/>
+      <c r="E912" s="36"/>
     </row>
     <row r="913">
-      <c r="E913" s="37"/>
+      <c r="E913" s="36"/>
     </row>
     <row r="914">
-      <c r="E914" s="37"/>
+      <c r="E914" s="36"/>
     </row>
     <row r="915">
-      <c r="E915" s="37"/>
+      <c r="E915" s="36"/>
     </row>
     <row r="916">
-      <c r="E916" s="37"/>
+      <c r="E916" s="36"/>
     </row>
     <row r="917">
-      <c r="E917" s="37"/>
+      <c r="E917" s="36"/>
     </row>
     <row r="918">
-      <c r="E918" s="37"/>
+      <c r="E918" s="36"/>
     </row>
     <row r="919">
-      <c r="E919" s="37"/>
+      <c r="E919" s="36"/>
     </row>
     <row r="920">
-      <c r="E920" s="37"/>
+      <c r="E920" s="36"/>
     </row>
     <row r="921">
-      <c r="E921" s="37"/>
+      <c r="E921" s="36"/>
     </row>
     <row r="922">
-      <c r="E922" s="37"/>
+      <c r="E922" s="36"/>
     </row>
     <row r="923">
-      <c r="E923" s="37"/>
+      <c r="E923" s="36"/>
     </row>
     <row r="924">
-      <c r="E924" s="37"/>
+      <c r="E924" s="36"/>
     </row>
     <row r="925">
-      <c r="E925" s="37"/>
+      <c r="E925" s="36"/>
     </row>
     <row r="926">
-      <c r="E926" s="37"/>
+      <c r="E926" s="36"/>
     </row>
     <row r="927">
-      <c r="E927" s="37"/>
+      <c r="E927" s="36"/>
     </row>
     <row r="928">
-      <c r="E928" s="37"/>
+      <c r="E928" s="36"/>
     </row>
     <row r="929">
-      <c r="E929" s="37"/>
+      <c r="E929" s="36"/>
     </row>
     <row r="930">
-      <c r="E930" s="37"/>
+      <c r="E930" s="36"/>
     </row>
     <row r="931">
-      <c r="E931" s="37"/>
+      <c r="E931" s="36"/>
     </row>
     <row r="932">
-      <c r="E932" s="37"/>
+      <c r="E932" s="36"/>
     </row>
     <row r="933">
-      <c r="E933" s="37"/>
+      <c r="E933" s="36"/>
     </row>
     <row r="934">
-      <c r="E934" s="37"/>
+      <c r="E934" s="36"/>
     </row>
     <row r="935">
-      <c r="E935" s="37"/>
+      <c r="E935" s="36"/>
     </row>
     <row r="936">
-      <c r="E936" s="37"/>
+      <c r="E936" s="36"/>
     </row>
     <row r="937">
-      <c r="E937" s="37"/>
+      <c r="E937" s="36"/>
     </row>
     <row r="938">
-      <c r="E938" s="37"/>
+      <c r="E938" s="36"/>
     </row>
     <row r="939">
-      <c r="E939" s="37"/>
+      <c r="E939" s="36"/>
     </row>
     <row r="940">
-      <c r="E940" s="37"/>
+      <c r="E940" s="36"/>
     </row>
     <row r="941">
-      <c r="E941" s="37"/>
+      <c r="E941" s="36"/>
     </row>
     <row r="942">
-      <c r="E942" s="37"/>
+      <c r="E942" s="36"/>
     </row>
     <row r="943">
-      <c r="E943" s="37"/>
+      <c r="E943" s="36"/>
     </row>
     <row r="944">
-      <c r="E944" s="37"/>
+      <c r="E944" s="36"/>
     </row>
     <row r="945">
-      <c r="E945" s="37"/>
+      <c r="E945" s="36"/>
     </row>
     <row r="946">
-      <c r="E946" s="37"/>
+      <c r="E946" s="36"/>
     </row>
     <row r="947">
-      <c r="E947" s="37"/>
+      <c r="E947" s="36"/>
     </row>
     <row r="948">
-      <c r="E948" s="37"/>
+      <c r="E948" s="36"/>
     </row>
     <row r="949">
-      <c r="E949" s="37"/>
+      <c r="E949" s="36"/>
     </row>
     <row r="950">
-      <c r="E950" s="37"/>
+      <c r="E950" s="36"/>
     </row>
     <row r="951">
-      <c r="E951" s="37"/>
+      <c r="E951" s="36"/>
     </row>
     <row r="952">
-      <c r="E952" s="37"/>
+      <c r="E952" s="36"/>
     </row>
     <row r="953">
-      <c r="E953" s="37"/>
+      <c r="E953" s="36"/>
     </row>
     <row r="954">
-      <c r="E954" s="37"/>
+      <c r="E954" s="36"/>
     </row>
     <row r="955">
-      <c r="E955" s="37"/>
+      <c r="E955" s="36"/>
     </row>
     <row r="956">
-      <c r="E956" s="37"/>
+      <c r="E956" s="36"/>
     </row>
     <row r="957">
-      <c r="E957" s="37"/>
+      <c r="E957" s="36"/>
     </row>
     <row r="958">
-      <c r="E958" s="37"/>
+      <c r="E958" s="36"/>
     </row>
     <row r="959">
-      <c r="E959" s="37"/>
+      <c r="E959" s="36"/>
     </row>
     <row r="960">
-      <c r="E960" s="37"/>
+      <c r="E960" s="36"/>
     </row>
     <row r="961">
-      <c r="E961" s="37"/>
+      <c r="E961" s="36"/>
     </row>
     <row r="962">
-      <c r="E962" s="37"/>
+      <c r="E962" s="36"/>
     </row>
     <row r="963">
-      <c r="E963" s="37"/>
+      <c r="E963" s="36"/>
     </row>
     <row r="964">
-      <c r="E964" s="37"/>
+      <c r="E964" s="36"/>
     </row>
     <row r="965">
-      <c r="E965" s="37"/>
+      <c r="E965" s="36"/>
     </row>
     <row r="966">
-      <c r="E966" s="37"/>
+      <c r="E966" s="36"/>
     </row>
     <row r="967">
-      <c r="E967" s="37"/>
+      <c r="E967" s="36"/>
     </row>
     <row r="968">
-      <c r="E968" s="37"/>
+      <c r="E968" s="36"/>
     </row>
     <row r="969">
-      <c r="E969" s="37"/>
+      <c r="E969" s="36"/>
     </row>
     <row r="970">
-      <c r="E970" s="37"/>
+      <c r="E970" s="36"/>
     </row>
     <row r="971">
-      <c r="E971" s="37"/>
+      <c r="E971" s="36"/>
     </row>
     <row r="972">
-      <c r="E972" s="37"/>
+      <c r="E972" s="36"/>
     </row>
     <row r="973">
-      <c r="E973" s="37"/>
+      <c r="E973" s="36"/>
     </row>
     <row r="974">
-      <c r="E974" s="37"/>
+      <c r="E974" s="36"/>
     </row>
     <row r="975">
-      <c r="E975" s="37"/>
+      <c r="E975" s="36"/>
     </row>
     <row r="976">
-      <c r="E976" s="37"/>
+      <c r="E976" s="36"/>
     </row>
     <row r="977">
-      <c r="E977" s="37"/>
+      <c r="E977" s="36"/>
     </row>
     <row r="978">
-      <c r="E978" s="37"/>
+      <c r="E978" s="36"/>
     </row>
     <row r="979">
-      <c r="E979" s="37"/>
+      <c r="E979" s="36"/>
     </row>
     <row r="980">
-      <c r="E980" s="37"/>
+      <c r="E980" s="36"/>
     </row>
     <row r="981">
-      <c r="E981" s="37"/>
+      <c r="E981" s="36"/>
     </row>
     <row r="982">
-      <c r="E982" s="37"/>
+      <c r="E982" s="36"/>
     </row>
     <row r="983">
-      <c r="E983" s="37"/>
+      <c r="E983" s="36"/>
     </row>
     <row r="984">
-      <c r="E984" s="37"/>
+      <c r="E984" s="36"/>
     </row>
     <row r="985">
-      <c r="E985" s="37"/>
+      <c r="E985" s="36"/>
     </row>
     <row r="986">
-      <c r="E986" s="37"/>
+      <c r="E986" s="36"/>
     </row>
     <row r="987">
-      <c r="E987" s="37"/>
+      <c r="E987" s="36"/>
     </row>
     <row r="988">
-      <c r="E988" s="37"/>
+      <c r="E988" s="36"/>
     </row>
     <row r="989">
-      <c r="E989" s="37"/>
+      <c r="E989" s="36"/>
     </row>
     <row r="990">
-      <c r="E990" s="37"/>
+      <c r="E990" s="36"/>
     </row>
     <row r="991">
-      <c r="E991" s="37"/>
+      <c r="E991" s="36"/>
     </row>
     <row r="992">
-      <c r="E992" s="37"/>
+      <c r="E992" s="36"/>
     </row>
     <row r="993">
-      <c r="E993" s="37"/>
+      <c r="E993" s="36"/>
     </row>
     <row r="994">
-      <c r="E994" s="37"/>
+      <c r="E994" s="36"/>
     </row>
     <row r="995">
-      <c r="E995" s="37"/>
+      <c r="E995" s="36"/>
     </row>
     <row r="996">
-      <c r="E996" s="37"/>
+      <c r="E996" s="36"/>
     </row>
     <row r="997">
-      <c r="E997" s="37"/>
+      <c r="E997" s="36"/>
     </row>
     <row r="998">
-      <c r="E998" s="37"/>
+      <c r="E998" s="36"/>
     </row>
     <row r="999">
-      <c r="E999" s="37"/>
+      <c r="E999" s="36"/>
     </row>
     <row r="1000">
-      <c r="E1000" s="37"/>
+      <c r="E1000" s="36"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -22948,25 +22960,25 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>130</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>131</v>
       </c>
       <c r="D2" s="7">
         <v>44691.0</v>
       </c>
-      <c r="E2" s="38" t="s">
-        <v>132</v>
+      <c r="E2" s="37" t="s">
+        <v>131</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H2" s="7">
         <v>44691.0</v>
@@ -22974,449 +22986,453 @@
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="38" t="s">
         <v>133</v>
-      </c>
-      <c r="B3" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="39" t="s">
-        <v>134</v>
       </c>
       <c r="D3" s="7">
         <v>44691.0</v>
       </c>
-      <c r="E3" s="40" t="s">
-        <v>135</v>
+      <c r="E3" s="39" t="s">
+        <v>134</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="G3" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="41">
+        <v>63</v>
+      </c>
+      <c r="G3" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="40">
         <v>44692.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="B4" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="39" t="s">
-        <v>134</v>
+        <v>135</v>
+      </c>
+      <c r="B4" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>133</v>
       </c>
       <c r="D4" s="7">
         <v>44691.0</v>
       </c>
-      <c r="E4" s="40" t="s">
-        <v>137</v>
+      <c r="E4" s="39" t="s">
+        <v>136</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="G4" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="42">
+        <v>63</v>
+      </c>
+      <c r="G4" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="41">
         <v>44900.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="B5" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="39" t="s">
-        <v>134</v>
+        <v>137</v>
+      </c>
+      <c r="B5" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>133</v>
       </c>
       <c r="D5" s="7">
         <v>44691.0</v>
       </c>
-      <c r="E5" s="40" t="s">
-        <v>139</v>
+      <c r="E5" s="39" t="s">
+        <v>138</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="G5" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="42">
+        <v>63</v>
+      </c>
+      <c r="G5" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="41">
         <v>44900.0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="B6" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="39" t="s">
-        <v>134</v>
+        <v>139</v>
+      </c>
+      <c r="B6" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="38" t="s">
+        <v>133</v>
       </c>
       <c r="D6" s="7">
         <v>44691.0</v>
       </c>
-      <c r="E6" s="40" t="s">
-        <v>141</v>
+      <c r="E6" s="39" t="s">
+        <v>140</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="G6" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" s="42">
+        <v>63</v>
+      </c>
+      <c r="G6" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="41">
         <v>44900.0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D7" s="7">
         <v>44692.0</v>
       </c>
-      <c r="E7" s="34" t="s">
-        <v>143</v>
+      <c r="E7" s="33" t="s">
+        <v>142</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="G7" s="39"/>
-      <c r="H7" s="42"/>
+        <v>63</v>
+      </c>
+      <c r="G7" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="H7" s="43">
+        <v>44900.0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D8" s="7">
         <v>44692.0</v>
       </c>
-      <c r="E8" s="34" t="s">
-        <v>145</v>
+      <c r="E8" s="33" t="s">
+        <v>144</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" s="42">
+        <v>18</v>
+      </c>
+      <c r="H8" s="41">
         <v>44900.0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="4" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D9" s="7">
         <v>44692.0</v>
       </c>
-      <c r="E9" s="34" t="s">
-        <v>147</v>
+      <c r="E9" s="33" t="s">
+        <v>146</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="41">
+        <v>18</v>
+      </c>
+      <c r="H9" s="40">
         <v>44692.0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D10" s="7">
         <v>44692.0</v>
       </c>
-      <c r="E10" s="38" t="s">
-        <v>149</v>
+      <c r="E10" s="37" t="s">
+        <v>148</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H10" s="42">
+        <v>18</v>
+      </c>
+      <c r="H10" s="41">
         <v>44900.0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D11" s="7">
         <v>44692.0</v>
       </c>
-      <c r="E11" s="34" t="s">
-        <v>151</v>
+      <c r="E11" s="33" t="s">
+        <v>150</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" s="42">
+        <v>18</v>
+      </c>
+      <c r="H11" s="41">
         <v>44900.0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="B12" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="39" t="s">
-        <v>24</v>
+        <v>151</v>
+      </c>
+      <c r="B12" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="38" t="s">
+        <v>23</v>
       </c>
       <c r="D12" s="7">
         <v>44691.0</v>
       </c>
-      <c r="E12" s="40" t="s">
-        <v>153</v>
+      <c r="E12" s="39" t="s">
+        <v>152</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" s="42">
+        <v>18</v>
+      </c>
+      <c r="H12" s="41">
         <v>44900.0</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="35"/>
-      <c r="B14" s="35"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
+      <c r="A14" s="34"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="34"/>
+      <c r="E14" s="34"/>
+      <c r="F14" s="34"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
     </row>
     <row r="15">
-      <c r="A15" s="35"/>
-      <c r="B15" s="35"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
+      <c r="A15" s="34"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
+      <c r="H15" s="34"/>
     </row>
     <row r="16">
-      <c r="A16" s="35"/>
-      <c r="B16" s="35"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
+      <c r="A16" s="34"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
     </row>
     <row r="17">
-      <c r="A17" s="35"/>
-      <c r="B17" s="35"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
+      <c r="A17" s="34"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="34"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
     </row>
     <row r="18">
-      <c r="A18" s="35"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
+      <c r="A18" s="34"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="34"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
     </row>
     <row r="19">
-      <c r="A19" s="35"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
+      <c r="A19" s="34"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
     </row>
     <row r="20">
-      <c r="A20" s="35"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="35"/>
+      <c r="A20" s="34"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="35"/>
-      <c r="B21" s="35"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="35"/>
+      <c r="A21" s="34"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="35"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="35"/>
+      <c r="A22" s="34"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="35"/>
-      <c r="B23" s="35"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="35"/>
+      <c r="A23" s="34"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="35"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="35"/>
+      <c r="A24" s="34"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="35"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="35"/>
+      <c r="A25" s="34"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="35"/>
-      <c r="B26" s="35"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="35"/>
+      <c r="A26" s="34"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="35"/>
-      <c r="B27" s="35"/>
-      <c r="C27" s="35"/>
-      <c r="D27" s="35"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="35"/>
+      <c r="A27" s="34"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="34"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="35"/>
-      <c r="B28" s="35"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="35"/>
+      <c r="A28" s="34"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="35"/>
-      <c r="B29" s="35"/>
-      <c r="C29" s="35"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="35"/>
-      <c r="H29" s="35"/>
+      <c r="A29" s="34"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="34"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="35"/>
-      <c r="B30" s="35"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="35"/>
+      <c r="A30" s="34"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="34"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="35"/>
-      <c r="B31" s="35"/>
-      <c r="C31" s="35"/>
-      <c r="D31" s="35"/>
-      <c r="E31" s="35"/>
-      <c r="F31" s="35"/>
-      <c r="G31" s="35"/>
-      <c r="H31" s="35"/>
+      <c r="A31" s="34"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="34"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="43"/>
-      <c r="B32" s="43"/>
-      <c r="C32" s="43"/>
-      <c r="D32" s="43"/>
-      <c r="E32" s="43"/>
-      <c r="F32" s="43"/>
-      <c r="G32" s="43"/>
-      <c r="H32" s="43"/>
+      <c r="A32" s="44"/>
+      <c r="B32" s="44"/>
+      <c r="C32" s="44"/>
+      <c r="D32" s="44"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="44"/>
     </row>
     <row r="33" ht="15.75" customHeight="1"/>
     <row r="34" ht="15.75" customHeight="1"/>
@@ -24432,25 +24448,25 @@
     </row>
     <row r="2">
       <c r="A2" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D2" s="7">
         <v>44691.0</v>
       </c>
-      <c r="E2" s="34" t="s">
-        <v>155</v>
+      <c r="E2" s="33" t="s">
+        <v>154</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H2" s="7">
         <v>44692.0</v>
